--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -451,20 +451,14 @@
         <v>603.9666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>605</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>604.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>608</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>604.5166666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>606</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>604.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>611</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>605.2666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>611</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>605.55</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>606</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>605.9</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>613</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>606.2333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>607</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>606.4833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>608</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>606.75</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>613</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>607</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>608</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>607.2833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>609</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>607.5166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>614</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>607.7833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>611</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1064,20 +976,14 @@
         <v>608.3166666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>609</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1112,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1151,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1190,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1229,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1268,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1307,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1346,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1385,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1463,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1498,15 +1364,11 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1537,15 +1399,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1580,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1619,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1658,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1697,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1736,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1775,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1810,16 +1644,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2719,14 +2551,20 @@
         <v>619.1166666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>629</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2592,20 @@
         <v>619.4833333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>630</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2796,7 +2640,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2679,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2866,7 +2718,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2901,7 +2757,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2936,7 +2796,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2971,7 +2835,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3006,7 +2874,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3041,7 +2913,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3076,7 +2952,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +2991,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3146,7 +3030,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3069,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3216,7 +3108,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3251,7 +3147,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3286,7 +3186,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3321,7 +3225,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3356,7 +3264,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3391,7 +3303,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3426,7 +3342,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3461,7 +3381,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3496,7 +3420,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3459,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3566,7 +3498,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3601,7 +3537,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3636,7 +3576,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3671,7 +3615,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3706,7 +3654,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3741,7 +3693,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3776,7 +3732,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3811,7 +3771,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3846,7 +3810,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3881,7 +3849,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3916,7 +3888,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3951,7 +3927,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +3966,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4021,7 +4005,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4056,7 +4044,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4084,14 +4076,20 @@
         <v>624.7833333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>618</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4119,14 +4117,20 @@
         <v>624.7333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>618</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +4158,20 @@
         <v>624.8333333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>616</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4189,14 +4199,20 @@
         <v>624.75</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>625</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4231,7 +4247,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4286,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4301,7 +4325,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4336,7 +4364,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4371,7 +4403,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4442,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +4474,20 @@
         <v>624.7333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>621</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4469,14 +4515,20 @@
         <v>624.75</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>622</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4556,20 @@
         <v>624.7</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>621</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4546,7 +4604,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4581,7 +4643,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4616,7 +4682,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4651,7 +4721,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +4760,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>605</v>
       </c>
       <c r="C2" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D2" t="n">
         <v>605</v>
       </c>
       <c r="E2" t="n">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F2" t="n">
-        <v>6718.361</v>
+        <v>2309.7329</v>
       </c>
       <c r="G2" t="n">
-        <v>603.9666666666667</v>
+        <v>603.7833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C3" t="n">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D3" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E3" t="n">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F3" t="n">
-        <v>493.421</v>
+        <v>6718.361</v>
       </c>
       <c r="G3" t="n">
-        <v>604.25</v>
+        <v>603.9666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,31 +503,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C4" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D4" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E4" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F4" t="n">
-        <v>4138.9757</v>
+        <v>493.421</v>
       </c>
       <c r="G4" t="n">
-        <v>604.5166666666667</v>
+        <v>604.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>602</v>
+      </c>
+      <c r="K4" t="n">
+        <v>602</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -538,22 +542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C5" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D5" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E5" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4138.9757</v>
       </c>
       <c r="G5" t="n">
-        <v>604.9</v>
+        <v>604.5166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +566,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>602</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -576,19 +586,19 @@
         <v>611</v>
       </c>
       <c r="C6" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D6" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E6" t="n">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F6" t="n">
-        <v>4881.4582</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>605.2666666666667</v>
+        <v>604.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +607,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>602</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +624,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C7" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D7" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E7" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F7" t="n">
-        <v>70.9999</v>
+        <v>4881.4582</v>
       </c>
       <c r="G7" t="n">
-        <v>605.55</v>
+        <v>605.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>611</v>
+      </c>
+      <c r="K7" t="n">
+        <v>602</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C8" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D8" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E8" t="n">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>70.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>605.9</v>
+        <v>605.55</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,8 +691,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>602</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,32 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C9" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D9" t="n">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E9" t="n">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F9" t="n">
-        <v>869.4018</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>606.2333333333333</v>
+        <v>605.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>606</v>
+      </c>
+      <c r="K9" t="n">
+        <v>602</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C10" t="n">
         <v>612</v>
@@ -722,23 +760,31 @@
         <v>612</v>
       </c>
       <c r="E10" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F10" t="n">
-        <v>1676.2802</v>
+        <v>869.4018</v>
       </c>
       <c r="G10" t="n">
-        <v>606.4833333333333</v>
+        <v>606.2333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>613</v>
+      </c>
+      <c r="K10" t="n">
+        <v>602</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +794,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C11" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D11" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E11" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1676.2802</v>
       </c>
       <c r="G11" t="n">
-        <v>606.75</v>
+        <v>606.4833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +818,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>602</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,32 +835,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C12" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D12" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="E12" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F12" t="n">
-        <v>946.3615</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>607</v>
+        <v>606.75</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>612</v>
+      </c>
+      <c r="K12" t="n">
+        <v>602</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +878,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13" t="n">
+        <v>608</v>
+      </c>
+      <c r="D13" t="n">
+        <v>608</v>
+      </c>
+      <c r="E13" t="n">
+        <v>608</v>
+      </c>
+      <c r="F13" t="n">
+        <v>946.3615</v>
+      </c>
+      <c r="G13" t="n">
+        <v>607</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>613</v>
       </c>
-      <c r="D13" t="n">
-        <v>613</v>
-      </c>
-      <c r="E13" t="n">
-        <v>609</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2026.887</v>
-      </c>
-      <c r="G13" t="n">
-        <v>607.2833333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>602</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +921,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C14" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D14" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E14" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2026.887</v>
       </c>
       <c r="G14" t="n">
-        <v>607.5166666666667</v>
+        <v>607.2833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +945,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>602</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +962,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C15" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D15" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E15" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F15" t="n">
-        <v>1249.9732</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>607.7833333333333</v>
+        <v>607.5166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +986,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>602</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +1003,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C16" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D16" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E16" t="n">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F16" t="n">
-        <v>11.4315</v>
+        <v>1249.9732</v>
       </c>
       <c r="G16" t="n">
-        <v>608.0166666666667</v>
+        <v>607.7833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +1027,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>602</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1044,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="C17" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D17" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E17" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F17" t="n">
-        <v>169.18</v>
+        <v>11.4315</v>
       </c>
       <c r="G17" t="n">
-        <v>608.3166666666667</v>
+        <v>608.0166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1068,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>602</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1085,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C18" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D18" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E18" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F18" t="n">
-        <v>1692.2642</v>
+        <v>169.18</v>
       </c>
       <c r="G18" t="n">
-        <v>608.5333333333333</v>
+        <v>608.3166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1109,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>602</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,10 +1138,10 @@
         <v>613</v>
       </c>
       <c r="F19" t="n">
-        <v>1007.0032</v>
+        <v>1692.2642</v>
       </c>
       <c r="G19" t="n">
-        <v>608.6833333333333</v>
+        <v>608.5333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>602</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,32 +1167,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C20" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D20" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E20" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F20" t="n">
-        <v>1.6091</v>
+        <v>1007.0032</v>
       </c>
       <c r="G20" t="n">
-        <v>608.8666666666667</v>
+        <v>608.6833333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>613</v>
+      </c>
+      <c r="K20" t="n">
+        <v>602</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1213,19 @@
         <v>614</v>
       </c>
       <c r="C21" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D21" t="n">
         <v>614</v>
       </c>
       <c r="E21" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F21" t="n">
-        <v>2164.5773</v>
+        <v>1.6091</v>
       </c>
       <c r="G21" t="n">
-        <v>608.9666666666667</v>
+        <v>608.8666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>602</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1251,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C22" t="n">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D22" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E22" t="n">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2164.5773</v>
       </c>
       <c r="G22" t="n">
-        <v>609.3</v>
+        <v>608.9666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>602</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,32 +1292,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C23" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D23" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E23" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F23" t="n">
-        <v>162.33766233</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>609.6166666666667</v>
+        <v>609.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>609</v>
+      </c>
+      <c r="K23" t="n">
+        <v>602</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1335,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C24" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D24" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E24" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F24" t="n">
-        <v>162.44836207</v>
+        <v>162.33766233</v>
       </c>
       <c r="G24" t="n">
-        <v>609.9666666666667</v>
+        <v>609.6166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>602</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1376,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C25" t="n">
         <v>617</v>
@@ -1247,13 +1385,13 @@
         <v>617</v>
       </c>
       <c r="E25" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F25" t="n">
-        <v>1088.71813793</v>
+        <v>162.44836207</v>
       </c>
       <c r="G25" t="n">
-        <v>610.3333333333334</v>
+        <v>609.9666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>602</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1420,19 @@
         <v>617</v>
       </c>
       <c r="C26" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D26" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E26" t="n">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F26" t="n">
-        <v>13361.6126</v>
+        <v>1088.71813793</v>
       </c>
       <c r="G26" t="n">
-        <v>610.6166666666667</v>
+        <v>610.3333333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,8 +1441,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>602</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1458,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>617</v>
+      </c>
+      <c r="C27" t="n">
         <v>619</v>
       </c>
-      <c r="C27" t="n">
-        <v>622</v>
-      </c>
       <c r="D27" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E27" t="n">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F27" t="n">
-        <v>9374.352999999999</v>
+        <v>13361.6126</v>
       </c>
       <c r="G27" t="n">
-        <v>610.95</v>
+        <v>610.6166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>602</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,32 +1499,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>619</v>
+      </c>
+      <c r="C28" t="n">
         <v>622</v>
-      </c>
-      <c r="C28" t="n">
-        <v>624</v>
       </c>
       <c r="D28" t="n">
         <v>625</v>
       </c>
       <c r="E28" t="n">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F28" t="n">
-        <v>710.9999</v>
+        <v>9374.352999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>611.3166666666667</v>
+        <v>610.95</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>602</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1543,19 @@
         <v>622</v>
       </c>
       <c r="C29" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D29" t="n">
         <v>625</v>
       </c>
       <c r="E29" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F29" t="n">
-        <v>3456.27970432</v>
+        <v>710.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>611.6833333333333</v>
+        <v>611.3166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,10 +1564,16 @@
         <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>602</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>1.031544850498339</v>
       </c>
     </row>
     <row r="30">
@@ -1416,25 +1584,25 @@
         <v>622</v>
       </c>
       <c r="C30" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D30" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E30" t="n">
         <v>621</v>
       </c>
       <c r="F30" t="n">
-        <v>3000</v>
+        <v>3456.27970432</v>
       </c>
       <c r="G30" t="n">
-        <v>611.9833333333333</v>
+        <v>611.6833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1448,22 +1616,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C31" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D31" t="n">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E31" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F31" t="n">
-        <v>12.4777</v>
+        <v>3000</v>
       </c>
       <c r="G31" t="n">
-        <v>612.3166666666667</v>
+        <v>611.9833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1654,19 @@
         <v>625</v>
       </c>
       <c r="C32" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D32" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E32" t="n">
         <v>625</v>
       </c>
       <c r="F32" t="n">
-        <v>1309.76279568</v>
+        <v>12.4777</v>
       </c>
       <c r="G32" t="n">
-        <v>612.7166666666667</v>
+        <v>612.3166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1686,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>625</v>
+      </c>
+      <c r="C33" t="n">
         <v>630</v>
       </c>
-      <c r="C33" t="n">
-        <v>631</v>
-      </c>
       <c r="D33" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E33" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F33" t="n">
-        <v>3565.08960432</v>
+        <v>1309.76279568</v>
       </c>
       <c r="G33" t="n">
-        <v>613.1166666666667</v>
+        <v>612.7166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1721,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C34" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D34" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E34" t="n">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3565.08960432</v>
       </c>
       <c r="G34" t="n">
-        <v>613.4666666666667</v>
+        <v>613.1166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1756,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C35" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D35" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="E35" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="F35" t="n">
-        <v>6833.0464</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>613.6333333333333</v>
+        <v>613.4666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,16 +1803,16 @@
         <v>619</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>6833.0464</v>
       </c>
       <c r="G36" t="n">
-        <v>613.7166666666667</v>
+        <v>613.6333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1661,19 +1829,19 @@
         <v>619</v>
       </c>
       <c r="C37" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D37" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E37" t="n">
         <v>619</v>
       </c>
       <c r="F37" t="n">
-        <v>982.7028</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>613.9333333333333</v>
+        <v>613.7166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1861,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C38" t="n">
+        <v>630</v>
+      </c>
+      <c r="D38" t="n">
+        <v>630</v>
+      </c>
+      <c r="E38" t="n">
         <v>619</v>
       </c>
-      <c r="D38" t="n">
-        <v>629</v>
-      </c>
-      <c r="E38" t="n">
-        <v>618</v>
-      </c>
       <c r="F38" t="n">
-        <v>418.0065</v>
+        <v>982.7028</v>
       </c>
       <c r="G38" t="n">
-        <v>614.05</v>
+        <v>613.9333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1896,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>618</v>
+      </c>
+      <c r="C39" t="n">
         <v>619</v>
       </c>
-      <c r="C39" t="n">
-        <v>630</v>
-      </c>
       <c r="D39" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E39" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F39" t="n">
-        <v>745.4299999999999</v>
+        <v>418.0065</v>
       </c>
       <c r="G39" t="n">
-        <v>614.2166666666667</v>
+        <v>614.05</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1934,19 @@
         <v>619</v>
       </c>
       <c r="C40" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D40" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E40" t="n">
         <v>619</v>
       </c>
       <c r="F40" t="n">
-        <v>1690.8313</v>
+        <v>745.4299999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>614.3833333333333</v>
+        <v>614.2166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C41" t="n">
         <v>620</v>
@@ -1807,13 +1975,13 @@
         <v>620</v>
       </c>
       <c r="E41" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F41" t="n">
-        <v>213</v>
+        <v>1690.8313</v>
       </c>
       <c r="G41" t="n">
-        <v>614.5166666666667</v>
+        <v>614.3833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +2001,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C42" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D42" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E42" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F42" t="n">
-        <v>2642.0168</v>
+        <v>213</v>
       </c>
       <c r="G42" t="n">
-        <v>614.5666666666667</v>
+        <v>614.5166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +2048,10 @@
         <v>619</v>
       </c>
       <c r="F43" t="n">
-        <v>266.5727</v>
+        <v>2642.0168</v>
       </c>
       <c r="G43" t="n">
-        <v>614.6333333333333</v>
+        <v>614.5666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +2071,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C44" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D44" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E44" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>266.5727</v>
       </c>
       <c r="G44" t="n">
-        <v>614.7833333333333</v>
+        <v>614.6333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +2118,10 @@
         <v>624</v>
       </c>
       <c r="F45" t="n">
-        <v>25.9734</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>615.0166666666667</v>
+        <v>614.7833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +2141,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C46" t="n">
         <v>624</v>
@@ -1982,13 +2150,13 @@
         <v>624</v>
       </c>
       <c r="E46" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F46" t="n">
-        <v>604.0232999999999</v>
+        <v>25.9734</v>
       </c>
       <c r="G46" t="n">
-        <v>615.15</v>
+        <v>615.0166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2176,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C47" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D47" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="E47" t="n">
         <v>618</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>604.0232999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>615.1833333333333</v>
+        <v>615.15</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2211,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C48" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D48" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E48" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>615.4166666666666</v>
+        <v>615.1833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2246,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C49" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D49" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="E49" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F49" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>615.5666666666667</v>
+        <v>615.4166666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2281,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C50" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D50" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E50" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F50" t="n">
-        <v>1074.8532</v>
+        <v>93</v>
       </c>
       <c r="G50" t="n">
-        <v>615.7666666666667</v>
+        <v>615.5666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2316,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C51" t="n">
         <v>620</v>
       </c>
       <c r="D51" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E51" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F51" t="n">
-        <v>1964.1375</v>
+        <v>1074.8532</v>
       </c>
       <c r="G51" t="n">
-        <v>615.8666666666667</v>
+        <v>615.7666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2351,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C52" t="n">
         <v>620</v>
       </c>
       <c r="D52" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E52" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F52" t="n">
-        <v>165.4695</v>
+        <v>1964.1375</v>
       </c>
       <c r="G52" t="n">
-        <v>615.95</v>
+        <v>615.8666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2386,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C53" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D53" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E53" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F53" t="n">
-        <v>5.52</v>
+        <v>165.4695</v>
       </c>
       <c r="G53" t="n">
-        <v>616.1666666666666</v>
+        <v>615.95</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2421,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>619</v>
+      </c>
+      <c r="C54" t="n">
         <v>624</v>
       </c>
-      <c r="C54" t="n">
-        <v>625</v>
-      </c>
       <c r="D54" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E54" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F54" t="n">
-        <v>1358.1474</v>
+        <v>5.52</v>
       </c>
       <c r="G54" t="n">
-        <v>616.4166666666666</v>
+        <v>616.1666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2456,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>624</v>
+      </c>
+      <c r="C55" t="n">
         <v>625</v>
       </c>
-      <c r="C55" t="n">
-        <v>627</v>
-      </c>
       <c r="D55" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E55" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F55" t="n">
-        <v>596.0265000000001</v>
+        <v>1358.1474</v>
       </c>
       <c r="G55" t="n">
-        <v>616.7666666666667</v>
+        <v>616.4166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2491,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C56" t="n">
         <v>627</v>
@@ -2332,13 +2500,13 @@
         <v>627</v>
       </c>
       <c r="E56" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F56" t="n">
-        <v>14.5477</v>
+        <v>596.0265000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>617.1166666666667</v>
+        <v>616.7666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2526,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C57" t="n">
         <v>627</v>
@@ -2367,13 +2535,13 @@
         <v>627</v>
       </c>
       <c r="E57" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F57" t="n">
-        <v>241.5464</v>
+        <v>14.5477</v>
       </c>
       <c r="G57" t="n">
-        <v>617.4666666666667</v>
+        <v>617.1166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2561,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C58" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D58" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E58" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="F58" t="n">
-        <v>638</v>
+        <v>241.5464</v>
       </c>
       <c r="G58" t="n">
-        <v>617.7166666666667</v>
+        <v>617.4666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2599,19 @@
         <v>619</v>
       </c>
       <c r="C59" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D59" t="n">
+        <v>621</v>
+      </c>
+      <c r="E59" t="n">
         <v>619</v>
       </c>
-      <c r="E59" t="n">
-        <v>618</v>
-      </c>
       <c r="F59" t="n">
-        <v>1643.0964</v>
+        <v>638</v>
       </c>
       <c r="G59" t="n">
-        <v>617.9333333333333</v>
+        <v>617.7166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2634,19 @@
         <v>619</v>
       </c>
       <c r="C60" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D60" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E60" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F60" t="n">
-        <v>273.6</v>
+        <v>1643.0964</v>
       </c>
       <c r="G60" t="n">
-        <v>618.25</v>
+        <v>617.9333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2666,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>619</v>
+      </c>
+      <c r="C61" t="n">
         <v>624</v>
       </c>
-      <c r="C61" t="n">
-        <v>629</v>
-      </c>
       <c r="D61" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E61" t="n">
         <v>619</v>
       </c>
       <c r="F61" t="n">
-        <v>4924.7592</v>
+        <v>273.6</v>
       </c>
       <c r="G61" t="n">
-        <v>618.65</v>
+        <v>618.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,38 +2701,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>624</v>
+      </c>
+      <c r="C62" t="n">
         <v>629</v>
       </c>
-      <c r="C62" t="n">
-        <v>630</v>
-      </c>
       <c r="D62" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E62" t="n">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F62" t="n">
-        <v>980.28730158</v>
+        <v>4924.7592</v>
       </c>
       <c r="G62" t="n">
-        <v>619.1166666666667</v>
+        <v>618.65</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>629</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2574,7 +2736,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C63" t="n">
         <v>630</v>
@@ -2583,29 +2745,23 @@
         <v>630</v>
       </c>
       <c r="E63" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F63" t="n">
-        <v>589.1269984199999</v>
+        <v>980.28730158</v>
       </c>
       <c r="G63" t="n">
-        <v>619.4833333333333</v>
+        <v>619.1166666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>630</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,22 +2771,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C64" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D64" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E64" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F64" t="n">
-        <v>240.9999</v>
+        <v>589.1269984199999</v>
       </c>
       <c r="G64" t="n">
-        <v>619.8833333333333</v>
+        <v>619.4833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2640,11 +2796,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2654,22 +2806,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C65" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D65" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E65" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F65" t="n">
-        <v>684</v>
+        <v>240.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>620.2</v>
+        <v>619.8833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2679,11 +2831,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2693,22 +2841,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C66" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D66" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E66" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F66" t="n">
-        <v>1709.8108</v>
+        <v>684</v>
       </c>
       <c r="G66" t="n">
-        <v>620.4833333333333</v>
+        <v>620.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,11 +2866,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2876,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C67" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D67" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E67" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F67" t="n">
-        <v>804.8511999999999</v>
+        <v>1709.8108</v>
       </c>
       <c r="G67" t="n">
-        <v>620.9166666666666</v>
+        <v>620.4833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,11 +2901,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2783,10 +2923,10 @@
         <v>632</v>
       </c>
       <c r="F68" t="n">
-        <v>1090.3212</v>
+        <v>804.8511999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>621.2333333333333</v>
+        <v>620.9166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,11 +2936,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2822,10 +2958,10 @@
         <v>632</v>
       </c>
       <c r="F69" t="n">
-        <v>605.5561</v>
+        <v>1090.3212</v>
       </c>
       <c r="G69" t="n">
-        <v>621.5666666666667</v>
+        <v>621.2333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2835,11 +2971,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2852,19 +2984,19 @@
         <v>632</v>
       </c>
       <c r="C70" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D70" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E70" t="n">
         <v>632</v>
       </c>
       <c r="F70" t="n">
-        <v>157.90780484</v>
+        <v>605.5561</v>
       </c>
       <c r="G70" t="n">
-        <v>621.95</v>
+        <v>621.5666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2874,11 +3006,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2888,7 +3016,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C71" t="n">
         <v>635</v>
@@ -2897,13 +3025,13 @@
         <v>635</v>
       </c>
       <c r="E71" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F71" t="n">
-        <v>301.348</v>
+        <v>157.90780484</v>
       </c>
       <c r="G71" t="n">
-        <v>622.3166666666667</v>
+        <v>621.95</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2913,11 +3041,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2930,19 +3054,19 @@
         <v>635</v>
       </c>
       <c r="C72" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D72" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E72" t="n">
         <v>635</v>
       </c>
       <c r="F72" t="n">
-        <v>5159.0485</v>
+        <v>301.348</v>
       </c>
       <c r="G72" t="n">
-        <v>622.8</v>
+        <v>622.3166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2952,11 +3076,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2966,22 +3086,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C73" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="D73" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="E73" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F73" t="n">
-        <v>208.18</v>
+        <v>5159.0485</v>
       </c>
       <c r="G73" t="n">
-        <v>623.05</v>
+        <v>622.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2991,11 +3111,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3008,19 +3124,19 @@
         <v>628</v>
       </c>
       <c r="C74" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D74" t="n">
         <v>628</v>
       </c>
       <c r="E74" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F74" t="n">
-        <v>1097.14</v>
+        <v>208.18</v>
       </c>
       <c r="G74" t="n">
-        <v>623.2666666666667</v>
+        <v>623.05</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3030,11 +3146,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3044,10 +3156,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>628</v>
+      </c>
+      <c r="C75" t="n">
         <v>627</v>
-      </c>
-      <c r="C75" t="n">
-        <v>628</v>
       </c>
       <c r="D75" t="n">
         <v>628</v>
@@ -3056,10 +3168,10 @@
         <v>627</v>
       </c>
       <c r="F75" t="n">
-        <v>159.25347133</v>
+        <v>1097.14</v>
       </c>
       <c r="G75" t="n">
-        <v>623.5833333333334</v>
+        <v>623.2666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3069,11 +3181,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3083,7 +3191,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C76" t="n">
         <v>628</v>
@@ -3092,13 +3200,13 @@
         <v>628</v>
       </c>
       <c r="E76" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F76" t="n">
-        <v>1382.799</v>
+        <v>159.25347133</v>
       </c>
       <c r="G76" t="n">
-        <v>623.8166666666667</v>
+        <v>623.5833333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3108,11 +3216,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3122,22 +3226,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C77" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D77" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E77" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F77" t="n">
-        <v>977.8366</v>
+        <v>1382.799</v>
       </c>
       <c r="G77" t="n">
-        <v>624.1</v>
+        <v>623.8166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3147,11 +3251,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3173,10 +3273,10 @@
         <v>627</v>
       </c>
       <c r="F78" t="n">
-        <v>159.2535</v>
+        <v>977.8366</v>
       </c>
       <c r="G78" t="n">
-        <v>624.3333333333334</v>
+        <v>624.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3186,11 +3286,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3200,22 +3296,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C79" t="n">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D79" t="n">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E79" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>159.2535</v>
       </c>
       <c r="G79" t="n">
-        <v>624.6833333333333</v>
+        <v>624.3333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3225,11 +3321,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3239,22 +3331,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C80" t="n">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D80" t="n">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E80" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F80" t="n">
-        <v>809.6213</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>624.8666666666667</v>
+        <v>624.6833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3264,11 +3356,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3366,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C81" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D81" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E81" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F81" t="n">
-        <v>253.5353</v>
+        <v>809.6213</v>
       </c>
       <c r="G81" t="n">
-        <v>625.2166666666667</v>
+        <v>624.8666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3303,11 +3391,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3317,7 +3401,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C82" t="n">
         <v>630</v>
@@ -3326,13 +3410,13 @@
         <v>630</v>
       </c>
       <c r="E82" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F82" t="n">
-        <v>69.9576</v>
+        <v>253.5353</v>
       </c>
       <c r="G82" t="n">
-        <v>625.4166666666666</v>
+        <v>625.2166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3342,11 +3426,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3368,10 +3448,10 @@
         <v>630</v>
       </c>
       <c r="F83" t="n">
-        <v>385</v>
+        <v>69.9576</v>
       </c>
       <c r="G83" t="n">
-        <v>625.65</v>
+        <v>625.4166666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3381,11 +3461,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3395,22 +3471,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C84" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D84" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E84" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F84" t="n">
-        <v>67.9999</v>
+        <v>385</v>
       </c>
       <c r="G84" t="n">
-        <v>625.85</v>
+        <v>625.65</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3420,11 +3496,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3434,22 +3506,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C85" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D85" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E85" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="F85" t="n">
-        <v>85.6563</v>
+        <v>67.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>625.9333333333333</v>
+        <v>625.85</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3459,11 +3531,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3485,10 +3553,10 @@
         <v>622</v>
       </c>
       <c r="F86" t="n">
-        <v>146.8301</v>
+        <v>85.6563</v>
       </c>
       <c r="G86" t="n">
-        <v>625.9833333333333</v>
+        <v>625.9333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,11 +3566,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3512,22 +3576,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C87" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D87" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E87" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F87" t="n">
-        <v>993.1</v>
+        <v>146.8301</v>
       </c>
       <c r="G87" t="n">
-        <v>626</v>
+        <v>625.9833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3537,11 +3601,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3551,22 +3611,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C88" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D88" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E88" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F88" t="n">
-        <v>1775.8153</v>
+        <v>993.1</v>
       </c>
       <c r="G88" t="n">
-        <v>625.95</v>
+        <v>626</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3576,11 +3636,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3602,10 +3658,10 @@
         <v>621</v>
       </c>
       <c r="F89" t="n">
-        <v>193.1383</v>
+        <v>1775.8153</v>
       </c>
       <c r="G89" t="n">
-        <v>625.8833333333333</v>
+        <v>625.95</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3615,11 +3671,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>621</v>
       </c>
       <c r="F90" t="n">
-        <v>352.633</v>
+        <v>193.1383</v>
       </c>
       <c r="G90" t="n">
         <v>625.8833333333333</v>
@@ -3654,11 +3706,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3680,10 +3728,10 @@
         <v>621</v>
       </c>
       <c r="F91" t="n">
-        <v>208.7739</v>
+        <v>352.633</v>
       </c>
       <c r="G91" t="n">
-        <v>625.8166666666667</v>
+        <v>625.8833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3693,11 +3741,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3719,10 +3763,10 @@
         <v>621</v>
       </c>
       <c r="F92" t="n">
-        <v>280.7771</v>
+        <v>208.7739</v>
       </c>
       <c r="G92" t="n">
-        <v>625.6666666666666</v>
+        <v>625.8166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3732,11 +3776,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3749,19 +3789,19 @@
         <v>621</v>
       </c>
       <c r="C93" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D93" t="n">
         <v>621</v>
       </c>
       <c r="E93" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F93" t="n">
-        <v>2753.7253</v>
+        <v>280.7771</v>
       </c>
       <c r="G93" t="n">
-        <v>625.4833333333333</v>
+        <v>625.6666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3771,11 +3811,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3785,22 +3821,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C94" t="n">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D94" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E94" t="n">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>2753.7253</v>
       </c>
       <c r="G94" t="n">
-        <v>625.45</v>
+        <v>625.4833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3810,11 +3846,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3824,22 +3856,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C95" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="D95" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E95" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F95" t="n">
-        <v>5146.1509</v>
+        <v>30</v>
       </c>
       <c r="G95" t="n">
-        <v>625.4333333333333</v>
+        <v>625.45</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3849,11 +3881,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +3891,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C96" t="n">
         <v>618</v>
       </c>
       <c r="D96" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E96" t="n">
         <v>618</v>
       </c>
       <c r="F96" t="n">
-        <v>1112.8108</v>
+        <v>5146.1509</v>
       </c>
       <c r="G96" t="n">
-        <v>625.4166666666666</v>
+        <v>625.4333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3888,11 +3916,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3902,22 +3926,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C97" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D97" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E97" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F97" t="n">
-        <v>6643.4698</v>
+        <v>1112.8108</v>
       </c>
       <c r="G97" t="n">
-        <v>625.1333333333333</v>
+        <v>625.4166666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3927,11 +3951,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3941,22 +3961,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C98" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D98" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F98" t="n">
-        <v>54.7713</v>
+        <v>6643.4698</v>
       </c>
       <c r="G98" t="n">
-        <v>625.1166666666667</v>
+        <v>625.1333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3966,11 +3986,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3983,19 +3999,19 @@
         <v>618</v>
       </c>
       <c r="C99" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D99" t="n">
         <v>618</v>
       </c>
       <c r="E99" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F99" t="n">
-        <v>1338.0268</v>
+        <v>54.7713</v>
       </c>
       <c r="G99" t="n">
-        <v>624.85</v>
+        <v>625.1166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4005,11 +4021,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4022,19 +4034,19 @@
         <v>618</v>
       </c>
       <c r="C100" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D100" t="n">
         <v>618</v>
       </c>
       <c r="E100" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F100" t="n">
-        <v>550</v>
+        <v>1338.0268</v>
       </c>
       <c r="G100" t="n">
-        <v>624.8166666666667</v>
+        <v>624.85</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4044,11 +4056,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4070,26 +4078,20 @@
         <v>618</v>
       </c>
       <c r="F101" t="n">
-        <v>397.4228</v>
+        <v>550</v>
       </c>
       <c r="G101" t="n">
-        <v>624.7833333333333</v>
+        <v>624.8166666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>618</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4099,38 +4101,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C102" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D102" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E102" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F102" t="n">
-        <v>311.9202</v>
+        <v>397.4228</v>
       </c>
       <c r="G102" t="n">
-        <v>624.7333333333333</v>
+        <v>624.7833333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>618</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4140,38 +4136,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C103" t="n">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D103" t="n">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="E103" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F103" t="n">
-        <v>6.3674</v>
+        <v>311.9202</v>
       </c>
       <c r="G103" t="n">
-        <v>624.8333333333334</v>
+        <v>624.7333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>616</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4181,38 +4171,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C104" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D104" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="E104" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F104" t="n">
-        <v>270.6801</v>
+        <v>6.3674</v>
       </c>
       <c r="G104" t="n">
-        <v>624.75</v>
+        <v>624.8333333333334</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>625</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4222,22 +4206,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C105" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D105" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E105" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>270.6801</v>
       </c>
       <c r="G105" t="n">
-        <v>624.7666666666667</v>
+        <v>624.75</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4247,11 +4231,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4261,22 +4241,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C106" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D106" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E106" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>624.8</v>
+        <v>624.7666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4286,11 +4266,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4300,22 +4276,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C107" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D107" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E107" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F107" t="n">
-        <v>234.5504</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>624.9166666666666</v>
+        <v>624.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4325,11 +4301,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4339,22 +4311,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C108" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D108" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E108" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F108" t="n">
-        <v>802.8390000000001</v>
+        <v>234.5504</v>
       </c>
       <c r="G108" t="n">
-        <v>624.7833333333333</v>
+        <v>624.9166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4364,11 +4336,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4346,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C109" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D109" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E109" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F109" t="n">
-        <v>4201.0801</v>
+        <v>802.8390000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>624.6833333333333</v>
+        <v>624.7833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4403,11 +4371,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4417,22 +4381,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C110" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D110" t="n">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E110" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F110" t="n">
-        <v>80</v>
+        <v>4201.0801</v>
       </c>
       <c r="G110" t="n">
-        <v>624.7</v>
+        <v>624.6833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4442,11 +4406,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4456,38 +4416,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C111" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D111" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E111" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F111" t="n">
         <v>80</v>
       </c>
       <c r="G111" t="n">
-        <v>624.7333333333333</v>
+        <v>624.7</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>621</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4497,38 +4451,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C112" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D112" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E112" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F112" t="n">
-        <v>779</v>
+        <v>80</v>
       </c>
       <c r="G112" t="n">
-        <v>624.75</v>
+        <v>624.7333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>622</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4486,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C113" t="n">
         <v>621</v>
@@ -4547,29 +4495,23 @@
         <v>621</v>
       </c>
       <c r="E113" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F113" t="n">
-        <v>204.3468</v>
+        <v>779</v>
       </c>
       <c r="G113" t="n">
-        <v>624.7</v>
+        <v>624.75</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>621</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4579,22 +4521,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C114" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D114" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E114" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F114" t="n">
-        <v>103.9753</v>
+        <v>204.3468</v>
       </c>
       <c r="G114" t="n">
-        <v>624.5833333333334</v>
+        <v>624.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4604,11 +4546,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4618,22 +4556,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C115" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D115" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E115" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F115" t="n">
-        <v>657.3538</v>
+        <v>103.9753</v>
       </c>
       <c r="G115" t="n">
-        <v>624.4666666666667</v>
+        <v>624.5833333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4643,11 +4581,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4657,22 +4591,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C116" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D116" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E116" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F116" t="n">
-        <v>2490.4474</v>
+        <v>657.3538</v>
       </c>
       <c r="G116" t="n">
-        <v>624.3833333333333</v>
+        <v>624.4666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4682,11 +4616,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4696,22 +4626,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C117" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D117" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E117" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>2490.4474</v>
       </c>
       <c r="G117" t="n">
-        <v>624.3333333333334</v>
+        <v>624.3833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4721,11 +4651,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4747,10 +4673,10 @@
         <v>624</v>
       </c>
       <c r="F118" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>624.3833333333333</v>
+        <v>624.3333333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4760,12 +4686,43 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>624</v>
+      </c>
+      <c r="C119" t="n">
+        <v>624</v>
+      </c>
+      <c r="D119" t="n">
+        <v>624</v>
+      </c>
+      <c r="E119" t="n">
+        <v>624</v>
+      </c>
+      <c r="F119" t="n">
+        <v>79</v>
+      </c>
+      <c r="G119" t="n">
+        <v>624.3833333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2309.7329</v>
       </c>
       <c r="G2" t="n">
+        <v>608.8666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>603.7833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>6718.361</v>
       </c>
       <c r="G3" t="n">
+        <v>607.9333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>603.9666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>605</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +535,27 @@
         <v>493.421</v>
       </c>
       <c r="G4" t="n">
+        <v>607.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>604.25</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>602</v>
       </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,24 +579,27 @@
         <v>4138.9757</v>
       </c>
       <c r="G5" t="n">
+        <v>607.6</v>
+      </c>
+      <c r="H5" t="n">
         <v>604.5166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
-        <v>602</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+        <v>608</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -598,24 +623,27 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>607.8</v>
+      </c>
+      <c r="H6" t="n">
         <v>604.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="n">
-        <v>602</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+        <v>607</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,26 +667,25 @@
         <v>4881.4582</v>
       </c>
       <c r="G7" t="n">
+        <v>607.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>605.2666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>611</v>
-      </c>
-      <c r="K7" t="n">
-        <v>602</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,24 +709,25 @@
         <v>70.9999</v>
       </c>
       <c r="G8" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="H8" t="n">
         <v>605.55</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>602</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -723,26 +751,25 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>607.3333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>605.9</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>606</v>
-      </c>
-      <c r="K9" t="n">
-        <v>602</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -766,26 +793,25 @@
         <v>869.4018</v>
       </c>
       <c r="G10" t="n">
+        <v>607.4666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>606.2333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>613</v>
-      </c>
-      <c r="K10" t="n">
-        <v>602</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -809,24 +835,25 @@
         <v>1676.2802</v>
       </c>
       <c r="G11" t="n">
+        <v>607.8666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>606.4833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>602</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,26 +877,25 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
+        <v>608.3333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>606.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>612</v>
-      </c>
-      <c r="K12" t="n">
-        <v>602</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -893,26 +919,25 @@
         <v>946.3615</v>
       </c>
       <c r="G13" t="n">
+        <v>608.4666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>607</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>613</v>
-      </c>
-      <c r="K13" t="n">
-        <v>602</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -936,24 +961,25 @@
         <v>2026.887</v>
       </c>
       <c r="G14" t="n">
+        <v>608.9333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>607.2833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>602</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -977,24 +1003,27 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>609.5333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>607.5166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
-        <v>602</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+        <v>613</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1018,24 +1047,25 @@
         <v>1249.9732</v>
       </c>
       <c r="G16" t="n">
+        <v>609.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>607.7833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>602</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,24 +1089,25 @@
         <v>11.4315</v>
       </c>
       <c r="G17" t="n">
+        <v>610.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>608.0166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>602</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1131,27 @@
         <v>169.18</v>
       </c>
       <c r="G18" t="n">
+        <v>610.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>608.3166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
-        <v>602</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+        <v>614</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1141,24 +1175,25 @@
         <v>1692.2642</v>
       </c>
       <c r="G19" t="n">
+        <v>611.2666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>608.5333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>602</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,26 +1217,25 @@
         <v>1007.0032</v>
       </c>
       <c r="G20" t="n">
+        <v>611.6666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>608.6833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>613</v>
-      </c>
-      <c r="K20" t="n">
-        <v>602</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1225,24 +1259,27 @@
         <v>1.6091</v>
       </c>
       <c r="G21" t="n">
+        <v>611.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>608.8666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>602</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>613</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,24 +1303,27 @@
         <v>2164.5773</v>
       </c>
       <c r="G22" t="n">
+        <v>611.5333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>608.9666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
-        <v>602</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>614</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,26 +1347,27 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>612.3333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>609.3</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>609</v>
       </c>
-      <c r="K23" t="n">
-        <v>602</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,24 +1391,25 @@
         <v>162.33766233</v>
       </c>
       <c r="G24" t="n">
+        <v>612.5333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>609.6166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>602</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,24 +1433,25 @@
         <v>162.44836207</v>
       </c>
       <c r="G25" t="n">
+        <v>612.8666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>609.9666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>602</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,24 +1475,25 @@
         <v>1088.71813793</v>
       </c>
       <c r="G26" t="n">
+        <v>613.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>610.3333333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>602</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,24 +1517,25 @@
         <v>13361.6126</v>
       </c>
       <c r="G27" t="n">
+        <v>613.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>610.6166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>602</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,24 +1559,25 @@
         <v>9374.352999999999</v>
       </c>
       <c r="G28" t="n">
+        <v>614.5333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>610.95</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>602</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1555,25 +1601,26 @@
         <v>710.9999</v>
       </c>
       <c r="G29" t="n">
+        <v>615.2666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>611.3166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>602</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1.031544850498339</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1596,18 +1643,25 @@
         <v>3456.27970432</v>
       </c>
       <c r="G30" t="n">
+        <v>616</v>
+      </c>
+      <c r="H30" t="n">
         <v>611.6833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1631,18 +1685,25 @@
         <v>3000</v>
       </c>
       <c r="G31" t="n">
+        <v>616.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>611.9833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,18 +1727,25 @@
         <v>12.4777</v>
       </c>
       <c r="G32" t="n">
+        <v>617.5333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>612.3166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1701,18 +1769,25 @@
         <v>1309.76279568</v>
       </c>
       <c r="G33" t="n">
+        <v>618.8666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>612.7166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1736,18 +1811,25 @@
         <v>3565.08960432</v>
       </c>
       <c r="G34" t="n">
+        <v>620.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>613.1166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,18 +1853,25 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>621.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>613.4666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,18 +1895,25 @@
         <v>6833.0464</v>
       </c>
       <c r="G36" t="n">
+        <v>621.4666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>613.6333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1841,18 +1937,25 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
+        <v>622.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>613.7166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,18 +1979,25 @@
         <v>982.7028</v>
       </c>
       <c r="G38" t="n">
+        <v>622.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>613.9333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1911,18 +2021,25 @@
         <v>418.0065</v>
       </c>
       <c r="G39" t="n">
+        <v>623.1333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>614.05</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1946,18 +2063,25 @@
         <v>745.4299999999999</v>
       </c>
       <c r="G40" t="n">
+        <v>624</v>
+      </c>
+      <c r="H40" t="n">
         <v>614.2166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1981,18 +2105,25 @@
         <v>1690.8313</v>
       </c>
       <c r="G41" t="n">
+        <v>624.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>614.3833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2016,18 +2147,25 @@
         <v>213</v>
       </c>
       <c r="G42" t="n">
+        <v>624.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>614.5166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2051,18 +2189,25 @@
         <v>2642.0168</v>
       </c>
       <c r="G43" t="n">
+        <v>624.0666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>614.5666666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,18 +2231,25 @@
         <v>266.5727</v>
       </c>
       <c r="G44" t="n">
+        <v>623.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>614.6333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2121,18 +2273,25 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
+        <v>623.6666666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>614.7833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,18 +2315,25 @@
         <v>25.9734</v>
       </c>
       <c r="G46" t="n">
+        <v>623.8666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>615.0166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2191,18 +2357,25 @@
         <v>604.0232999999999</v>
       </c>
       <c r="G47" t="n">
+        <v>623.8</v>
+      </c>
+      <c r="H47" t="n">
         <v>615.15</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,18 +2399,25 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>623</v>
+      </c>
+      <c r="H48" t="n">
         <v>615.1833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2261,18 +2441,25 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
+        <v>622.5333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>615.4166666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,18 +2483,25 @@
         <v>93</v>
       </c>
       <c r="G50" t="n">
+        <v>621.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>615.5666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,18 +2525,25 @@
         <v>1074.8532</v>
       </c>
       <c r="G51" t="n">
+        <v>621.9333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>615.7666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,18 +2567,25 @@
         <v>1964.1375</v>
       </c>
       <c r="G52" t="n">
+        <v>622</v>
+      </c>
+      <c r="H52" t="n">
         <v>615.8666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2401,18 +2609,25 @@
         <v>165.4695</v>
       </c>
       <c r="G53" t="n">
+        <v>621.3333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>615.95</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,18 +2651,25 @@
         <v>5.52</v>
       </c>
       <c r="G54" t="n">
+        <v>621.6666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>616.1666666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2471,18 +2693,25 @@
         <v>1358.1474</v>
       </c>
       <c r="G55" t="n">
+        <v>621.3333333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>616.4166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,18 +2735,25 @@
         <v>596.0265000000001</v>
       </c>
       <c r="G56" t="n">
+        <v>621.8</v>
+      </c>
+      <c r="H56" t="n">
         <v>616.7666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2541,18 +2777,25 @@
         <v>14.5477</v>
       </c>
       <c r="G57" t="n">
+        <v>622.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>617.1166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2576,18 +2819,25 @@
         <v>241.5464</v>
       </c>
       <c r="G58" t="n">
+        <v>622.8</v>
+      </c>
+      <c r="H58" t="n">
         <v>617.4666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2611,18 +2861,25 @@
         <v>638</v>
       </c>
       <c r="G59" t="n">
+        <v>622.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>617.7166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,18 +2903,25 @@
         <v>1643.0964</v>
       </c>
       <c r="G60" t="n">
+        <v>622.5333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>617.9333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2681,18 +2945,25 @@
         <v>273.6</v>
       </c>
       <c r="G61" t="n">
+        <v>622.5333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>618.25</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,18 +2987,25 @@
         <v>4924.7592</v>
       </c>
       <c r="G62" t="n">
+        <v>622.8666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>618.65</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2751,18 +3029,25 @@
         <v>980.28730158</v>
       </c>
       <c r="G63" t="n">
+        <v>623.6666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>619.1166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2786,18 +3071,25 @@
         <v>589.1269984199999</v>
       </c>
       <c r="G64" t="n">
+        <v>624.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>619.4833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,18 +3113,25 @@
         <v>240.9999</v>
       </c>
       <c r="G65" t="n">
+        <v>624.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>619.8833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,20 +3155,25 @@
         <v>684</v>
       </c>
       <c r="G66" t="n">
+        <v>625.5333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>620.2</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2891,18 +3195,21 @@
         <v>1709.8108</v>
       </c>
       <c r="G67" t="n">
+        <v>626.2666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>620.4833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,18 +3233,21 @@
         <v>804.8511999999999</v>
       </c>
       <c r="G68" t="n">
+        <v>627.0666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>620.9166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,18 +3271,21 @@
         <v>1090.3212</v>
       </c>
       <c r="G69" t="n">
+        <v>627.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>621.2333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,18 +3309,21 @@
         <v>605.5561</v>
       </c>
       <c r="G70" t="n">
+        <v>628.0666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>621.5666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3031,18 +3347,21 @@
         <v>157.90780484</v>
       </c>
       <c r="G71" t="n">
+        <v>628.6</v>
+      </c>
+      <c r="H71" t="n">
         <v>621.95</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,18 +3385,21 @@
         <v>301.348</v>
       </c>
       <c r="G72" t="n">
+        <v>629.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>622.3166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,18 +3423,21 @@
         <v>5159.0485</v>
       </c>
       <c r="G73" t="n">
+        <v>629.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>622.8</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,18 +3461,21 @@
         <v>208.18</v>
       </c>
       <c r="G74" t="n">
+        <v>630.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>623.05</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3171,18 +3499,21 @@
         <v>1097.14</v>
       </c>
       <c r="G75" t="n">
+        <v>630.8666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>623.2666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3206,18 +3537,21 @@
         <v>159.25347133</v>
       </c>
       <c r="G76" t="n">
+        <v>631.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>623.5833333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3241,18 +3575,21 @@
         <v>1382.799</v>
       </c>
       <c r="G77" t="n">
+        <v>631.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>623.8166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,18 +3613,21 @@
         <v>977.8366</v>
       </c>
       <c r="G78" t="n">
+        <v>630.8666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>624.1</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3311,18 +3651,21 @@
         <v>159.2535</v>
       </c>
       <c r="G79" t="n">
+        <v>630.6666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>624.3333333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3346,18 +3689,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>630.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>624.6833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3381,18 +3727,21 @@
         <v>809.6213</v>
       </c>
       <c r="G81" t="n">
+        <v>630.5333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>624.8666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,18 +3765,21 @@
         <v>253.5353</v>
       </c>
       <c r="G82" t="n">
+        <v>630.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>625.2166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,18 +3803,21 @@
         <v>69.9576</v>
       </c>
       <c r="G83" t="n">
+        <v>630.3333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>625.4166666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3486,18 +3841,21 @@
         <v>385</v>
       </c>
       <c r="G84" t="n">
+        <v>630.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>625.65</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,18 +3879,21 @@
         <v>67.9999</v>
       </c>
       <c r="G85" t="n">
+        <v>630</v>
+      </c>
+      <c r="H85" t="n">
         <v>625.85</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,18 +3917,21 @@
         <v>85.6563</v>
       </c>
       <c r="G86" t="n">
+        <v>629.1333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>625.9333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3591,18 +3955,21 @@
         <v>146.8301</v>
       </c>
       <c r="G87" t="n">
+        <v>628.2666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>625.9833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,18 +3993,21 @@
         <v>993.1</v>
       </c>
       <c r="G88" t="n">
+        <v>627.3333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>626</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,18 +4031,21 @@
         <v>1775.8153</v>
       </c>
       <c r="G89" t="n">
+        <v>626.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>625.95</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,18 +4069,21 @@
         <v>193.1383</v>
       </c>
       <c r="G90" t="n">
+        <v>626.4666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>625.8833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3731,18 +4107,21 @@
         <v>352.633</v>
       </c>
       <c r="G91" t="n">
+        <v>626</v>
+      </c>
+      <c r="H91" t="n">
         <v>625.8833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,18 +4145,21 @@
         <v>208.7739</v>
       </c>
       <c r="G92" t="n">
+        <v>625.5333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>625.8166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,18 +4183,21 @@
         <v>280.7771</v>
       </c>
       <c r="G93" t="n">
+        <v>625.1333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>625.6666666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,18 +4221,21 @@
         <v>2753.7253</v>
       </c>
       <c r="G94" t="n">
+        <v>624.6666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>625.4833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,18 +4259,21 @@
         <v>30</v>
       </c>
       <c r="G95" t="n">
+        <v>624.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>625.45</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,18 +4297,21 @@
         <v>5146.1509</v>
       </c>
       <c r="G96" t="n">
+        <v>623.7333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>625.4333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,18 +4335,21 @@
         <v>1112.8108</v>
       </c>
       <c r="G97" t="n">
+        <v>622.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>625.4166666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,18 +4373,21 @@
         <v>6643.4698</v>
       </c>
       <c r="G98" t="n">
+        <v>621.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>625.1333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,18 +4411,21 @@
         <v>54.7713</v>
       </c>
       <c r="G99" t="n">
+        <v>621</v>
+      </c>
+      <c r="H99" t="n">
         <v>625.1166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,18 +4449,21 @@
         <v>1338.0268</v>
       </c>
       <c r="G100" t="n">
+        <v>620</v>
+      </c>
+      <c r="H100" t="n">
         <v>624.85</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,18 +4487,21 @@
         <v>550</v>
       </c>
       <c r="G101" t="n">
+        <v>619.7333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>624.8166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,18 +4525,21 @@
         <v>397.4228</v>
       </c>
       <c r="G102" t="n">
+        <v>619.4666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>624.7833333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,18 +4563,21 @@
         <v>311.9202</v>
       </c>
       <c r="G103" t="n">
+        <v>619</v>
+      </c>
+      <c r="H103" t="n">
         <v>624.7333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,18 +4601,21 @@
         <v>6.3674</v>
       </c>
       <c r="G104" t="n">
+        <v>619.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>624.8333333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,18 +4639,21 @@
         <v>270.6801</v>
       </c>
       <c r="G105" t="n">
+        <v>619.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>624.75</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,18 +4677,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
+        <v>619.4</v>
+      </c>
+      <c r="H106" t="n">
         <v>624.7666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4291,18 +4715,21 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>619.7333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>624.8</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,18 +4753,21 @@
         <v>234.5504</v>
       </c>
       <c r="G108" t="n">
+        <v>620</v>
+      </c>
+      <c r="H108" t="n">
         <v>624.9166666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,18 +4791,21 @@
         <v>802.8390000000001</v>
       </c>
       <c r="G109" t="n">
+        <v>619.7333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>624.7833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,18 +4829,21 @@
         <v>4201.0801</v>
       </c>
       <c r="G110" t="n">
+        <v>618.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>624.6833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,18 +4867,21 @@
         <v>80</v>
       </c>
       <c r="G111" t="n">
+        <v>619</v>
+      </c>
+      <c r="H111" t="n">
         <v>624.7</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,18 +4905,21 @@
         <v>80</v>
       </c>
       <c r="G112" t="n">
+        <v>619.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>624.7333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4501,18 +4943,21 @@
         <v>779</v>
       </c>
       <c r="G113" t="n">
+        <v>619.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>624.75</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,18 +4981,21 @@
         <v>204.3468</v>
       </c>
       <c r="G114" t="n">
+        <v>620</v>
+      </c>
+      <c r="H114" t="n">
         <v>624.7</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,18 +5019,21 @@
         <v>103.9753</v>
       </c>
       <c r="G115" t="n">
+        <v>620.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>624.5833333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,18 +5057,21 @@
         <v>657.3538</v>
       </c>
       <c r="G116" t="n">
+        <v>620.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>624.4666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4641,18 +5095,21 @@
         <v>2490.4474</v>
       </c>
       <c r="G117" t="n">
+        <v>620.6666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>624.3833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,18 +5133,21 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="H118" t="n">
         <v>624.3333333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,18 +5171,401 @@
         <v>79</v>
       </c>
       <c r="G119" t="n">
+        <v>621.1333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>624.3833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>624</v>
+      </c>
+      <c r="C120" t="n">
+        <v>624</v>
+      </c>
+      <c r="D120" t="n">
+        <v>624</v>
+      </c>
+      <c r="E120" t="n">
+        <v>624</v>
+      </c>
+      <c r="F120" t="n">
+        <v>264.1907</v>
+      </c>
+      <c r="G120" t="n">
+        <v>621.4666666666667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>624.4833333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>621</v>
+      </c>
+      <c r="C121" t="n">
+        <v>621</v>
+      </c>
+      <c r="D121" t="n">
+        <v>621</v>
+      </c>
+      <c r="E121" t="n">
+        <v>621</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1741.0161</v>
+      </c>
+      <c r="G121" t="n">
+        <v>621.2</v>
+      </c>
+      <c r="H121" t="n">
+        <v>624.4333333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>624</v>
+      </c>
+      <c r="C122" t="n">
+        <v>624</v>
+      </c>
+      <c r="D122" t="n">
+        <v>624</v>
+      </c>
+      <c r="E122" t="n">
+        <v>624</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>621.0666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>624.35</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>626</v>
+      </c>
+      <c r="C123" t="n">
+        <v>626</v>
+      </c>
+      <c r="D123" t="n">
+        <v>626</v>
+      </c>
+      <c r="E123" t="n">
+        <v>626</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>621.1333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>624.2833333333333</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>620</v>
+      </c>
+      <c r="C124" t="n">
+        <v>620</v>
+      </c>
+      <c r="D124" t="n">
+        <v>620</v>
+      </c>
+      <c r="E124" t="n">
+        <v>620</v>
+      </c>
+      <c r="F124" t="n">
+        <v>246.5779</v>
+      </c>
+      <c r="G124" t="n">
+        <v>621.4</v>
+      </c>
+      <c r="H124" t="n">
+        <v>624.1166666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>619</v>
+      </c>
+      <c r="C125" t="n">
+        <v>613</v>
+      </c>
+      <c r="D125" t="n">
+        <v>619</v>
+      </c>
+      <c r="E125" t="n">
+        <v>613</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>621.4</v>
+      </c>
+      <c r="H125" t="n">
+        <v>623.8166666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>617</v>
+      </c>
+      <c r="C126" t="n">
+        <v>623</v>
+      </c>
+      <c r="D126" t="n">
+        <v>623</v>
+      </c>
+      <c r="E126" t="n">
+        <v>617</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>621.5333333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>623.7</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>613</v>
+      </c>
+      <c r="C127" t="n">
+        <v>623</v>
+      </c>
+      <c r="D127" t="n">
+        <v>623</v>
+      </c>
+      <c r="E127" t="n">
+        <v>613</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3</v>
+      </c>
+      <c r="G127" t="n">
+        <v>621.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>623.5666666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>623</v>
+      </c>
+      <c r="C128" t="n">
+        <v>623</v>
+      </c>
+      <c r="D128" t="n">
+        <v>623</v>
+      </c>
+      <c r="E128" t="n">
+        <v>623</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16.3499</v>
+      </c>
+      <c r="G128" t="n">
+        <v>621.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>623.4166666666666</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>623</v>
+      </c>
+      <c r="C129" t="n">
+        <v>623</v>
+      </c>
+      <c r="D129" t="n">
+        <v>623</v>
+      </c>
+      <c r="E129" t="n">
+        <v>623</v>
+      </c>
+      <c r="F129" t="n">
+        <v>307.228</v>
+      </c>
+      <c r="G129" t="n">
+        <v>621.8666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>623.2666666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -441,33 +436,30 @@
         <v>605</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D2" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E2" t="n">
         <v>605</v>
       </c>
       <c r="F2" t="n">
-        <v>2309.7329</v>
+        <v>879.2232</v>
       </c>
       <c r="G2" t="n">
-        <v>608.8666666666667</v>
+        <v>-17353.80606635</v>
       </c>
       <c r="H2" t="n">
-        <v>603.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C3" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D3" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E3" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F3" t="n">
-        <v>6718.361</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>607.9333333333333</v>
+        <v>-16353.80606635</v>
       </c>
       <c r="H3" t="n">
-        <v>603.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C4" t="n">
         <v>608</v>
@@ -529,33 +512,30 @@
         <v>608</v>
       </c>
       <c r="E4" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F4" t="n">
-        <v>493.421</v>
+        <v>4863.8371</v>
       </c>
       <c r="G4" t="n">
-        <v>607.8</v>
+        <v>-11489.96896635</v>
       </c>
       <c r="H4" t="n">
-        <v>604.25</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>602</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>607</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +544,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C5" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D5" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E5" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F5" t="n">
-        <v>4138.9757</v>
+        <v>4871.8635</v>
       </c>
       <c r="G5" t="n">
-        <v>607.6</v>
+        <v>-6618.105466350003</v>
       </c>
       <c r="H5" t="n">
-        <v>604.5166666666667</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
         <v>608</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C6" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E6" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>7723.2686688</v>
       </c>
       <c r="G6" t="n">
-        <v>607.8</v>
+        <v>1105.163202449998</v>
       </c>
       <c r="H6" t="n">
-        <v>604.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>607</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,40 +624,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C7" t="n">
+        <v>617</v>
+      </c>
+      <c r="D7" t="n">
+        <v>617</v>
+      </c>
+      <c r="E7" t="n">
         <v>614</v>
       </c>
-      <c r="D7" t="n">
-        <v>614</v>
-      </c>
-      <c r="E7" t="n">
-        <v>604</v>
-      </c>
       <c r="F7" t="n">
-        <v>4881.4582</v>
+        <v>480</v>
       </c>
       <c r="G7" t="n">
-        <v>607.8</v>
+        <v>1585.163202449998</v>
       </c>
       <c r="H7" t="n">
-        <v>605.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -694,40 +663,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C8" t="n">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D8" t="n">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E8" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F8" t="n">
-        <v>70.9999</v>
+        <v>9267.550999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>607.2</v>
+        <v>-7682.387797550002</v>
       </c>
       <c r="H8" t="n">
-        <v>605.55</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -736,40 +702,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C9" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D9" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E9" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>368.5895</v>
       </c>
       <c r="G9" t="n">
-        <v>607.3333333333334</v>
+        <v>-7313.798297550002</v>
       </c>
       <c r="H9" t="n">
-        <v>605.9</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,40 +741,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C10" t="n">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D10" t="n">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E10" t="n">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F10" t="n">
-        <v>869.4018</v>
+        <v>2940.8307</v>
       </c>
       <c r="G10" t="n">
-        <v>607.4666666666667</v>
+        <v>-10254.62899755</v>
       </c>
       <c r="H10" t="n">
-        <v>606.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -820,7 +780,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C11" t="n">
         <v>612</v>
@@ -829,31 +789,28 @@
         <v>612</v>
       </c>
       <c r="E11" t="n">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F11" t="n">
-        <v>1676.2802</v>
+        <v>205.8594</v>
       </c>
       <c r="G11" t="n">
-        <v>607.8666666666667</v>
+        <v>-10048.76959755</v>
       </c>
       <c r="H11" t="n">
-        <v>606.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -862,40 +819,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C12" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D12" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E12" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>4395.1777</v>
       </c>
       <c r="G12" t="n">
-        <v>608.3333333333334</v>
+        <v>-5653.591897550003</v>
       </c>
       <c r="H12" t="n">
-        <v>606.75</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -904,40 +858,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C13" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D13" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E13" t="n">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F13" t="n">
-        <v>946.3615</v>
+        <v>542.7951</v>
       </c>
       <c r="G13" t="n">
-        <v>608.4666666666667</v>
+        <v>-6196.386997550003</v>
       </c>
       <c r="H13" t="n">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -946,40 +897,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C14" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E14" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F14" t="n">
-        <v>2026.887</v>
+        <v>1410.524</v>
       </c>
       <c r="G14" t="n">
-        <v>608.9333333333333</v>
+        <v>-6196.386997550003</v>
       </c>
       <c r="H14" t="n">
-        <v>607.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,42 +936,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C15" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D15" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E15" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>911.4381</v>
       </c>
       <c r="G15" t="n">
-        <v>609.5333333333333</v>
+        <v>-7107.825097550003</v>
       </c>
       <c r="H15" t="n">
-        <v>607.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>613</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,40 +975,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C16" t="n">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D16" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="E16" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F16" t="n">
-        <v>1249.9732</v>
+        <v>5460.2638</v>
       </c>
       <c r="G16" t="n">
-        <v>609.8</v>
+        <v>-1647.561297550003</v>
       </c>
       <c r="H16" t="n">
-        <v>607.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1074,40 +1014,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C17" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D17" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E17" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F17" t="n">
-        <v>11.4315</v>
+        <v>1308.7305</v>
       </c>
       <c r="G17" t="n">
-        <v>610.4</v>
+        <v>-1647.561297550003</v>
       </c>
       <c r="H17" t="n">
-        <v>608.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1116,42 +1053,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C18" t="n">
         <v>610</v>
       </c>
       <c r="D18" t="n">
+        <v>611</v>
+      </c>
+      <c r="E18" t="n">
         <v>610</v>
       </c>
-      <c r="E18" t="n">
-        <v>609</v>
-      </c>
       <c r="F18" t="n">
-        <v>169.18</v>
+        <v>1644.7902</v>
       </c>
       <c r="G18" t="n">
-        <v>610.9333333333333</v>
+        <v>-3292.351497550003</v>
       </c>
       <c r="H18" t="n">
-        <v>608.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>614</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,40 +1092,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C19" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D19" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E19" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F19" t="n">
-        <v>1692.2642</v>
+        <v>4958.4019</v>
       </c>
       <c r="G19" t="n">
-        <v>611.2666666666667</v>
+        <v>-3292.351497550003</v>
       </c>
       <c r="H19" t="n">
-        <v>608.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,40 +1131,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C20" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D20" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E20" t="n">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F20" t="n">
-        <v>1007.0032</v>
+        <v>764.0832</v>
       </c>
       <c r="G20" t="n">
-        <v>611.6666666666666</v>
+        <v>-4056.434697550003</v>
       </c>
       <c r="H20" t="n">
-        <v>608.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1256,30 +1182,25 @@
         <v>614</v>
       </c>
       <c r="F21" t="n">
-        <v>1.6091</v>
+        <v>1000</v>
       </c>
       <c r="G21" t="n">
-        <v>611.8666666666667</v>
+        <v>-3056.434697550003</v>
       </c>
       <c r="H21" t="n">
-        <v>608.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>613</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,42 +1209,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C22" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D22" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E22" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F22" t="n">
-        <v>2164.5773</v>
+        <v>1010.2121</v>
       </c>
       <c r="G22" t="n">
-        <v>611.5333333333333</v>
+        <v>-2046.222597550003</v>
       </c>
       <c r="H22" t="n">
-        <v>608.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>614</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,42 +1248,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C23" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D23" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E23" t="n">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>226.0349</v>
       </c>
       <c r="G23" t="n">
-        <v>612.3333333333334</v>
+        <v>-2272.257497550003</v>
       </c>
       <c r="H23" t="n">
-        <v>609.3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>609</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,40 +1287,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C24" t="n">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D24" t="n">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E24" t="n">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F24" t="n">
-        <v>162.33766233</v>
+        <v>327.5878</v>
       </c>
       <c r="G24" t="n">
-        <v>612.5333333333333</v>
+        <v>-2599.845297550003</v>
       </c>
       <c r="H24" t="n">
-        <v>609.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,40 +1326,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C25" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D25" t="n">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E25" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F25" t="n">
-        <v>162.44836207</v>
+        <v>5278.8949</v>
       </c>
       <c r="G25" t="n">
-        <v>612.8666666666667</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H25" t="n">
-        <v>609.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1460,40 +1365,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C26" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D26" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E26" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F26" t="n">
-        <v>1088.71813793</v>
+        <v>1087.8032</v>
       </c>
       <c r="G26" t="n">
-        <v>613.2</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H26" t="n">
-        <v>610.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,40 +1404,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C27" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D27" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E27" t="n">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F27" t="n">
-        <v>13361.6126</v>
+        <v>3850.0767</v>
       </c>
       <c r="G27" t="n">
-        <v>613.6</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H27" t="n">
-        <v>610.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,40 +1443,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C28" t="n">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D28" t="n">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="E28" t="n">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F28" t="n">
-        <v>9374.352999999999</v>
+        <v>1927.9356</v>
       </c>
       <c r="G28" t="n">
-        <v>614.5333333333333</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H28" t="n">
-        <v>610.95</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,40 +1482,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C29" t="n">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="D29" t="n">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="E29" t="n">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="F29" t="n">
-        <v>710.9999</v>
+        <v>3934.0252</v>
       </c>
       <c r="G29" t="n">
-        <v>615.2666666666667</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H29" t="n">
-        <v>611.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1628,40 +1523,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="C30" t="n">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="D30" t="n">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="E30" t="n">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F30" t="n">
-        <v>3456.27970432</v>
+        <v>1400</v>
       </c>
       <c r="G30" t="n">
-        <v>616</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H30" t="n">
-        <v>611.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,40 +1564,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="C31" t="n">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D31" t="n">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="E31" t="n">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="F31" t="n">
-        <v>3000</v>
+        <v>2309.7329</v>
       </c>
       <c r="G31" t="n">
-        <v>616.8</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H31" t="n">
-        <v>611.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,40 +1605,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C32" t="n">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="D32" t="n">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="E32" t="n">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="F32" t="n">
-        <v>12.4777</v>
+        <v>6718.361</v>
       </c>
       <c r="G32" t="n">
-        <v>617.5333333333333</v>
+        <v>-18531.12639755</v>
       </c>
       <c r="H32" t="n">
-        <v>612.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,40 +1646,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="C33" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="D33" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="E33" t="n">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F33" t="n">
-        <v>1309.76279568</v>
+        <v>493.421</v>
       </c>
       <c r="G33" t="n">
-        <v>618.8666666666667</v>
+        <v>-18037.70539755001</v>
       </c>
       <c r="H33" t="n">
-        <v>612.7166666666667</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,40 +1687,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="C34" t="n">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="D34" t="n">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="E34" t="n">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.08960432</v>
+        <v>4138.9757</v>
       </c>
       <c r="G34" t="n">
-        <v>620.0666666666667</v>
+        <v>-22176.68109755</v>
       </c>
       <c r="H34" t="n">
-        <v>613.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1838,40 +1726,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="C35" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="E35" t="n">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>621.1333333333333</v>
+        <v>-22175.68109755</v>
       </c>
       <c r="H35" t="n">
-        <v>613.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,40 +1765,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C36" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D36" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E36" t="n">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F36" t="n">
-        <v>6833.0464</v>
+        <v>4881.4582</v>
       </c>
       <c r="G36" t="n">
-        <v>621.4666666666667</v>
+        <v>-17294.22289755</v>
       </c>
       <c r="H36" t="n">
-        <v>613.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1922,40 +1804,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="C37" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D37" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E37" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>70.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>622.1333333333333</v>
+        <v>-17365.22279755</v>
       </c>
       <c r="H37" t="n">
-        <v>613.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1964,40 +1843,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C38" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="D38" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="E38" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F38" t="n">
-        <v>982.7028</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>622.9333333333333</v>
+        <v>-17364.22279755</v>
       </c>
       <c r="H38" t="n">
-        <v>613.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,40 +1882,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C39" t="n">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D39" t="n">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="E39" t="n">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="F39" t="n">
-        <v>418.0065</v>
+        <v>869.4018</v>
       </c>
       <c r="G39" t="n">
-        <v>623.1333333333333</v>
+        <v>-18233.62459755</v>
       </c>
       <c r="H39" t="n">
-        <v>614.05</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,40 +1923,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C40" t="n">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="D40" t="n">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="E40" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F40" t="n">
-        <v>745.4299999999999</v>
+        <v>1676.2802</v>
       </c>
       <c r="G40" t="n">
-        <v>624</v>
+        <v>-18233.62459755</v>
       </c>
       <c r="H40" t="n">
-        <v>614.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,40 +1962,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C41" t="n">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D41" t="n">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E41" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F41" t="n">
-        <v>1690.8313</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>624.2</v>
+        <v>-18223.62459755</v>
       </c>
       <c r="H41" t="n">
-        <v>614.3833333333333</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,40 +2003,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="C42" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="D42" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E42" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="F42" t="n">
-        <v>213</v>
+        <v>946.3615</v>
       </c>
       <c r="G42" t="n">
-        <v>624.2666666666667</v>
+        <v>-19169.98609755</v>
       </c>
       <c r="H42" t="n">
-        <v>614.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,40 +2042,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C43" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D43" t="n">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E43" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F43" t="n">
-        <v>2642.0168</v>
+        <v>2026.887</v>
       </c>
       <c r="G43" t="n">
-        <v>624.0666666666667</v>
+        <v>-17143.09909755</v>
       </c>
       <c r="H43" t="n">
-        <v>614.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,40 +2081,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C44" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D44" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E44" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F44" t="n">
-        <v>266.5727</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>623.7333333333333</v>
+        <v>-17142.09909755</v>
       </c>
       <c r="H44" t="n">
-        <v>614.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,40 +2120,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C45" t="n">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="D45" t="n">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E45" t="n">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>1249.9732</v>
       </c>
       <c r="G45" t="n">
-        <v>623.6666666666666</v>
+        <v>-18392.07229755</v>
       </c>
       <c r="H45" t="n">
-        <v>614.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,40 +2159,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C46" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D46" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="E46" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F46" t="n">
-        <v>25.9734</v>
+        <v>11.4315</v>
       </c>
       <c r="G46" t="n">
-        <v>623.8666666666667</v>
+        <v>-18380.64079755</v>
       </c>
       <c r="H46" t="n">
-        <v>615.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,40 +2198,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C47" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="D47" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="E47" t="n">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F47" t="n">
-        <v>604.0232999999999</v>
+        <v>169.18</v>
       </c>
       <c r="G47" t="n">
-        <v>623.8</v>
+        <v>-18549.82079755</v>
       </c>
       <c r="H47" t="n">
-        <v>615.15</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,40 +2237,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C48" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D48" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E48" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>1692.2642</v>
       </c>
       <c r="G48" t="n">
-        <v>623</v>
+        <v>-16857.55659755</v>
       </c>
       <c r="H48" t="n">
-        <v>615.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,40 +2276,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C49" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D49" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E49" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>1007.0032</v>
       </c>
       <c r="G49" t="n">
-        <v>622.5333333333333</v>
+        <v>-16857.55659755</v>
       </c>
       <c r="H49" t="n">
-        <v>615.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,40 +2315,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C50" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D50" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E50" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F50" t="n">
-        <v>93</v>
+        <v>1.6091</v>
       </c>
       <c r="G50" t="n">
-        <v>621.8666666666667</v>
+        <v>-16855.94749755</v>
       </c>
       <c r="H50" t="n">
-        <v>615.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2510,40 +2354,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C51" t="n">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D51" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E51" t="n">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F51" t="n">
-        <v>1074.8532</v>
+        <v>2164.5773</v>
       </c>
       <c r="G51" t="n">
-        <v>621.9333333333333</v>
+        <v>-19020.52479755</v>
       </c>
       <c r="H51" t="n">
-        <v>615.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,40 +2393,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C52" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D52" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E52" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F52" t="n">
-        <v>1964.1375</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>622</v>
+        <v>-19019.52479755</v>
       </c>
       <c r="H52" t="n">
-        <v>615.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,40 +2432,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C53" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D53" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E53" t="n">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="F53" t="n">
-        <v>165.4695</v>
+        <v>162.33766233</v>
       </c>
       <c r="G53" t="n">
-        <v>621.3333333333334</v>
+        <v>-19181.86245988</v>
       </c>
       <c r="H53" t="n">
-        <v>615.95</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,40 +2471,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C54" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D54" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E54" t="n">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F54" t="n">
-        <v>5.52</v>
+        <v>162.44836207</v>
       </c>
       <c r="G54" t="n">
-        <v>621.6666666666666</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H54" t="n">
-        <v>616.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,40 +2510,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C55" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="D55" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E55" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F55" t="n">
-        <v>1358.1474</v>
+        <v>1088.71813793</v>
       </c>
       <c r="G55" t="n">
-        <v>621.3333333333334</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H55" t="n">
-        <v>616.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,40 +2549,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C56" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D56" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E56" t="n">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F56" t="n">
-        <v>596.0265000000001</v>
+        <v>13361.6126</v>
       </c>
       <c r="G56" t="n">
-        <v>621.8</v>
+        <v>-5657.80149781</v>
       </c>
       <c r="H56" t="n">
-        <v>616.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,40 +2588,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C57" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D57" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E57" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F57" t="n">
-        <v>14.5477</v>
+        <v>9374.352999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>622.2666666666667</v>
+        <v>3716.551502189999</v>
       </c>
       <c r="H57" t="n">
-        <v>617.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,40 +2627,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C58" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D58" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E58" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F58" t="n">
-        <v>241.5464</v>
+        <v>710.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>622.8</v>
+        <v>4427.551402189999</v>
       </c>
       <c r="H58" t="n">
-        <v>617.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,40 +2666,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C59" t="n">
+        <v>625</v>
+      </c>
+      <c r="D59" t="n">
+        <v>625</v>
+      </c>
+      <c r="E59" t="n">
         <v>621</v>
       </c>
-      <c r="D59" t="n">
-        <v>621</v>
-      </c>
-      <c r="E59" t="n">
-        <v>619</v>
-      </c>
       <c r="F59" t="n">
-        <v>638</v>
+        <v>3456.27970432</v>
       </c>
       <c r="G59" t="n">
-        <v>622.9333333333333</v>
+        <v>7883.831106509999</v>
       </c>
       <c r="H59" t="n">
-        <v>617.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,40 +2705,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C60" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D60" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E60" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F60" t="n">
-        <v>1643.0964</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="n">
-        <v>622.5333333333333</v>
+        <v>4883.831106509999</v>
       </c>
       <c r="H60" t="n">
-        <v>617.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,40 +2744,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C61" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D61" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E61" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F61" t="n">
-        <v>273.6</v>
+        <v>12.4777</v>
       </c>
       <c r="G61" t="n">
-        <v>622.5333333333333</v>
+        <v>4896.308806509999</v>
       </c>
       <c r="H61" t="n">
-        <v>618.25</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,40 +2783,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C62" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D62" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E62" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F62" t="n">
-        <v>4924.7592</v>
+        <v>1309.76279568</v>
       </c>
       <c r="G62" t="n">
-        <v>622.8666666666667</v>
+        <v>6206.071602189999</v>
       </c>
       <c r="H62" t="n">
-        <v>618.65</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,40 +2822,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C63" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D63" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E63" t="n">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F63" t="n">
-        <v>980.28730158</v>
+        <v>3565.08960432</v>
       </c>
       <c r="G63" t="n">
-        <v>623.6666666666666</v>
+        <v>9771.161206509998</v>
       </c>
       <c r="H63" t="n">
-        <v>619.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,40 +2861,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C64" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D64" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E64" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F64" t="n">
-        <v>589.1269984199999</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>624.0666666666667</v>
+        <v>9770.161206509998</v>
       </c>
       <c r="H64" t="n">
-        <v>619.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,40 +2900,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C65" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="D65" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="E65" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F65" t="n">
-        <v>240.9999</v>
+        <v>6833.0464</v>
       </c>
       <c r="G65" t="n">
-        <v>624.8666666666667</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H65" t="n">
-        <v>619.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,76 +2939,76 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C66" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D66" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E66" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F66" t="n">
-        <v>684</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>625.5333333333333</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H66" t="n">
-        <v>620.2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E67" t="n">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F67" t="n">
-        <v>1709.8108</v>
+        <v>982.7028</v>
       </c>
       <c r="G67" t="n">
-        <v>626.2666666666667</v>
+        <v>3919.817606509998</v>
       </c>
       <c r="H67" t="n">
-        <v>620.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,36 +3017,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="C68" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D68" t="n">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E68" t="n">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="F68" t="n">
-        <v>804.8511999999999</v>
+        <v>418.0065</v>
       </c>
       <c r="G68" t="n">
-        <v>627.0666666666667</v>
+        <v>3501.811106509998</v>
       </c>
       <c r="H68" t="n">
-        <v>620.9166666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,36 +3056,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C69" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D69" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E69" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F69" t="n">
-        <v>1090.3212</v>
+        <v>745.4299999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>627.6</v>
+        <v>4247.241106509998</v>
       </c>
       <c r="H69" t="n">
-        <v>621.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,36 +3095,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="C70" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="D70" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="E70" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="F70" t="n">
-        <v>605.5561</v>
+        <v>1690.8313</v>
       </c>
       <c r="G70" t="n">
-        <v>628.0666666666667</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H70" t="n">
-        <v>621.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3332,36 +3134,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C71" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D71" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E71" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="F71" t="n">
-        <v>157.90780484</v>
+        <v>213</v>
       </c>
       <c r="G71" t="n">
-        <v>628.6</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H71" t="n">
-        <v>621.95</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,36 +3173,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C72" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D72" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E72" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F72" t="n">
-        <v>301.348</v>
+        <v>2642.0168</v>
       </c>
       <c r="G72" t="n">
-        <v>629.1333333333333</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H72" t="n">
-        <v>622.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,36 +3212,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="C73" t="n">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="D73" t="n">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="E73" t="n">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="F73" t="n">
-        <v>5159.0485</v>
+        <v>266.5727</v>
       </c>
       <c r="G73" t="n">
-        <v>629.8</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H73" t="n">
-        <v>622.8</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3446,36 +3251,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C74" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D74" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E74" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F74" t="n">
-        <v>208.18</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>630.2666666666667</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H74" t="n">
-        <v>623.05</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,36 +3290,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C75" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D75" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E75" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F75" t="n">
-        <v>1097.14</v>
+        <v>25.9734</v>
       </c>
       <c r="G75" t="n">
-        <v>630.8666666666667</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H75" t="n">
-        <v>623.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,36 +3329,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C76" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D76" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E76" t="n">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F76" t="n">
-        <v>159.25347133</v>
+        <v>604.0232999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>631.1333333333333</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H76" t="n">
-        <v>623.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,36 +3368,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C77" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="D77" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E77" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F77" t="n">
-        <v>1382.799</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>631.0666666666667</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H77" t="n">
-        <v>623.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,36 +3407,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C78" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D78" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E78" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F78" t="n">
-        <v>977.8366</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>630.8666666666667</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H78" t="n">
-        <v>624.1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,36 +3446,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C79" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="D79" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E79" t="n">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F79" t="n">
-        <v>159.2535</v>
+        <v>93</v>
       </c>
       <c r="G79" t="n">
-        <v>630.6666666666666</v>
+        <v>-177.606993490002</v>
       </c>
       <c r="H79" t="n">
-        <v>624.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3674,36 +3485,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C80" t="n">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="D80" t="n">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="E80" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>1074.8532</v>
       </c>
       <c r="G80" t="n">
-        <v>630.8666666666667</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H80" t="n">
-        <v>624.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,36 +3524,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C81" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D81" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E81" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F81" t="n">
-        <v>809.6213</v>
+        <v>1964.1375</v>
       </c>
       <c r="G81" t="n">
-        <v>630.5333333333333</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H81" t="n">
-        <v>624.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,36 +3563,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C82" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D82" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E82" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F82" t="n">
-        <v>253.5353</v>
+        <v>165.4695</v>
       </c>
       <c r="G82" t="n">
-        <v>630.4666666666667</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H82" t="n">
-        <v>625.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,36 +3602,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C83" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D83" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E83" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F83" t="n">
-        <v>69.9576</v>
+        <v>5.52</v>
       </c>
       <c r="G83" t="n">
-        <v>630.3333333333334</v>
+        <v>902.766206509998</v>
       </c>
       <c r="H83" t="n">
-        <v>625.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,36 +3641,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C84" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D84" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F84" t="n">
-        <v>385</v>
+        <v>1358.1474</v>
       </c>
       <c r="G84" t="n">
-        <v>630.2</v>
+        <v>2260.913606509998</v>
       </c>
       <c r="H84" t="n">
-        <v>625.65</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,36 +3680,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C85" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D85" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E85" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F85" t="n">
-        <v>67.9999</v>
+        <v>596.0265000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>630</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H85" t="n">
-        <v>625.85</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,36 +3719,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C86" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D86" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E86" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F86" t="n">
-        <v>85.6563</v>
+        <v>14.5477</v>
       </c>
       <c r="G86" t="n">
-        <v>629.1333333333333</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H86" t="n">
-        <v>625.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3940,36 +3758,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C87" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D87" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E87" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F87" t="n">
-        <v>146.8301</v>
+        <v>241.5464</v>
       </c>
       <c r="G87" t="n">
-        <v>628.2666666666667</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H87" t="n">
-        <v>625.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,36 +3797,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C88" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D88" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E88" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F88" t="n">
-        <v>993.1</v>
+        <v>638</v>
       </c>
       <c r="G88" t="n">
-        <v>627.3333333333334</v>
+        <v>2218.940106509998</v>
       </c>
       <c r="H88" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,36 +3836,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C89" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D89" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E89" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F89" t="n">
-        <v>1775.8153</v>
+        <v>1643.0964</v>
       </c>
       <c r="G89" t="n">
-        <v>626.8666666666667</v>
+        <v>575.8437065099984</v>
       </c>
       <c r="H89" t="n">
-        <v>625.95</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,36 +3875,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C90" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D90" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E90" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F90" t="n">
-        <v>193.1383</v>
+        <v>273.6</v>
       </c>
       <c r="G90" t="n">
-        <v>626.4666666666667</v>
+        <v>849.4437065099984</v>
       </c>
       <c r="H90" t="n">
-        <v>625.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,36 +3914,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C91" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D91" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E91" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F91" t="n">
-        <v>352.633</v>
+        <v>4924.7592</v>
       </c>
       <c r="G91" t="n">
-        <v>626</v>
+        <v>5774.202906509999</v>
       </c>
       <c r="H91" t="n">
-        <v>625.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,36 +3953,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C92" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D92" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E92" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="F92" t="n">
-        <v>208.7739</v>
+        <v>980.28730158</v>
       </c>
       <c r="G92" t="n">
-        <v>625.5333333333333</v>
+        <v>6754.490208089998</v>
       </c>
       <c r="H92" t="n">
-        <v>625.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,36 +3992,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C93" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D93" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E93" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F93" t="n">
-        <v>280.7771</v>
+        <v>589.1269984199999</v>
       </c>
       <c r="G93" t="n">
-        <v>625.1333333333333</v>
+        <v>6754.490208089998</v>
       </c>
       <c r="H93" t="n">
-        <v>625.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,36 +4031,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C94" t="n">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D94" t="n">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="E94" t="n">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="F94" t="n">
-        <v>2753.7253</v>
+        <v>240.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>624.6666666666666</v>
+        <v>6995.490108089998</v>
       </c>
       <c r="H94" t="n">
-        <v>625.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,36 +4070,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C95" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D95" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E95" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F95" t="n">
-        <v>30</v>
+        <v>684</v>
       </c>
       <c r="G95" t="n">
-        <v>624.2</v>
+        <v>6311.490108089998</v>
       </c>
       <c r="H95" t="n">
-        <v>625.45</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,36 +4109,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C96" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="D96" t="n">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="E96" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="F96" t="n">
-        <v>5146.1509</v>
+        <v>1709.8108</v>
       </c>
       <c r="G96" t="n">
-        <v>623.7333333333333</v>
+        <v>8021.300908089998</v>
       </c>
       <c r="H96" t="n">
-        <v>625.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,36 +4148,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="C97" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D97" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="E97" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="F97" t="n">
-        <v>1112.8108</v>
+        <v>804.8511999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>622.9333333333333</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H97" t="n">
-        <v>625.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,36 +4187,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="C98" t="n">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="E98" t="n">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="F98" t="n">
-        <v>6643.4698</v>
+        <v>1090.3212</v>
       </c>
       <c r="G98" t="n">
-        <v>621.8</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H98" t="n">
-        <v>625.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,36 +4226,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="C99" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="D99" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="E99" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="F99" t="n">
-        <v>54.7713</v>
+        <v>605.5561</v>
       </c>
       <c r="G99" t="n">
-        <v>621</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H99" t="n">
-        <v>625.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,36 +4265,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="C100" t="n">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="D100" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E100" t="n">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="F100" t="n">
-        <v>1338.0268</v>
+        <v>157.90780484</v>
       </c>
       <c r="G100" t="n">
-        <v>620</v>
+        <v>8984.059912929999</v>
       </c>
       <c r="H100" t="n">
-        <v>624.85</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,36 +4304,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="C101" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="D101" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="E101" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="F101" t="n">
-        <v>550</v>
+        <v>301.348</v>
       </c>
       <c r="G101" t="n">
-        <v>619.7333333333333</v>
+        <v>8984.059912929999</v>
       </c>
       <c r="H101" t="n">
-        <v>624.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4510,36 +4343,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="C102" t="n">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="D102" t="n">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="E102" t="n">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="F102" t="n">
-        <v>397.4228</v>
+        <v>5159.0485</v>
       </c>
       <c r="G102" t="n">
-        <v>619.4666666666667</v>
+        <v>14143.10841293</v>
       </c>
       <c r="H102" t="n">
-        <v>624.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4548,36 +4382,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C103" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="D103" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E103" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F103" t="n">
-        <v>311.9202</v>
+        <v>208.18</v>
       </c>
       <c r="G103" t="n">
-        <v>619</v>
+        <v>13934.92841293</v>
       </c>
       <c r="H103" t="n">
-        <v>624.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,36 +4421,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C104" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D104" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E104" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F104" t="n">
-        <v>6.3674</v>
+        <v>1097.14</v>
       </c>
       <c r="G104" t="n">
-        <v>619.2666666666667</v>
+        <v>12837.78841293</v>
       </c>
       <c r="H104" t="n">
-        <v>624.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,36 +4460,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C105" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D105" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="E105" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="F105" t="n">
-        <v>270.6801</v>
+        <v>159.25347133</v>
       </c>
       <c r="G105" t="n">
-        <v>619.1333333333333</v>
+        <v>12997.04188426</v>
       </c>
       <c r="H105" t="n">
-        <v>624.75</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,36 +4499,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C106" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D106" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E106" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>1382.799</v>
       </c>
       <c r="G106" t="n">
-        <v>619.4</v>
+        <v>12997.04188426</v>
       </c>
       <c r="H106" t="n">
-        <v>624.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,36 +4538,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C107" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D107" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E107" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>977.8366</v>
       </c>
       <c r="G107" t="n">
-        <v>619.7333333333333</v>
+        <v>12019.20528426</v>
       </c>
       <c r="H107" t="n">
-        <v>624.8</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,36 +4577,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C108" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D108" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E108" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F108" t="n">
-        <v>234.5504</v>
+        <v>159.2535</v>
       </c>
       <c r="G108" t="n">
-        <v>620</v>
+        <v>12019.20528426</v>
       </c>
       <c r="H108" t="n">
-        <v>624.9166666666666</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,74 +4616,70 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C109" t="n">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D109" t="n">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="E109" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F109" t="n">
-        <v>802.8390000000001</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>619.7333333333333</v>
+        <v>12020.20528426</v>
       </c>
       <c r="H109" t="n">
-        <v>624.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="C110" t="n">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D110" t="n">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E110" t="n">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F110" t="n">
-        <v>4201.0801</v>
+        <v>809.6213</v>
       </c>
       <c r="G110" t="n">
-        <v>618.8</v>
+        <v>11210.58398426</v>
       </c>
       <c r="H110" t="n">
-        <v>624.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,36 +4688,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C111" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D111" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E111" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F111" t="n">
-        <v>80</v>
+        <v>253.5353</v>
       </c>
       <c r="G111" t="n">
-        <v>619</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H111" t="n">
-        <v>624.7</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,36 +4723,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C112" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D112" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E112" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F112" t="n">
-        <v>80</v>
+        <v>69.9576</v>
       </c>
       <c r="G112" t="n">
-        <v>619.2666666666667</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H112" t="n">
-        <v>624.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,36 +4758,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C113" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D113" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E113" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F113" t="n">
-        <v>779</v>
+        <v>385</v>
       </c>
       <c r="G113" t="n">
-        <v>619.8</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H113" t="n">
-        <v>624.75</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,36 +4793,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C114" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D114" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E114" t="n">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="F114" t="n">
-        <v>204.3468</v>
+        <v>67.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>620</v>
+        <v>11396.11938426</v>
       </c>
       <c r="H114" t="n">
-        <v>624.7</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,36 +4828,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C115" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D115" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E115" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F115" t="n">
-        <v>103.9753</v>
+        <v>85.6563</v>
       </c>
       <c r="G115" t="n">
-        <v>620.2666666666667</v>
+        <v>11310.46308426</v>
       </c>
       <c r="H115" t="n">
-        <v>624.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,36 +4863,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C116" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D116" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E116" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F116" t="n">
-        <v>657.3538</v>
+        <v>146.8301</v>
       </c>
       <c r="G116" t="n">
-        <v>620.4</v>
+        <v>11310.46308426</v>
       </c>
       <c r="H116" t="n">
-        <v>624.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,36 +4898,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C117" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D117" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E117" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F117" t="n">
-        <v>2490.4474</v>
+        <v>993.1</v>
       </c>
       <c r="G117" t="n">
-        <v>620.6666666666666</v>
+        <v>12303.56308426</v>
       </c>
       <c r="H117" t="n">
-        <v>624.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5118,36 +4933,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C118" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D118" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E118" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>1775.8153</v>
       </c>
       <c r="G118" t="n">
-        <v>621.2</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H118" t="n">
-        <v>624.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,36 +4968,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C119" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D119" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E119" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F119" t="n">
-        <v>79</v>
+        <v>193.1383</v>
       </c>
       <c r="G119" t="n">
-        <v>621.1333333333333</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H119" t="n">
-        <v>624.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,36 +5003,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C120" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D120" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E120" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F120" t="n">
-        <v>264.1907</v>
+        <v>352.633</v>
       </c>
       <c r="G120" t="n">
-        <v>621.4666666666667</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H120" t="n">
-        <v>624.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,24 +5050,21 @@
         <v>621</v>
       </c>
       <c r="F121" t="n">
-        <v>1741.0161</v>
+        <v>208.7739</v>
       </c>
       <c r="G121" t="n">
-        <v>621.2</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H121" t="n">
-        <v>624.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,36 +5073,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C122" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D122" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E122" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>280.7771</v>
       </c>
       <c r="G122" t="n">
-        <v>621.0666666666667</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H122" t="n">
-        <v>624.35</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5308,36 +5108,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C123" t="n">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D123" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E123" t="n">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>2753.7253</v>
       </c>
       <c r="G123" t="n">
-        <v>621.1333333333333</v>
+        <v>7774.022484259996</v>
       </c>
       <c r="H123" t="n">
-        <v>624.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5346,36 +5143,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C124" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D124" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E124" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F124" t="n">
-        <v>246.5779</v>
+        <v>30</v>
       </c>
       <c r="G124" t="n">
-        <v>621.4</v>
+        <v>7804.022484259996</v>
       </c>
       <c r="H124" t="n">
-        <v>624.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,36 +5178,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C125" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="D125" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E125" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>5146.1509</v>
       </c>
       <c r="G125" t="n">
-        <v>621.4</v>
+        <v>2657.871584259997</v>
       </c>
       <c r="H125" t="n">
-        <v>623.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,36 +5213,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C126" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D126" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E126" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F126" t="n">
-        <v>2</v>
+        <v>1112.8108</v>
       </c>
       <c r="G126" t="n">
-        <v>621.5333333333333</v>
+        <v>2657.871584259997</v>
       </c>
       <c r="H126" t="n">
-        <v>623.7</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,36 +5248,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>616</v>
+      </c>
+      <c r="C127" t="n">
         <v>613</v>
       </c>
-      <c r="C127" t="n">
-        <v>623</v>
-      </c>
       <c r="D127" t="n">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E127" t="n">
         <v>613</v>
       </c>
       <c r="F127" t="n">
-        <v>3</v>
+        <v>6643.4698</v>
       </c>
       <c r="G127" t="n">
-        <v>621.6</v>
+        <v>-3985.598215740003</v>
       </c>
       <c r="H127" t="n">
-        <v>623.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5498,36 +5283,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C128" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D128" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E128" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F128" t="n">
-        <v>16.3499</v>
+        <v>54.7713</v>
       </c>
       <c r="G128" t="n">
-        <v>621.7333333333333</v>
+        <v>-3930.826915740003</v>
       </c>
       <c r="H128" t="n">
-        <v>623.4166666666666</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5536,36 +5318,1048 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C129" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D129" t="n">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E129" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F129" t="n">
-        <v>307.228</v>
+        <v>1338.0268</v>
       </c>
       <c r="G129" t="n">
-        <v>621.8666666666667</v>
+        <v>-5268.853715740003</v>
       </c>
       <c r="H129" t="n">
-        <v>623.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>618</v>
+      </c>
+      <c r="C130" t="n">
+        <v>618</v>
+      </c>
+      <c r="D130" t="n">
+        <v>618</v>
+      </c>
+      <c r="E130" t="n">
+        <v>618</v>
+      </c>
+      <c r="F130" t="n">
+        <v>550</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4718.853715740003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>618</v>
+      </c>
+      <c r="C131" t="n">
+        <v>618</v>
+      </c>
+      <c r="D131" t="n">
+        <v>618</v>
+      </c>
+      <c r="E131" t="n">
+        <v>618</v>
+      </c>
+      <c r="F131" t="n">
+        <v>397.4228</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4718.853715740003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>616</v>
+      </c>
+      <c r="C132" t="n">
+        <v>616</v>
+      </c>
+      <c r="D132" t="n">
+        <v>616</v>
+      </c>
+      <c r="E132" t="n">
+        <v>616</v>
+      </c>
+      <c r="F132" t="n">
+        <v>311.9202</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-5030.773915740003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>618</v>
+      </c>
+      <c r="C133" t="n">
+        <v>625</v>
+      </c>
+      <c r="D133" t="n">
+        <v>625</v>
+      </c>
+      <c r="E133" t="n">
+        <v>618</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6.3674</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-5024.406515740003</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>619</v>
+      </c>
+      <c r="C134" t="n">
+        <v>619</v>
+      </c>
+      <c r="D134" t="n">
+        <v>619</v>
+      </c>
+      <c r="E134" t="n">
+        <v>619</v>
+      </c>
+      <c r="F134" t="n">
+        <v>270.6801</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-5295.086615740002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>625</v>
+      </c>
+      <c r="C135" t="n">
+        <v>625</v>
+      </c>
+      <c r="D135" t="n">
+        <v>625</v>
+      </c>
+      <c r="E135" t="n">
+        <v>625</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-5294.086615740002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>626</v>
+      </c>
+      <c r="C136" t="n">
+        <v>626</v>
+      </c>
+      <c r="D136" t="n">
+        <v>626</v>
+      </c>
+      <c r="E136" t="n">
+        <v>626</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5293.086615740002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>625</v>
+      </c>
+      <c r="D137" t="n">
+        <v>625</v>
+      </c>
+      <c r="E137" t="n">
+        <v>625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>234.5504</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-5527.637015740002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>618</v>
+      </c>
+      <c r="C138" t="n">
+        <v>616</v>
+      </c>
+      <c r="D138" t="n">
+        <v>618</v>
+      </c>
+      <c r="E138" t="n">
+        <v>616</v>
+      </c>
+      <c r="F138" t="n">
+        <v>802.8390000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-6330.476015740002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>615</v>
+      </c>
+      <c r="C139" t="n">
+        <v>613</v>
+      </c>
+      <c r="D139" t="n">
+        <v>615</v>
+      </c>
+      <c r="E139" t="n">
+        <v>613</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4201.0801</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-10531.55611574</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>621</v>
+      </c>
+      <c r="C140" t="n">
+        <v>621</v>
+      </c>
+      <c r="D140" t="n">
+        <v>621</v>
+      </c>
+      <c r="E140" t="n">
+        <v>621</v>
+      </c>
+      <c r="F140" t="n">
+        <v>80</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-10451.55611574</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>622</v>
+      </c>
+      <c r="C141" t="n">
+        <v>622</v>
+      </c>
+      <c r="D141" t="n">
+        <v>622</v>
+      </c>
+      <c r="E141" t="n">
+        <v>622</v>
+      </c>
+      <c r="F141" t="n">
+        <v>80</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-10371.55611574</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>621</v>
+      </c>
+      <c r="C142" t="n">
+        <v>621</v>
+      </c>
+      <c r="D142" t="n">
+        <v>621</v>
+      </c>
+      <c r="E142" t="n">
+        <v>621</v>
+      </c>
+      <c r="F142" t="n">
+        <v>779</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-11150.55611574</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>616</v>
+      </c>
+      <c r="C143" t="n">
+        <v>621</v>
+      </c>
+      <c r="D143" t="n">
+        <v>621</v>
+      </c>
+      <c r="E143" t="n">
+        <v>616</v>
+      </c>
+      <c r="F143" t="n">
+        <v>204.3468</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-11150.55611574</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>618</v>
+      </c>
+      <c r="C144" t="n">
+        <v>618</v>
+      </c>
+      <c r="D144" t="n">
+        <v>618</v>
+      </c>
+      <c r="E144" t="n">
+        <v>618</v>
+      </c>
+      <c r="F144" t="n">
+        <v>103.9753</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-11254.53141574</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>620</v>
+      </c>
+      <c r="C145" t="n">
+        <v>620</v>
+      </c>
+      <c r="D145" t="n">
+        <v>620</v>
+      </c>
+      <c r="E145" t="n">
+        <v>620</v>
+      </c>
+      <c r="F145" t="n">
+        <v>657.3538</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-10597.17761574</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>621</v>
+      </c>
+      <c r="C146" t="n">
+        <v>622</v>
+      </c>
+      <c r="D146" t="n">
+        <v>622</v>
+      </c>
+      <c r="E146" t="n">
+        <v>621</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2490.4474</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-8106.730215740002</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>624</v>
+      </c>
+      <c r="C147" t="n">
+        <v>624</v>
+      </c>
+      <c r="D147" t="n">
+        <v>624</v>
+      </c>
+      <c r="E147" t="n">
+        <v>624</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>624</v>
+      </c>
+      <c r="C148" t="n">
+        <v>624</v>
+      </c>
+      <c r="D148" t="n">
+        <v>624</v>
+      </c>
+      <c r="E148" t="n">
+        <v>624</v>
+      </c>
+      <c r="F148" t="n">
+        <v>79</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>624</v>
+      </c>
+      <c r="C149" t="n">
+        <v>624</v>
+      </c>
+      <c r="D149" t="n">
+        <v>624</v>
+      </c>
+      <c r="E149" t="n">
+        <v>624</v>
+      </c>
+      <c r="F149" t="n">
+        <v>264.1907</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>621</v>
+      </c>
+      <c r="C150" t="n">
+        <v>621</v>
+      </c>
+      <c r="D150" t="n">
+        <v>621</v>
+      </c>
+      <c r="E150" t="n">
+        <v>621</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1741.0161</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-9846.746315740002</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>624</v>
+      </c>
+      <c r="C151" t="n">
+        <v>624</v>
+      </c>
+      <c r="D151" t="n">
+        <v>624</v>
+      </c>
+      <c r="E151" t="n">
+        <v>624</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-9845.746315740002</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>626</v>
+      </c>
+      <c r="C152" t="n">
+        <v>626</v>
+      </c>
+      <c r="D152" t="n">
+        <v>626</v>
+      </c>
+      <c r="E152" t="n">
+        <v>626</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-9844.746315740002</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>620</v>
+      </c>
+      <c r="C153" t="n">
+        <v>620</v>
+      </c>
+      <c r="D153" t="n">
+        <v>620</v>
+      </c>
+      <c r="E153" t="n">
+        <v>620</v>
+      </c>
+      <c r="F153" t="n">
+        <v>246.5779</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-10091.32421574</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>619</v>
+      </c>
+      <c r="C154" t="n">
+        <v>613</v>
+      </c>
+      <c r="D154" t="n">
+        <v>619</v>
+      </c>
+      <c r="E154" t="n">
+        <v>613</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-12091.32421574</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>617</v>
+      </c>
+      <c r="C155" t="n">
+        <v>623</v>
+      </c>
+      <c r="D155" t="n">
+        <v>623</v>
+      </c>
+      <c r="E155" t="n">
+        <v>617</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>613</v>
+      </c>
+      <c r="C156" t="n">
+        <v>623</v>
+      </c>
+      <c r="D156" t="n">
+        <v>623</v>
+      </c>
+      <c r="E156" t="n">
+        <v>613</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>623</v>
+      </c>
+      <c r="C157" t="n">
+        <v>623</v>
+      </c>
+      <c r="D157" t="n">
+        <v>623</v>
+      </c>
+      <c r="E157" t="n">
+        <v>623</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16.3499</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>623</v>
+      </c>
+      <c r="C158" t="n">
+        <v>623</v>
+      </c>
+      <c r="D158" t="n">
+        <v>623</v>
+      </c>
+      <c r="E158" t="n">
+        <v>623</v>
+      </c>
+      <c r="F158" t="n">
+        <v>307.228</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="C2" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D2" t="n">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E2" t="n">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F2" t="n">
-        <v>879.2232</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-17353.80606635</v>
+        <v>-17142.09909755</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,63 +467,71 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C3" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D3" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E3" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>1249.9732</v>
       </c>
       <c r="G3" t="n">
-        <v>-16353.80606635</v>
+        <v>-18392.07229755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>614</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C4" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D4" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="E4" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F4" t="n">
-        <v>4863.8371</v>
+        <v>11.4315</v>
       </c>
       <c r="G4" t="n">
-        <v>-11489.96896635</v>
+        <v>-18380.64079755</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,39 +540,40 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C5" t="n">
+        <v>610</v>
+      </c>
+      <c r="D5" t="n">
+        <v>610</v>
+      </c>
+      <c r="E5" t="n">
         <v>609</v>
       </c>
-      <c r="D5" t="n">
-        <v>609</v>
-      </c>
-      <c r="E5" t="n">
-        <v>608</v>
-      </c>
       <c r="F5" t="n">
-        <v>4871.8635</v>
+        <v>169.18</v>
       </c>
       <c r="G5" t="n">
-        <v>-6618.105466350003</v>
+        <v>-18549.82079755</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -568,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -579,36 +593,39 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>613</v>
+      </c>
+      <c r="C6" t="n">
+        <v>613</v>
+      </c>
+      <c r="D6" t="n">
+        <v>613</v>
+      </c>
+      <c r="E6" t="n">
+        <v>613</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1692.2642</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-16857.55659755</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>610</v>
       </c>
-      <c r="C6" t="n">
-        <v>614</v>
-      </c>
-      <c r="D6" t="n">
-        <v>615</v>
-      </c>
-      <c r="E6" t="n">
-        <v>610</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7723.2686688</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1105.163202449998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
@@ -618,36 +635,39 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C7" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D7" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E7" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F7" t="n">
-        <v>480</v>
+        <v>1007.0032</v>
       </c>
       <c r="G7" t="n">
-        <v>1585.163202449998</v>
+        <v>-16857.55659755</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>613</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -657,36 +677,39 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C8" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D8" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E8" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F8" t="n">
-        <v>9267.550999999999</v>
+        <v>1.6091</v>
       </c>
       <c r="G8" t="n">
-        <v>-7682.387797550002</v>
+        <v>-16855.94749755</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>613</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -696,6 +719,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,27 +729,29 @@
         <v>614</v>
       </c>
       <c r="C9" t="n">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D9" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="E9" t="n">
+        <v>609</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2164.5773</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-19020.52479755</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>614</v>
       </c>
-      <c r="F9" t="n">
-        <v>368.5895</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-7313.798297550002</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -735,36 +761,39 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C10" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D10" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E10" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="F10" t="n">
-        <v>2940.8307</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-10254.62899755</v>
+        <v>-19019.52479755</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>609</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -774,28 +803,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C11" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D11" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="E11" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F11" t="n">
-        <v>205.8594</v>
+        <v>162.33766233</v>
       </c>
       <c r="G11" t="n">
-        <v>-10048.76959755</v>
+        <v>-19181.86245988</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -813,28 +843,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C12" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D12" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E12" t="n">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F12" t="n">
-        <v>4395.1777</v>
+        <v>162.44836207</v>
       </c>
       <c r="G12" t="n">
-        <v>-5653.591897550003</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -852,28 +883,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C13" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D13" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E13" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F13" t="n">
-        <v>542.7951</v>
+        <v>1088.71813793</v>
       </c>
       <c r="G13" t="n">
-        <v>-6196.386997550003</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -891,28 +923,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C14" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D14" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E14" t="n">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F14" t="n">
-        <v>1410.524</v>
+        <v>13361.6126</v>
       </c>
       <c r="G14" t="n">
-        <v>-6196.386997550003</v>
+        <v>-5657.80149781</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -930,28 +963,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C15" t="n">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D15" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="E15" t="n">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="F15" t="n">
-        <v>911.4381</v>
+        <v>9374.352999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-7107.825097550003</v>
+        <v>3716.551502189999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -969,28 +1003,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C16" t="n">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D16" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E16" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="F16" t="n">
-        <v>5460.2638</v>
+        <v>710.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1647.561297550003</v>
+        <v>4427.551402189999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1008,28 +1043,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C17" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D17" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E17" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F17" t="n">
-        <v>1308.7305</v>
+        <v>3456.27970432</v>
       </c>
       <c r="G17" t="n">
-        <v>-1647.561297550003</v>
+        <v>7883.831106509999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1047,28 +1083,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C18" t="n">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D18" t="n">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="E18" t="n">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="F18" t="n">
-        <v>1644.7902</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="n">
-        <v>-3292.351497550003</v>
+        <v>4883.831106509999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1086,28 +1123,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C19" t="n">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D19" t="n">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="E19" t="n">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="F19" t="n">
-        <v>4958.4019</v>
+        <v>12.4777</v>
       </c>
       <c r="G19" t="n">
-        <v>-3292.351497550003</v>
+        <v>4896.308806509999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1125,28 +1163,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C20" t="n">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="D20" t="n">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="E20" t="n">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="F20" t="n">
-        <v>764.0832</v>
+        <v>1309.76279568</v>
       </c>
       <c r="G20" t="n">
-        <v>-4056.434697550003</v>
+        <v>6206.071602189999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1164,28 +1203,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="C21" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="D21" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="E21" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>3565.08960432</v>
       </c>
       <c r="G21" t="n">
-        <v>-3056.434697550003</v>
+        <v>9771.161206509998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1203,28 +1243,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="C22" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D22" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E22" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="F22" t="n">
-        <v>1010.2121</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-2046.222597550003</v>
+        <v>9770.161206509998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1242,28 +1283,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C23" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D23" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E23" t="n">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F23" t="n">
-        <v>226.0349</v>
+        <v>6833.0464</v>
       </c>
       <c r="G23" t="n">
-        <v>-2272.257497550003</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1281,28 +1323,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C24" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D24" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E24" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="F24" t="n">
-        <v>327.5878</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-2599.845297550003</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1320,28 +1363,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C25" t="n">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D25" t="n">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E25" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F25" t="n">
-        <v>5278.8949</v>
+        <v>982.7028</v>
       </c>
       <c r="G25" t="n">
-        <v>-7878.740197550003</v>
+        <v>3919.817606509998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1359,28 +1403,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="C26" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D26" t="n">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="E26" t="n">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F26" t="n">
-        <v>1087.8032</v>
+        <v>418.0065</v>
       </c>
       <c r="G26" t="n">
-        <v>-7878.740197550003</v>
+        <v>3501.811106509998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1398,28 +1443,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C27" t="n">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D27" t="n">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="E27" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F27" t="n">
-        <v>3850.0767</v>
+        <v>745.4299999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-7878.740197550003</v>
+        <v>4247.241106509998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1437,28 +1483,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C28" t="n">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="D28" t="n">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E28" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F28" t="n">
-        <v>1927.9356</v>
+        <v>1690.8313</v>
       </c>
       <c r="G28" t="n">
-        <v>-7878.740197550003</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1476,38 +1523,37 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C29" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D29" t="n">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="E29" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="F29" t="n">
-        <v>3934.0252</v>
+        <v>213</v>
       </c>
       <c r="G29" t="n">
-        <v>-11812.76539755</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>606</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1517,38 +1563,37 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C30" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="D30" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="E30" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="F30" t="n">
-        <v>1400</v>
+        <v>2642.0168</v>
       </c>
       <c r="G30" t="n">
-        <v>-11812.76539755</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>605</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1558,38 +1603,37 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C31" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="D31" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="E31" t="n">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="F31" t="n">
-        <v>2309.7329</v>
+        <v>266.5727</v>
       </c>
       <c r="G31" t="n">
-        <v>-11812.76539755</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>605</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1599,38 +1643,37 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="C32" t="n">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D32" t="n">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="E32" t="n">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="F32" t="n">
-        <v>6718.361</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-18531.12639755</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>605</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1640,38 +1683,37 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C33" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="D33" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="E33" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F33" t="n">
-        <v>493.421</v>
+        <v>25.9734</v>
       </c>
       <c r="G33" t="n">
-        <v>-18037.70539755001</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>602</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1681,28 +1723,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C34" t="n">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="D34" t="n">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="E34" t="n">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="F34" t="n">
-        <v>4138.9757</v>
+        <v>604.0232999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-22176.68109755</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1720,28 +1763,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C35" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D35" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="E35" t="n">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-22175.68109755</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1759,28 +1803,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C36" t="n">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D36" t="n">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E36" t="n">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="F36" t="n">
-        <v>4881.4582</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-17294.22289755</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1798,28 +1843,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C37" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D37" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E37" t="n">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F37" t="n">
-        <v>70.9999</v>
+        <v>93</v>
       </c>
       <c r="G37" t="n">
-        <v>-17365.22279755</v>
+        <v>-177.606993490002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1837,28 +1883,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C38" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D38" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E38" t="n">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>1074.8532</v>
       </c>
       <c r="G38" t="n">
-        <v>-17364.22279755</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1876,38 +1923,37 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="C39" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D39" t="n">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="E39" t="n">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F39" t="n">
-        <v>869.4018</v>
+        <v>1964.1375</v>
       </c>
       <c r="G39" t="n">
-        <v>-18233.62459755</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>613</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1917,28 +1963,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C40" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D40" t="n">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E40" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F40" t="n">
-        <v>1676.2802</v>
+        <v>165.4695</v>
       </c>
       <c r="G40" t="n">
-        <v>-18233.62459755</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1956,38 +2003,37 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C41" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D41" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="E41" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>5.52</v>
       </c>
       <c r="G41" t="n">
-        <v>-18223.62459755</v>
+        <v>902.766206509998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>612</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -1997,28 +2043,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C42" t="n">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="D42" t="n">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="E42" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F42" t="n">
-        <v>946.3615</v>
+        <v>1358.1474</v>
       </c>
       <c r="G42" t="n">
-        <v>-19169.98609755</v>
+        <v>2260.913606509998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2036,28 +2083,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C43" t="n">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="D43" t="n">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="E43" t="n">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="F43" t="n">
-        <v>2026.887</v>
+        <v>596.0265000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-17143.09909755</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2075,28 +2123,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C44" t="n">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="D44" t="n">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="E44" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>14.5477</v>
       </c>
       <c r="G44" t="n">
-        <v>-17142.09909755</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2114,28 +2163,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="C45" t="n">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="D45" t="n">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="E45" t="n">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="F45" t="n">
-        <v>1249.9732</v>
+        <v>241.5464</v>
       </c>
       <c r="G45" t="n">
-        <v>-18392.07229755</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2153,28 +2203,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="C46" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D46" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="E46" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F46" t="n">
-        <v>11.4315</v>
+        <v>638</v>
       </c>
       <c r="G46" t="n">
-        <v>-18380.64079755</v>
+        <v>2218.940106509998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2192,28 +2243,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C47" t="n">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="D47" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E47" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F47" t="n">
-        <v>169.18</v>
+        <v>1643.0964</v>
       </c>
       <c r="G47" t="n">
-        <v>-18549.82079755</v>
+        <v>575.8437065099984</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2231,28 +2283,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C48" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D48" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="E48" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F48" t="n">
-        <v>1692.2642</v>
+        <v>273.6</v>
       </c>
       <c r="G48" t="n">
-        <v>-16857.55659755</v>
+        <v>849.4437065099984</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2270,28 +2323,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C49" t="n">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="D49" t="n">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="E49" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="F49" t="n">
-        <v>1007.0032</v>
+        <v>4924.7592</v>
       </c>
       <c r="G49" t="n">
-        <v>-16857.55659755</v>
+        <v>5774.202906509999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2309,28 +2363,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C50" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D50" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="E50" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="F50" t="n">
-        <v>1.6091</v>
+        <v>980.28730158</v>
       </c>
       <c r="G50" t="n">
-        <v>-16855.94749755</v>
+        <v>6754.490208089998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2348,28 +2403,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="C51" t="n">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="F51" t="n">
-        <v>2164.5773</v>
+        <v>589.1269984199999</v>
       </c>
       <c r="G51" t="n">
-        <v>-19020.52479755</v>
+        <v>6754.490208089998</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2387,28 +2443,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="C52" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="D52" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="E52" t="n">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>240.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>-19019.52479755</v>
+        <v>6995.490108089998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2426,28 +2483,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="C53" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D53" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="E53" t="n">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="F53" t="n">
-        <v>162.33766233</v>
+        <v>684</v>
       </c>
       <c r="G53" t="n">
-        <v>-19181.86245988</v>
+        <v>6311.490108089998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2465,28 +2523,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="C54" t="n">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="D54" t="n">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="E54" t="n">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="F54" t="n">
-        <v>162.44836207</v>
+        <v>1709.8108</v>
       </c>
       <c r="G54" t="n">
-        <v>-19019.41409781</v>
+        <v>8021.300908089998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2504,28 +2563,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="C55" t="n">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D55" t="n">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="E55" t="n">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="F55" t="n">
-        <v>1088.71813793</v>
+        <v>804.8511999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-19019.41409781</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2543,28 +2603,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="C56" t="n">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="D56" t="n">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="E56" t="n">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F56" t="n">
-        <v>13361.6126</v>
+        <v>1090.3212</v>
       </c>
       <c r="G56" t="n">
-        <v>-5657.80149781</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2582,28 +2643,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="C57" t="n">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="D57" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E57" t="n">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="F57" t="n">
-        <v>9374.352999999999</v>
+        <v>605.5561</v>
       </c>
       <c r="G57" t="n">
-        <v>3716.551502189999</v>
+        <v>8826.152108089998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2621,28 +2683,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="C58" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D58" t="n">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E58" t="n">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="F58" t="n">
-        <v>710.9999</v>
+        <v>157.90780484</v>
       </c>
       <c r="G58" t="n">
-        <v>4427.551402189999</v>
+        <v>8984.059912929999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2660,28 +2723,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C59" t="n">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D59" t="n">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E59" t="n">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F59" t="n">
-        <v>3456.27970432</v>
+        <v>301.348</v>
       </c>
       <c r="G59" t="n">
-        <v>7883.831106509999</v>
+        <v>8984.059912929999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2699,28 +2763,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C60" t="n">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D60" t="n">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E60" t="n">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F60" t="n">
-        <v>3000</v>
+        <v>5159.0485</v>
       </c>
       <c r="G60" t="n">
-        <v>4883.831106509999</v>
+        <v>14143.10841293</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2738,325 +2803,304 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C61" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D61" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E61" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F61" t="n">
-        <v>12.4777</v>
+        <v>208.18</v>
       </c>
       <c r="G61" t="n">
-        <v>4896.308806509999</v>
+        <v>13934.92841293</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C62" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D62" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E62" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F62" t="n">
-        <v>1309.76279568</v>
+        <v>1097.14</v>
       </c>
       <c r="G62" t="n">
-        <v>6206.071602189999</v>
+        <v>12837.78841293</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C63" t="n">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D63" t="n">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E63" t="n">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F63" t="n">
-        <v>3565.08960432</v>
+        <v>159.25347133</v>
       </c>
       <c r="G63" t="n">
-        <v>9771.161206509998</v>
+        <v>12997.04188426</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C64" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D64" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E64" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1382.799</v>
       </c>
       <c r="G64" t="n">
-        <v>9770.161206509998</v>
+        <v>12997.04188426</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C65" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D65" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="E65" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="F65" t="n">
-        <v>6833.0464</v>
+        <v>977.8366</v>
       </c>
       <c r="G65" t="n">
-        <v>2937.114806509998</v>
+        <v>12019.20528426</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C66" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D66" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="E66" t="n">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>159.2535</v>
       </c>
       <c r="G66" t="n">
-        <v>2937.114806509998</v>
+        <v>12019.20528426</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C67" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D67" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E67" t="n">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F67" t="n">
-        <v>982.7028</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>3919.817606509998</v>
+        <v>12020.20528426</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C68" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D68" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E68" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F68" t="n">
-        <v>418.0065</v>
+        <v>809.6213</v>
       </c>
       <c r="G68" t="n">
-        <v>3501.811106509998</v>
+        <v>11210.58398426</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C69" t="n">
         <v>630</v>
@@ -3065,364 +3109,337 @@
         <v>630</v>
       </c>
       <c r="E69" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F69" t="n">
-        <v>745.4299999999999</v>
+        <v>253.5353</v>
       </c>
       <c r="G69" t="n">
-        <v>4247.241106509998</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C70" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D70" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E70" t="n">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F70" t="n">
-        <v>1690.8313</v>
+        <v>69.9576</v>
       </c>
       <c r="G70" t="n">
-        <v>2556.409806509998</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="C71" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D71" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E71" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F71" t="n">
-        <v>213</v>
+        <v>385</v>
       </c>
       <c r="G71" t="n">
-        <v>2556.409806509998</v>
+        <v>11464.11928426</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="C72" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D72" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="E72" t="n">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="F72" t="n">
-        <v>2642.0168</v>
+        <v>67.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>-85.60699349000197</v>
+        <v>11396.11938426</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C73" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D73" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="E73" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F73" t="n">
-        <v>266.5727</v>
+        <v>85.6563</v>
       </c>
       <c r="G73" t="n">
-        <v>-85.60699349000197</v>
+        <v>11310.46308426</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C74" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D74" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E74" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>146.8301</v>
       </c>
       <c r="G74" t="n">
-        <v>-84.60699349000197</v>
+        <v>11310.46308426</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C75" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D75" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E75" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F75" t="n">
-        <v>25.9734</v>
+        <v>993.1</v>
       </c>
       <c r="G75" t="n">
-        <v>-84.60699349000197</v>
+        <v>12303.56308426</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C76" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D76" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E76" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F76" t="n">
-        <v>604.0232999999999</v>
+        <v>1775.8153</v>
       </c>
       <c r="G76" t="n">
-        <v>-84.60699349000197</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C77" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D77" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E77" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>193.1383</v>
       </c>
       <c r="G77" t="n">
-        <v>-85.60699349000197</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C78" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D78" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E78" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>352.633</v>
       </c>
       <c r="G78" t="n">
-        <v>-84.60699349000197</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3432,75 +3449,69 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C79" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D79" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E79" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F79" t="n">
-        <v>93</v>
+        <v>208.7739</v>
       </c>
       <c r="G79" t="n">
-        <v>-177.606993490002</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C80" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D80" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E80" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F80" t="n">
-        <v>1074.8532</v>
+        <v>280.7771</v>
       </c>
       <c r="G80" t="n">
-        <v>897.246206509998</v>
+        <v>10527.74778426</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3510,36 +3521,33 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C81" t="n">
         <v>620</v>
       </c>
       <c r="D81" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E81" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F81" t="n">
-        <v>1964.1375</v>
+        <v>2753.7253</v>
       </c>
       <c r="G81" t="n">
-        <v>897.246206509998</v>
+        <v>7774.022484259996</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3549,36 +3557,33 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C82" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D82" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="E82" t="n">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F82" t="n">
-        <v>165.4695</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>897.246206509998</v>
+        <v>7804.022484259996</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3588,75 +3593,69 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C83" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D83" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E83" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F83" t="n">
-        <v>5.52</v>
+        <v>5146.1509</v>
       </c>
       <c r="G83" t="n">
-        <v>902.766206509998</v>
+        <v>2657.871584259997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C84" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D84" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E84" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F84" t="n">
-        <v>1358.1474</v>
+        <v>1112.8108</v>
       </c>
       <c r="G84" t="n">
-        <v>2260.913606509998</v>
+        <v>2657.871584259997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3666,36 +3665,33 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C85" t="n">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D85" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E85" t="n">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F85" t="n">
-        <v>596.0265000000001</v>
+        <v>6643.4698</v>
       </c>
       <c r="G85" t="n">
-        <v>2856.940106509998</v>
+        <v>-3985.598215740003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3705,36 +3701,33 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C86" t="n">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D86" t="n">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E86" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F86" t="n">
-        <v>14.5477</v>
+        <v>54.7713</v>
       </c>
       <c r="G86" t="n">
-        <v>2856.940106509998</v>
+        <v>-3930.826915740003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3744,36 +3737,33 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C87" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D87" t="n">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E87" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F87" t="n">
-        <v>241.5464</v>
+        <v>1338.0268</v>
       </c>
       <c r="G87" t="n">
-        <v>2856.940106509998</v>
+        <v>-5268.853715740003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3783,36 +3773,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C88" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D88" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E88" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F88" t="n">
-        <v>638</v>
+        <v>550</v>
       </c>
       <c r="G88" t="n">
-        <v>2218.940106509998</v>
+        <v>-4718.853715740003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3822,36 +3809,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C89" t="n">
         <v>618</v>
       </c>
       <c r="D89" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E89" t="n">
         <v>618</v>
       </c>
       <c r="F89" t="n">
-        <v>1643.0964</v>
+        <v>397.4228</v>
       </c>
       <c r="G89" t="n">
-        <v>575.8437065099984</v>
+        <v>-4718.853715740003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3861,36 +3845,33 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C90" t="n">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D90" t="n">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E90" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F90" t="n">
-        <v>273.6</v>
+        <v>311.9202</v>
       </c>
       <c r="G90" t="n">
-        <v>849.4437065099984</v>
+        <v>-5030.773915740003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3900,36 +3881,33 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C91" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D91" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E91" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F91" t="n">
-        <v>4924.7592</v>
+        <v>6.3674</v>
       </c>
       <c r="G91" t="n">
-        <v>5774.202906509999</v>
+        <v>-5024.406515740003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3939,36 +3917,33 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C92" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D92" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E92" t="n">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F92" t="n">
-        <v>980.28730158</v>
+        <v>270.6801</v>
       </c>
       <c r="G92" t="n">
-        <v>6754.490208089998</v>
+        <v>-5295.086615740002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3978,36 +3953,33 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C93" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D93" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E93" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F93" t="n">
-        <v>589.1269984199999</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>6754.490208089998</v>
+        <v>-5294.086615740002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4017,36 +3989,33 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C94" t="n">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D94" t="n">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E94" t="n">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F94" t="n">
-        <v>240.9999</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>6995.490108089998</v>
+        <v>-5293.086615740002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4056,36 +4025,33 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C95" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D95" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E95" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F95" t="n">
-        <v>684</v>
+        <v>234.5504</v>
       </c>
       <c r="G95" t="n">
-        <v>6311.490108089998</v>
+        <v>-5527.637015740002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4095,36 +4061,33 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C96" t="n">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="D96" t="n">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="E96" t="n">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="F96" t="n">
-        <v>1709.8108</v>
+        <v>802.8390000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>8021.300908089998</v>
+        <v>-6330.476015740002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4134,36 +4097,33 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="C97" t="n">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="D97" t="n">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="E97" t="n">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="F97" t="n">
-        <v>804.8511999999999</v>
+        <v>4201.0801</v>
       </c>
       <c r="G97" t="n">
-        <v>8826.152108089998</v>
+        <v>-10531.55611574</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4173,36 +4133,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C98" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D98" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E98" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F98" t="n">
-        <v>1090.3212</v>
+        <v>80</v>
       </c>
       <c r="G98" t="n">
-        <v>8826.152108089998</v>
+        <v>-10451.55611574</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4212,36 +4169,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C99" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="D99" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E99" t="n">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F99" t="n">
-        <v>605.5561</v>
+        <v>80</v>
       </c>
       <c r="G99" t="n">
-        <v>8826.152108089998</v>
+        <v>-10371.55611574</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4251,36 +4205,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C100" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="D100" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E100" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F100" t="n">
-        <v>157.90780484</v>
+        <v>779</v>
       </c>
       <c r="G100" t="n">
-        <v>8984.059912929999</v>
+        <v>-11150.55611574</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4290,36 +4241,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="C101" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="D101" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E101" t="n">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="F101" t="n">
-        <v>301.348</v>
+        <v>204.3468</v>
       </c>
       <c r="G101" t="n">
-        <v>8984.059912929999</v>
+        <v>-11150.55611574</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4329,36 +4277,33 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="C102" t="n">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="D102" t="n">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="E102" t="n">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F102" t="n">
-        <v>5159.0485</v>
+        <v>103.9753</v>
       </c>
       <c r="G102" t="n">
-        <v>14143.10841293</v>
+        <v>-11254.53141574</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4368,36 +4313,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C103" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="D103" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E103" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F103" t="n">
-        <v>208.18</v>
+        <v>657.3538</v>
       </c>
       <c r="G103" t="n">
-        <v>13934.92841293</v>
+        <v>-10597.17761574</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4407,36 +4349,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C104" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D104" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E104" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F104" t="n">
-        <v>1097.14</v>
+        <v>2490.4474</v>
       </c>
       <c r="G104" t="n">
-        <v>12837.78841293</v>
+        <v>-8106.730215740002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4446,36 +4385,33 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C105" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D105" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E105" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F105" t="n">
-        <v>159.25347133</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>12997.04188426</v>
+        <v>-8105.730215740002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4485,36 +4421,33 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C106" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D106" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E106" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F106" t="n">
-        <v>1382.799</v>
+        <v>79</v>
       </c>
       <c r="G106" t="n">
-        <v>12997.04188426</v>
+        <v>-8105.730215740002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4524,36 +4457,33 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C107" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D107" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E107" t="n">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F107" t="n">
-        <v>977.8366</v>
+        <v>264.1907</v>
       </c>
       <c r="G107" t="n">
-        <v>12019.20528426</v>
+        <v>-8105.730215740002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4563,36 +4493,33 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C108" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D108" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E108" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F108" t="n">
-        <v>159.2535</v>
+        <v>1741.0161</v>
       </c>
       <c r="G108" t="n">
-        <v>12019.20528426</v>
+        <v>-9846.746315740002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4602,51 +4529,47 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C109" t="n">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D109" t="n">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E109" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>12020.20528426</v>
+        <v>-9845.746315740002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4656,25 +4579,25 @@
         <v>626</v>
       </c>
       <c r="C110" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D110" t="n">
         <v>626</v>
       </c>
       <c r="E110" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F110" t="n">
-        <v>809.6213</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>11210.58398426</v>
+        <v>-9844.746315740002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4682,34 +4605,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C111" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D111" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E111" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F111" t="n">
-        <v>253.5353</v>
+        <v>246.5779</v>
       </c>
       <c r="G111" t="n">
-        <v>11464.11928426</v>
+        <v>-10091.32421574</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4717,28 +4641,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C112" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="D112" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E112" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="F112" t="n">
-        <v>69.9576</v>
+        <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>11464.11928426</v>
+        <v>-12091.32421574</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4752,34 +4677,35 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C113" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D113" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E113" t="n">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="F113" t="n">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>11464.11928426</v>
+        <v>-12089.32421574</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4787,34 +4713,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C114" t="n">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D114" t="n">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E114" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="F114" t="n">
-        <v>67.9999</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>11396.11938426</v>
+        <v>-12089.32421574</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4822,34 +4749,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C115" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D115" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E115" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F115" t="n">
-        <v>85.6563</v>
+        <v>16.3499</v>
       </c>
       <c r="G115" t="n">
-        <v>11310.46308426</v>
+        <v>-12089.32421574</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4857,28 +4785,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C116" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D116" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E116" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F116" t="n">
-        <v>146.8301</v>
+        <v>307.228</v>
       </c>
       <c r="G116" t="n">
-        <v>11310.46308426</v>
+        <v>-12089.32421574</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4892,1476 +4821,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>623</v>
-      </c>
-      <c r="C117" t="n">
-        <v>623</v>
-      </c>
-      <c r="D117" t="n">
-        <v>623</v>
-      </c>
-      <c r="E117" t="n">
-        <v>623</v>
-      </c>
-      <c r="F117" t="n">
-        <v>993.1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12303.56308426</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>621</v>
-      </c>
-      <c r="C118" t="n">
-        <v>621</v>
-      </c>
-      <c r="D118" t="n">
-        <v>621</v>
-      </c>
-      <c r="E118" t="n">
-        <v>621</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1775.8153</v>
-      </c>
-      <c r="G118" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>621</v>
-      </c>
-      <c r="C119" t="n">
-        <v>621</v>
-      </c>
-      <c r="D119" t="n">
-        <v>621</v>
-      </c>
-      <c r="E119" t="n">
-        <v>621</v>
-      </c>
-      <c r="F119" t="n">
-        <v>193.1383</v>
-      </c>
-      <c r="G119" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>621</v>
-      </c>
-      <c r="C120" t="n">
-        <v>621</v>
-      </c>
-      <c r="D120" t="n">
-        <v>621</v>
-      </c>
-      <c r="E120" t="n">
-        <v>621</v>
-      </c>
-      <c r="F120" t="n">
-        <v>352.633</v>
-      </c>
-      <c r="G120" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>621</v>
-      </c>
-      <c r="C121" t="n">
-        <v>621</v>
-      </c>
-      <c r="D121" t="n">
-        <v>621</v>
-      </c>
-      <c r="E121" t="n">
-        <v>621</v>
-      </c>
-      <c r="F121" t="n">
-        <v>208.7739</v>
-      </c>
-      <c r="G121" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>621</v>
-      </c>
-      <c r="C122" t="n">
-        <v>621</v>
-      </c>
-      <c r="D122" t="n">
-        <v>621</v>
-      </c>
-      <c r="E122" t="n">
-        <v>621</v>
-      </c>
-      <c r="F122" t="n">
-        <v>280.7771</v>
-      </c>
-      <c r="G122" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>621</v>
-      </c>
-      <c r="C123" t="n">
-        <v>620</v>
-      </c>
-      <c r="D123" t="n">
-        <v>621</v>
-      </c>
-      <c r="E123" t="n">
-        <v>620</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2753.7253</v>
-      </c>
-      <c r="G123" t="n">
-        <v>7774.022484259996</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>627</v>
-      </c>
-      <c r="C124" t="n">
-        <v>627</v>
-      </c>
-      <c r="D124" t="n">
-        <v>627</v>
-      </c>
-      <c r="E124" t="n">
-        <v>627</v>
-      </c>
-      <c r="F124" t="n">
-        <v>30</v>
-      </c>
-      <c r="G124" t="n">
-        <v>7804.022484259996</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>620</v>
-      </c>
-      <c r="C125" t="n">
-        <v>618</v>
-      </c>
-      <c r="D125" t="n">
-        <v>620</v>
-      </c>
-      <c r="E125" t="n">
-        <v>618</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5146.1509</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2657.871584259997</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>618</v>
-      </c>
-      <c r="C126" t="n">
-        <v>618</v>
-      </c>
-      <c r="D126" t="n">
-        <v>618</v>
-      </c>
-      <c r="E126" t="n">
-        <v>618</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1112.8108</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2657.871584259997</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>616</v>
-      </c>
-      <c r="C127" t="n">
-        <v>613</v>
-      </c>
-      <c r="D127" t="n">
-        <v>616</v>
-      </c>
-      <c r="E127" t="n">
-        <v>613</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6643.4698</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-3985.598215740003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>618</v>
-      </c>
-      <c r="C128" t="n">
-        <v>618</v>
-      </c>
-      <c r="D128" t="n">
-        <v>618</v>
-      </c>
-      <c r="E128" t="n">
-        <v>618</v>
-      </c>
-      <c r="F128" t="n">
-        <v>54.7713</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-3930.826915740003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>618</v>
-      </c>
-      <c r="C129" t="n">
-        <v>614</v>
-      </c>
-      <c r="D129" t="n">
-        <v>618</v>
-      </c>
-      <c r="E129" t="n">
-        <v>614</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1338.0268</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-5268.853715740003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>618</v>
-      </c>
-      <c r="C130" t="n">
-        <v>618</v>
-      </c>
-      <c r="D130" t="n">
-        <v>618</v>
-      </c>
-      <c r="E130" t="n">
-        <v>618</v>
-      </c>
-      <c r="F130" t="n">
-        <v>550</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-4718.853715740003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>618</v>
-      </c>
-      <c r="C131" t="n">
-        <v>618</v>
-      </c>
-      <c r="D131" t="n">
-        <v>618</v>
-      </c>
-      <c r="E131" t="n">
-        <v>618</v>
-      </c>
-      <c r="F131" t="n">
-        <v>397.4228</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-4718.853715740003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>616</v>
-      </c>
-      <c r="C132" t="n">
-        <v>616</v>
-      </c>
-      <c r="D132" t="n">
-        <v>616</v>
-      </c>
-      <c r="E132" t="n">
-        <v>616</v>
-      </c>
-      <c r="F132" t="n">
-        <v>311.9202</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-5030.773915740003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>618</v>
-      </c>
-      <c r="C133" t="n">
-        <v>625</v>
-      </c>
-      <c r="D133" t="n">
-        <v>625</v>
-      </c>
-      <c r="E133" t="n">
-        <v>618</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6.3674</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-5024.406515740003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>619</v>
-      </c>
-      <c r="C134" t="n">
-        <v>619</v>
-      </c>
-      <c r="D134" t="n">
-        <v>619</v>
-      </c>
-      <c r="E134" t="n">
-        <v>619</v>
-      </c>
-      <c r="F134" t="n">
-        <v>270.6801</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-5295.086615740002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>625</v>
-      </c>
-      <c r="C135" t="n">
-        <v>625</v>
-      </c>
-      <c r="D135" t="n">
-        <v>625</v>
-      </c>
-      <c r="E135" t="n">
-        <v>625</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-5294.086615740002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>626</v>
-      </c>
-      <c r="C136" t="n">
-        <v>626</v>
-      </c>
-      <c r="D136" t="n">
-        <v>626</v>
-      </c>
-      <c r="E136" t="n">
-        <v>626</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-5293.086615740002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>625</v>
-      </c>
-      <c r="C137" t="n">
-        <v>625</v>
-      </c>
-      <c r="D137" t="n">
-        <v>625</v>
-      </c>
-      <c r="E137" t="n">
-        <v>625</v>
-      </c>
-      <c r="F137" t="n">
-        <v>234.5504</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-5527.637015740002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>618</v>
-      </c>
-      <c r="C138" t="n">
-        <v>616</v>
-      </c>
-      <c r="D138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E138" t="n">
-        <v>616</v>
-      </c>
-      <c r="F138" t="n">
-        <v>802.8390000000001</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-6330.476015740002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>615</v>
-      </c>
-      <c r="C139" t="n">
-        <v>613</v>
-      </c>
-      <c r="D139" t="n">
-        <v>615</v>
-      </c>
-      <c r="E139" t="n">
-        <v>613</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4201.0801</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-10531.55611574</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>621</v>
-      </c>
-      <c r="C140" t="n">
-        <v>621</v>
-      </c>
-      <c r="D140" t="n">
-        <v>621</v>
-      </c>
-      <c r="E140" t="n">
-        <v>621</v>
-      </c>
-      <c r="F140" t="n">
-        <v>80</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-10451.55611574</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>622</v>
-      </c>
-      <c r="C141" t="n">
-        <v>622</v>
-      </c>
-      <c r="D141" t="n">
-        <v>622</v>
-      </c>
-      <c r="E141" t="n">
-        <v>622</v>
-      </c>
-      <c r="F141" t="n">
-        <v>80</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-10371.55611574</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>621</v>
-      </c>
-      <c r="C142" t="n">
-        <v>621</v>
-      </c>
-      <c r="D142" t="n">
-        <v>621</v>
-      </c>
-      <c r="E142" t="n">
-        <v>621</v>
-      </c>
-      <c r="F142" t="n">
-        <v>779</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-11150.55611574</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>616</v>
-      </c>
-      <c r="C143" t="n">
-        <v>621</v>
-      </c>
-      <c r="D143" t="n">
-        <v>621</v>
-      </c>
-      <c r="E143" t="n">
-        <v>616</v>
-      </c>
-      <c r="F143" t="n">
-        <v>204.3468</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-11150.55611574</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>618</v>
-      </c>
-      <c r="C144" t="n">
-        <v>618</v>
-      </c>
-      <c r="D144" t="n">
-        <v>618</v>
-      </c>
-      <c r="E144" t="n">
-        <v>618</v>
-      </c>
-      <c r="F144" t="n">
-        <v>103.9753</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-11254.53141574</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>620</v>
-      </c>
-      <c r="C145" t="n">
-        <v>620</v>
-      </c>
-      <c r="D145" t="n">
-        <v>620</v>
-      </c>
-      <c r="E145" t="n">
-        <v>620</v>
-      </c>
-      <c r="F145" t="n">
-        <v>657.3538</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-10597.17761574</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>621</v>
-      </c>
-      <c r="C146" t="n">
-        <v>622</v>
-      </c>
-      <c r="D146" t="n">
-        <v>622</v>
-      </c>
-      <c r="E146" t="n">
-        <v>621</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2490.4474</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-8106.730215740002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>624</v>
-      </c>
-      <c r="C147" t="n">
-        <v>624</v>
-      </c>
-      <c r="D147" t="n">
-        <v>624</v>
-      </c>
-      <c r="E147" t="n">
-        <v>624</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>624</v>
-      </c>
-      <c r="C148" t="n">
-        <v>624</v>
-      </c>
-      <c r="D148" t="n">
-        <v>624</v>
-      </c>
-      <c r="E148" t="n">
-        <v>624</v>
-      </c>
-      <c r="F148" t="n">
-        <v>79</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>624</v>
-      </c>
-      <c r="C149" t="n">
-        <v>624</v>
-      </c>
-      <c r="D149" t="n">
-        <v>624</v>
-      </c>
-      <c r="E149" t="n">
-        <v>624</v>
-      </c>
-      <c r="F149" t="n">
-        <v>264.1907</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>621</v>
-      </c>
-      <c r="C150" t="n">
-        <v>621</v>
-      </c>
-      <c r="D150" t="n">
-        <v>621</v>
-      </c>
-      <c r="E150" t="n">
-        <v>621</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1741.0161</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-9846.746315740002</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>624</v>
-      </c>
-      <c r="C151" t="n">
-        <v>624</v>
-      </c>
-      <c r="D151" t="n">
-        <v>624</v>
-      </c>
-      <c r="E151" t="n">
-        <v>624</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-9845.746315740002</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>626</v>
-      </c>
-      <c r="C152" t="n">
-        <v>626</v>
-      </c>
-      <c r="D152" t="n">
-        <v>626</v>
-      </c>
-      <c r="E152" t="n">
-        <v>626</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-9844.746315740002</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>620</v>
-      </c>
-      <c r="C153" t="n">
-        <v>620</v>
-      </c>
-      <c r="D153" t="n">
-        <v>620</v>
-      </c>
-      <c r="E153" t="n">
-        <v>620</v>
-      </c>
-      <c r="F153" t="n">
-        <v>246.5779</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-10091.32421574</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>619</v>
-      </c>
-      <c r="C154" t="n">
-        <v>613</v>
-      </c>
-      <c r="D154" t="n">
-        <v>619</v>
-      </c>
-      <c r="E154" t="n">
-        <v>613</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-12091.32421574</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>617</v>
-      </c>
-      <c r="C155" t="n">
-        <v>623</v>
-      </c>
-      <c r="D155" t="n">
-        <v>623</v>
-      </c>
-      <c r="E155" t="n">
-        <v>617</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>613</v>
-      </c>
-      <c r="C156" t="n">
-        <v>623</v>
-      </c>
-      <c r="D156" t="n">
-        <v>623</v>
-      </c>
-      <c r="E156" t="n">
-        <v>613</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>623</v>
-      </c>
-      <c r="C157" t="n">
-        <v>623</v>
-      </c>
-      <c r="D157" t="n">
-        <v>623</v>
-      </c>
-      <c r="E157" t="n">
-        <v>623</v>
-      </c>
-      <c r="F157" t="n">
-        <v>16.3499</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>623</v>
-      </c>
-      <c r="C158" t="n">
-        <v>623</v>
-      </c>
-      <c r="D158" t="n">
-        <v>623</v>
-      </c>
-      <c r="E158" t="n">
-        <v>623</v>
-      </c>
-      <c r="F158" t="n">
-        <v>307.228</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="C2" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="D2" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="E2" t="n">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>888.2221</v>
       </c>
       <c r="G2" t="n">
-        <v>-17142.09909755</v>
+        <v>-17881.9958</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="C3" t="n">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D3" t="n">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="E3" t="n">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F3" t="n">
-        <v>1249.9732</v>
+        <v>104.8608</v>
       </c>
       <c r="G3" t="n">
-        <v>-18392.07229755</v>
+        <v>-17881.9958</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,14 +498,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>614</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="K3" t="n">
+        <v>591</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="C4" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="D4" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="E4" t="n">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="F4" t="n">
-        <v>11.4315</v>
+        <v>64.551</v>
       </c>
       <c r="G4" t="n">
-        <v>-18380.64079755</v>
+        <v>-17946.5468</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,12 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>609</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="K4" t="n">
+        <v>591</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="D5" t="n">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="E5" t="n">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="F5" t="n">
-        <v>169.18</v>
+        <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>-18549.82079755</v>
+        <v>-17945.2468</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,12 +582,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>614</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>588</v>
+      </c>
+      <c r="K5" t="n">
+        <v>591</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -600,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C6" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="D6" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="E6" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F6" t="n">
-        <v>1692.2642</v>
+        <v>661.4457</v>
       </c>
       <c r="G6" t="n">
-        <v>-16857.55659755</v>
+        <v>-18606.6925</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -624,14 +626,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>610</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="K6" t="n">
+        <v>592</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C7" t="n">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="D7" t="n">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="E7" t="n">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F7" t="n">
-        <v>1007.0032</v>
+        <v>6.32</v>
       </c>
       <c r="G7" t="n">
-        <v>-16857.55659755</v>
+        <v>-18600.3725</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -666,12 +666,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>613</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>589</v>
+      </c>
+      <c r="K7" t="n">
+        <v>592</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -684,33 +686,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C8" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="D8" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="E8" t="n">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6091</v>
+        <v>986.8326</v>
       </c>
       <c r="G8" t="n">
-        <v>-16855.94749755</v>
+        <v>-18600.3725</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>613</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>592</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -726,33 +728,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="C9" t="n">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="D9" t="n">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="E9" t="n">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F9" t="n">
-        <v>2164.5773</v>
+        <v>842.3781</v>
       </c>
       <c r="G9" t="n">
-        <v>-19020.52479755</v>
+        <v>-17757.9944</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>614</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>592</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -768,33 +770,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="C10" t="n">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="D10" t="n">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="E10" t="n">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2.4359</v>
       </c>
       <c r="G10" t="n">
-        <v>-19019.52479755</v>
+        <v>-17757.9944</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>609</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>592</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -810,22 +812,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="C11" t="n">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="D11" t="n">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="E11" t="n">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="F11" t="n">
-        <v>162.33766233</v>
+        <v>1.1891</v>
       </c>
       <c r="G11" t="n">
-        <v>-19181.86245988</v>
+        <v>-17759.1835</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -834,7 +836,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>592</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -850,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="C12" t="n">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="D12" t="n">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="E12" t="n">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="F12" t="n">
-        <v>162.44836207</v>
+        <v>1.3067</v>
       </c>
       <c r="G12" t="n">
-        <v>-19019.41409781</v>
+        <v>-17757.8768</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -874,7 +878,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>592</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -890,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="C13" t="n">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="D13" t="n">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="E13" t="n">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F13" t="n">
-        <v>1088.71813793</v>
+        <v>3551.03166666</v>
       </c>
       <c r="G13" t="n">
-        <v>-19019.41409781</v>
+        <v>-14206.84513334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -914,7 +920,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>592</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -930,22 +938,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="C14" t="n">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="D14" t="n">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="E14" t="n">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="F14" t="n">
-        <v>13361.6126</v>
+        <v>5815.07243301</v>
       </c>
       <c r="G14" t="n">
-        <v>-5657.80149781</v>
+        <v>-20021.91756635</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -954,7 +962,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>592</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -970,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="C15" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="D15" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E15" t="n">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="F15" t="n">
-        <v>9374.352999999999</v>
+        <v>5549.9822</v>
       </c>
       <c r="G15" t="n">
-        <v>3716.551502189999</v>
+        <v>-14471.93536635</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -994,7 +1004,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>592</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1010,22 +1022,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="C16" t="n">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="D16" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E16" t="n">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="F16" t="n">
-        <v>710.9999</v>
+        <v>987.5</v>
       </c>
       <c r="G16" t="n">
-        <v>4427.551402189999</v>
+        <v>-15459.43536635</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1034,7 +1046,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>592</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1050,22 +1064,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="C17" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="D17" t="n">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="E17" t="n">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="F17" t="n">
-        <v>3456.27970432</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>7883.831106509999</v>
+        <v>-15458.43536635</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1074,7 +1088,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>592</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1090,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="C18" t="n">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="D18" t="n">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="E18" t="n">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="F18" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="G18" t="n">
-        <v>4883.831106509999</v>
+        <v>-15058.43536635</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1114,7 +1130,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>592</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1130,22 +1148,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="C19" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="D19" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="E19" t="n">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="F19" t="n">
-        <v>12.4777</v>
+        <v>2783.5191</v>
       </c>
       <c r="G19" t="n">
-        <v>4896.308806509999</v>
+        <v>-17841.95446635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1154,7 +1172,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>592</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,22 +1190,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="C20" t="n">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="D20" t="n">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="E20" t="n">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="F20" t="n">
-        <v>1309.76279568</v>
+        <v>8.2918</v>
       </c>
       <c r="G20" t="n">
-        <v>6206.071602189999</v>
+        <v>-17841.95446635</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1194,7 +1214,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>592</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,22 +1232,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="C21" t="n">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="D21" t="n">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="E21" t="n">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F21" t="n">
-        <v>3565.08960432</v>
+        <v>216.2811</v>
       </c>
       <c r="G21" t="n">
-        <v>9771.161206509998</v>
+        <v>-18058.23556635</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1234,7 +1256,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>592</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1250,22 +1274,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="C22" t="n">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="D22" t="n">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="E22" t="n">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>477.7236</v>
       </c>
       <c r="G22" t="n">
-        <v>9770.161206509998</v>
+        <v>-18535.95916635</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1274,7 +1298,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>592</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1290,22 +1316,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="C23" t="n">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="D23" t="n">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="E23" t="n">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="F23" t="n">
-        <v>6833.0464</v>
+        <v>791.0152</v>
       </c>
       <c r="G23" t="n">
-        <v>2937.114806509998</v>
+        <v>-19326.97436635</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1314,7 +1340,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>592</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1330,22 +1358,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C24" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="D24" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="E24" t="n">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>166.6667</v>
       </c>
       <c r="G24" t="n">
-        <v>2937.114806509998</v>
+        <v>-19493.64106635</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1354,7 +1382,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>592</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1370,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C25" t="n">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="D25" t="n">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="E25" t="n">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="F25" t="n">
-        <v>982.7028</v>
+        <v>382.3078</v>
       </c>
       <c r="G25" t="n">
-        <v>3919.817606509998</v>
+        <v>-19111.33326635</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1394,7 +1424,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>592</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1410,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C26" t="n">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="D26" t="n">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="E26" t="n">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="F26" t="n">
-        <v>418.0065</v>
+        <v>5106.2491</v>
       </c>
       <c r="G26" t="n">
-        <v>3501.811106509998</v>
+        <v>-19111.33326635</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1434,7 +1466,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>592</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1450,22 +1484,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="C27" t="n">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="D27" t="n">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="E27" t="n">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="F27" t="n">
-        <v>745.4299999999999</v>
+        <v>957.5103</v>
       </c>
       <c r="G27" t="n">
-        <v>4247.241106509998</v>
+        <v>-19111.33326635</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1474,7 +1508,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>592</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,22 +1526,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C28" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="D28" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="E28" t="n">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F28" t="n">
-        <v>1690.8313</v>
+        <v>241.5948</v>
       </c>
       <c r="G28" t="n">
-        <v>2556.409806509998</v>
+        <v>-18869.73846635001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1514,7 +1550,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>592</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1530,22 +1568,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="C29" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="D29" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="E29" t="n">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="F29" t="n">
-        <v>213</v>
+        <v>8000</v>
       </c>
       <c r="G29" t="n">
-        <v>2556.409806509998</v>
+        <v>-18869.73846635001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1554,7 +1592,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>592</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C30" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D30" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="E30" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F30" t="n">
-        <v>2642.0168</v>
+        <v>636.7092</v>
       </c>
       <c r="G30" t="n">
-        <v>-85.60699349000197</v>
+        <v>-18233.02926635</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1594,7 +1634,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>592</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1610,22 +1652,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="C31" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D31" t="n">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="E31" t="n">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F31" t="n">
-        <v>266.5727</v>
+        <v>879.2232</v>
       </c>
       <c r="G31" t="n">
-        <v>-85.60699349000197</v>
+        <v>-17353.80606635</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1634,7 +1676,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>592</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1650,22 +1694,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C32" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="D32" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="E32" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-84.60699349000197</v>
+        <v>-16353.80606635</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1674,7 +1718,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>592</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,22 +1736,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="C33" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D33" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E33" t="n">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="F33" t="n">
-        <v>25.9734</v>
+        <v>4863.8371</v>
       </c>
       <c r="G33" t="n">
-        <v>-84.60699349000197</v>
+        <v>-11489.96896635</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1714,7 +1760,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>592</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C34" t="n">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="D34" t="n">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="E34" t="n">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F34" t="n">
-        <v>604.0232999999999</v>
+        <v>4871.8635</v>
       </c>
       <c r="G34" t="n">
-        <v>-84.60699349000197</v>
+        <v>-6618.105466350003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1754,7 +1802,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>592</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1770,22 +1820,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C35" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D35" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E35" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>7723.2686688</v>
       </c>
       <c r="G35" t="n">
-        <v>-85.60699349000197</v>
+        <v>1105.163202449998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1794,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>592</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1810,22 +1862,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C36" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D36" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E36" t="n">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>480</v>
       </c>
       <c r="G36" t="n">
-        <v>-84.60699349000197</v>
+        <v>1585.163202449998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1834,7 +1886,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>592</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,22 +1904,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C37" t="n">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D37" t="n">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E37" t="n">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F37" t="n">
-        <v>93</v>
+        <v>9267.550999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-177.606993490002</v>
+        <v>-7682.387797550002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1874,7 +1928,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>592</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1890,7 +1946,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C38" t="n">
         <v>620</v>
@@ -1899,13 +1955,13 @@
         <v>620</v>
       </c>
       <c r="E38" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F38" t="n">
-        <v>1074.8532</v>
+        <v>368.5895</v>
       </c>
       <c r="G38" t="n">
-        <v>897.246206509998</v>
+        <v>-7313.798297550002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1914,7 +1970,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>592</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C39" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D39" t="n">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E39" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F39" t="n">
-        <v>1964.1375</v>
+        <v>2940.8307</v>
       </c>
       <c r="G39" t="n">
-        <v>897.246206509998</v>
+        <v>-10254.62899755</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1954,7 +2012,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>592</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,22 +2030,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C40" t="n">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D40" t="n">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E40" t="n">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F40" t="n">
-        <v>165.4695</v>
+        <v>205.8594</v>
       </c>
       <c r="G40" t="n">
-        <v>897.246206509998</v>
+        <v>-10048.76959755</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1994,7 +2054,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>592</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,22 +2072,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C41" t="n">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D41" t="n">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E41" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F41" t="n">
-        <v>5.52</v>
+        <v>4395.1777</v>
       </c>
       <c r="G41" t="n">
-        <v>902.766206509998</v>
+        <v>-5653.591897550003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2034,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>592</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,22 +2114,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C42" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D42" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E42" t="n">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F42" t="n">
-        <v>1358.1474</v>
+        <v>542.7951</v>
       </c>
       <c r="G42" t="n">
-        <v>2260.913606509998</v>
+        <v>-6196.386997550003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2074,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>592</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,22 +2156,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C43" t="n">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D43" t="n">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="E43" t="n">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F43" t="n">
-        <v>596.0265000000001</v>
+        <v>1410.524</v>
       </c>
       <c r="G43" t="n">
-        <v>2856.940106509998</v>
+        <v>-6196.386997550003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2114,7 +2180,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>592</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2130,22 +2198,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C44" t="n">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="D44" t="n">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E44" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F44" t="n">
-        <v>14.5477</v>
+        <v>911.4381</v>
       </c>
       <c r="G44" t="n">
-        <v>2856.940106509998</v>
+        <v>-7107.825097550003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2154,7 +2222,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>592</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C45" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D45" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E45" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="F45" t="n">
-        <v>241.5464</v>
+        <v>5460.2638</v>
       </c>
       <c r="G45" t="n">
-        <v>2856.940106509998</v>
+        <v>-1647.561297550003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2194,7 +2264,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>592</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,22 +2282,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C46" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D46" t="n">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E46" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F46" t="n">
-        <v>638</v>
+        <v>1308.7305</v>
       </c>
       <c r="G46" t="n">
-        <v>2218.940106509998</v>
+        <v>-1647.561297550003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2234,7 +2306,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>592</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,22 +2324,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C47" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D47" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E47" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F47" t="n">
-        <v>1643.0964</v>
+        <v>1644.7902</v>
       </c>
       <c r="G47" t="n">
-        <v>575.8437065099984</v>
+        <v>-3292.351497550003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2274,7 +2348,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>592</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,22 +2366,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C48" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="D48" t="n">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E48" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F48" t="n">
-        <v>273.6</v>
+        <v>4958.4019</v>
       </c>
       <c r="G48" t="n">
-        <v>849.4437065099984</v>
+        <v>-3292.351497550003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2314,7 +2390,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>592</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,22 +2408,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C49" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D49" t="n">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="E49" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F49" t="n">
-        <v>4924.7592</v>
+        <v>764.0832</v>
       </c>
       <c r="G49" t="n">
-        <v>5774.202906509999</v>
+        <v>-4056.434697550003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2354,7 +2432,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>592</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,22 +2450,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C50" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D50" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E50" t="n">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="F50" t="n">
-        <v>980.28730158</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>6754.490208089998</v>
+        <v>-3056.434697550003</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2394,7 +2474,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>592</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,22 +2492,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C51" t="n">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="D51" t="n">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E51" t="n">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="F51" t="n">
-        <v>589.1269984199999</v>
+        <v>1010.2121</v>
       </c>
       <c r="G51" t="n">
-        <v>6754.490208089998</v>
+        <v>-2046.222597550003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2434,7 +2516,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>592</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,22 +2534,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="C52" t="n">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="D52" t="n">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="E52" t="n">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F52" t="n">
-        <v>240.9999</v>
+        <v>226.0349</v>
       </c>
       <c r="G52" t="n">
-        <v>6995.490108089998</v>
+        <v>-2272.257497550003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2474,7 +2558,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>592</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="C53" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D53" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E53" t="n">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="F53" t="n">
-        <v>684</v>
+        <v>327.5878</v>
       </c>
       <c r="G53" t="n">
-        <v>6311.490108089998</v>
+        <v>-2599.845297550003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2514,7 +2600,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>592</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2530,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="C54" t="n">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="D54" t="n">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="E54" t="n">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="F54" t="n">
-        <v>1709.8108</v>
+        <v>5278.8949</v>
       </c>
       <c r="G54" t="n">
-        <v>8021.300908089998</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2554,7 +2642,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>592</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,22 +2660,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="C55" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D55" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E55" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="F55" t="n">
-        <v>804.8511999999999</v>
+        <v>1087.8032</v>
       </c>
       <c r="G55" t="n">
-        <v>8826.152108089998</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2594,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>592</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2610,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="C56" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D56" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E56" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="F56" t="n">
-        <v>1090.3212</v>
+        <v>3850.0767</v>
       </c>
       <c r="G56" t="n">
-        <v>8826.152108089998</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2634,7 +2726,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>592</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="C57" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D57" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="E57" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="F57" t="n">
-        <v>605.5561</v>
+        <v>1927.9356</v>
       </c>
       <c r="G57" t="n">
-        <v>8826.152108089998</v>
+        <v>-7878.740197550003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2674,7 +2768,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>592</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2690,22 +2786,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="C58" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="D58" t="n">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="E58" t="n">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="F58" t="n">
-        <v>157.90780484</v>
+        <v>3934.0252</v>
       </c>
       <c r="G58" t="n">
-        <v>8984.059912929999</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2714,7 +2810,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>592</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2730,22 +2828,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="C59" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="D59" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E59" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="F59" t="n">
-        <v>301.348</v>
+        <v>1400</v>
       </c>
       <c r="G59" t="n">
-        <v>8984.059912929999</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2754,7 +2852,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>592</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,22 +2870,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="C60" t="n">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="D60" t="n">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="E60" t="n">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="F60" t="n">
-        <v>5159.0485</v>
+        <v>2309.7329</v>
       </c>
       <c r="G60" t="n">
-        <v>14143.10841293</v>
+        <v>-11812.76539755</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2794,7 +2894,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>592</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,37 +2912,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="C61" t="n">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="D61" t="n">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="E61" t="n">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="F61" t="n">
-        <v>208.18</v>
+        <v>6718.361</v>
       </c>
       <c r="G61" t="n">
-        <v>13934.92841293</v>
+        <v>-18531.12639755</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>592</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
       <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2848,32 +2954,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C62" t="n">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="D62" t="n">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="E62" t="n">
-        <v>627</v>
+        <v>608</v>
       </c>
       <c r="F62" t="n">
-        <v>1097.14</v>
+        <v>493.421</v>
       </c>
       <c r="G62" t="n">
-        <v>12837.78841293</v>
+        <v>-18037.70539755001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>592</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2884,32 +2996,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C63" t="n">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="D63" t="n">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="E63" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="F63" t="n">
-        <v>159.25347133</v>
+        <v>4138.9757</v>
       </c>
       <c r="G63" t="n">
-        <v>12997.04188426</v>
+        <v>-22176.68109755</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>592</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2920,32 +3038,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="C64" t="n">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="D64" t="n">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="E64" t="n">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="F64" t="n">
-        <v>1382.799</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>12997.04188426</v>
+        <v>-22175.68109755</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>592</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2956,32 +3080,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C65" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D65" t="n">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="E65" t="n">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="F65" t="n">
-        <v>977.8366</v>
+        <v>4881.4582</v>
       </c>
       <c r="G65" t="n">
-        <v>12019.20528426</v>
+        <v>-17294.22289755</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>592</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2992,32 +3122,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C66" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="D66" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="E66" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="F66" t="n">
-        <v>159.2535</v>
+        <v>70.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>12019.20528426</v>
+        <v>-17365.22279755</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>592</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3028,32 +3164,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="C67" t="n">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="D67" t="n">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="E67" t="n">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>12020.20528426</v>
+        <v>-17364.22279755</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>592</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3064,32 +3206,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="C68" t="n">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D68" t="n">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E68" t="n">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="F68" t="n">
-        <v>809.6213</v>
+        <v>869.4018</v>
       </c>
       <c r="G68" t="n">
-        <v>11210.58398426</v>
+        <v>-18233.62459755</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>592</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3100,32 +3248,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C69" t="n">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="D69" t="n">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="E69" t="n">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="F69" t="n">
-        <v>253.5353</v>
+        <v>1676.2802</v>
       </c>
       <c r="G69" t="n">
-        <v>11464.11928426</v>
+        <v>-18233.62459755</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>592</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3136,32 +3290,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="C70" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="D70" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="E70" t="n">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="F70" t="n">
-        <v>69.9576</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>11464.11928426</v>
+        <v>-18223.62459755</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>592</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3172,32 +3332,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="C71" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="D71" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="E71" t="n">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="F71" t="n">
-        <v>385</v>
+        <v>946.3615</v>
       </c>
       <c r="G71" t="n">
-        <v>11464.11928426</v>
+        <v>-19169.98609755</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>592</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3208,32 +3374,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="C72" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D72" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="E72" t="n">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F72" t="n">
-        <v>67.9999</v>
+        <v>2026.887</v>
       </c>
       <c r="G72" t="n">
-        <v>11396.11938426</v>
+        <v>-17143.09909755</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>592</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3244,32 +3416,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C73" t="n">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D73" t="n">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E73" t="n">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F73" t="n">
-        <v>85.6563</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>11310.46308426</v>
+        <v>-17142.09909755</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>592</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3280,32 +3458,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C74" t="n">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D74" t="n">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E74" t="n">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F74" t="n">
-        <v>146.8301</v>
+        <v>1249.9732</v>
       </c>
       <c r="G74" t="n">
-        <v>11310.46308426</v>
+        <v>-18392.07229755</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>592</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3316,32 +3500,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C75" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D75" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="E75" t="n">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F75" t="n">
-        <v>993.1</v>
+        <v>11.4315</v>
       </c>
       <c r="G75" t="n">
-        <v>12303.56308426</v>
+        <v>-18380.64079755</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>592</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3352,32 +3542,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C76" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D76" t="n">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E76" t="n">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F76" t="n">
-        <v>1775.8153</v>
+        <v>169.18</v>
       </c>
       <c r="G76" t="n">
-        <v>10527.74778426</v>
+        <v>-18549.82079755</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>592</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3388,32 +3584,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C77" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D77" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E77" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F77" t="n">
-        <v>193.1383</v>
+        <v>1692.2642</v>
       </c>
       <c r="G77" t="n">
-        <v>10527.74778426</v>
+        <v>-16857.55659755</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>592</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3424,22 +3626,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="C78" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D78" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E78" t="n">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F78" t="n">
-        <v>352.633</v>
+        <v>1007.0032</v>
       </c>
       <c r="G78" t="n">
-        <v>10527.74778426</v>
+        <v>-16857.55659755</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3448,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>592</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3460,32 +3668,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C79" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D79" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E79" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F79" t="n">
-        <v>208.7739</v>
+        <v>1.6091</v>
       </c>
       <c r="G79" t="n">
-        <v>10527.74778426</v>
+        <v>-16855.94749755</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>592</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3710,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C80" t="n">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D80" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E80" t="n">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F80" t="n">
-        <v>280.7771</v>
+        <v>2164.5773</v>
       </c>
       <c r="G80" t="n">
-        <v>10527.74778426</v>
+        <v>-19020.52479755</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3520,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>592</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3752,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C81" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D81" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E81" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F81" t="n">
-        <v>2753.7253</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>7774.022484259996</v>
+        <v>-19019.52479755</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3556,8 +3776,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>592</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3794,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C82" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D82" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E82" t="n">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>162.33766233</v>
       </c>
       <c r="G82" t="n">
-        <v>7804.022484259996</v>
+        <v>-19181.86245988</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3592,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>592</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3836,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C83" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D83" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E83" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F83" t="n">
-        <v>5146.1509</v>
+        <v>162.44836207</v>
       </c>
       <c r="G83" t="n">
-        <v>2657.871584259997</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>592</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3640,22 +3878,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C84" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D84" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E84" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F84" t="n">
-        <v>1112.8108</v>
+        <v>1088.71813793</v>
       </c>
       <c r="G84" t="n">
-        <v>2657.871584259997</v>
+        <v>-19019.41409781</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3664,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>592</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3920,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C85" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D85" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E85" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F85" t="n">
-        <v>6643.4698</v>
+        <v>13361.6126</v>
       </c>
       <c r="G85" t="n">
-        <v>-3985.598215740003</v>
+        <v>-5657.80149781</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3700,8 +3944,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>592</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3712,22 +3962,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C86" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D86" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E86" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F86" t="n">
-        <v>54.7713</v>
+        <v>9374.352999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-3930.826915740003</v>
+        <v>3716.551502189999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3736,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>592</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +4004,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C87" t="n">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D87" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E87" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="F87" t="n">
-        <v>1338.0268</v>
+        <v>710.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>-5268.853715740003</v>
+        <v>4427.551402189999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3772,8 +4028,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>592</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3784,22 +4046,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C88" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D88" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="E88" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F88" t="n">
-        <v>550</v>
+        <v>3456.27970432</v>
       </c>
       <c r="G88" t="n">
-        <v>-4718.853715740003</v>
+        <v>7883.831106509999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3808,8 +4070,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>592</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +4088,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C89" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D89" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E89" t="n">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F89" t="n">
-        <v>397.4228</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>-4718.853715740003</v>
+        <v>4883.831106509999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3844,8 +4112,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>592</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +4130,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C90" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="D90" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E90" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F90" t="n">
-        <v>311.9202</v>
+        <v>12.4777</v>
       </c>
       <c r="G90" t="n">
-        <v>-5030.773915740003</v>
+        <v>4896.308806509999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3880,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>592</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3892,22 +4172,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C91" t="n">
+        <v>630</v>
+      </c>
+      <c r="D91" t="n">
+        <v>630</v>
+      </c>
+      <c r="E91" t="n">
         <v>625</v>
       </c>
-      <c r="D91" t="n">
-        <v>625</v>
-      </c>
-      <c r="E91" t="n">
-        <v>618</v>
-      </c>
       <c r="F91" t="n">
-        <v>6.3674</v>
+        <v>1309.76279568</v>
       </c>
       <c r="G91" t="n">
-        <v>-5024.406515740003</v>
+        <v>6206.071602189999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3916,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>592</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +4214,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C92" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="D92" t="n">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="E92" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F92" t="n">
-        <v>270.6801</v>
+        <v>3565.08960432</v>
       </c>
       <c r="G92" t="n">
-        <v>-5295.086615740002</v>
+        <v>9771.161206509998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3952,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>592</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3964,22 +4256,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C93" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D93" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E93" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-5294.086615740002</v>
+        <v>9770.161206509998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3988,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>592</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +4298,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C94" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D94" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E94" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>6833.0464</v>
       </c>
       <c r="G94" t="n">
-        <v>-5293.086615740002</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4024,8 +4322,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>592</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +4340,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C95" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D95" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E95" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F95" t="n">
-        <v>234.5504</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>-5527.637015740002</v>
+        <v>2937.114806509998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4060,8 +4364,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>592</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +4382,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C96" t="n">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="D96" t="n">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="E96" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F96" t="n">
-        <v>802.8390000000001</v>
+        <v>982.7028</v>
       </c>
       <c r="G96" t="n">
-        <v>-6330.476015740002</v>
+        <v>3919.817606509998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4096,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>592</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4424,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C97" t="n">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D97" t="n">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E97" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F97" t="n">
-        <v>4201.0801</v>
+        <v>418.0065</v>
       </c>
       <c r="G97" t="n">
-        <v>-10531.55611574</v>
+        <v>3501.811106509998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4132,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>592</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4466,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C98" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D98" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E98" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F98" t="n">
-        <v>80</v>
+        <v>745.4299999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-10451.55611574</v>
+        <v>4247.241106509998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4168,8 +4490,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>592</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4180,22 +4508,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C99" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D99" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E99" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F99" t="n">
-        <v>80</v>
+        <v>1690.8313</v>
       </c>
       <c r="G99" t="n">
-        <v>-10371.55611574</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4204,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>592</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4550,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C100" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D100" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E100" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F100" t="n">
-        <v>779</v>
+        <v>213</v>
       </c>
       <c r="G100" t="n">
-        <v>-11150.55611574</v>
+        <v>2556.409806509998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4240,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>592</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C101" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D101" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E101" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F101" t="n">
-        <v>204.3468</v>
+        <v>2642.0168</v>
       </c>
       <c r="G101" t="n">
-        <v>-11150.55611574</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4276,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>592</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +4634,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C102" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D102" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E102" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F102" t="n">
-        <v>103.9753</v>
+        <v>266.5727</v>
       </c>
       <c r="G102" t="n">
-        <v>-11254.53141574</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4312,8 +4658,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>592</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4676,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C103" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D103" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E103" t="n">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F103" t="n">
-        <v>657.3538</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>-10597.17761574</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4348,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>592</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4360,22 +4718,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C104" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D104" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E104" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F104" t="n">
-        <v>2490.4474</v>
+        <v>25.9734</v>
       </c>
       <c r="G104" t="n">
-        <v>-8106.730215740002</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4384,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>592</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4396,7 +4760,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C105" t="n">
         <v>624</v>
@@ -4405,13 +4769,13 @@
         <v>624</v>
       </c>
       <c r="E105" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>604.0232999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-8105.730215740002</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4420,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>592</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4432,22 +4802,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F106" t="n">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-8105.730215740002</v>
+        <v>-85.60699349000197</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4456,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>592</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4480,10 +4856,10 @@
         <v>624</v>
       </c>
       <c r="F107" t="n">
-        <v>264.1907</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-8105.730215740002</v>
+        <v>-84.60699349000197</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4492,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>592</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4504,22 +4886,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C108" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D108" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E108" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F108" t="n">
-        <v>1741.0161</v>
+        <v>93</v>
       </c>
       <c r="G108" t="n">
-        <v>-9846.746315740002</v>
+        <v>-177.606993490002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4528,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>592</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4540,22 +4928,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C109" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D109" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E109" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>1074.8532</v>
       </c>
       <c r="G109" t="n">
-        <v>-9845.746315740002</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4564,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>592</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4970,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C110" t="n">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D110" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E110" t="n">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>1964.1375</v>
       </c>
       <c r="G110" t="n">
-        <v>-9844.746315740002</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4600,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>592</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4624,10 +5024,10 @@
         <v>620</v>
       </c>
       <c r="F111" t="n">
-        <v>246.5779</v>
+        <v>165.4695</v>
       </c>
       <c r="G111" t="n">
-        <v>-10091.32421574</v>
+        <v>897.246206509998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4636,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>592</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4651,19 +5057,19 @@
         <v>619</v>
       </c>
       <c r="C112" t="n">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D112" t="n">
+        <v>624</v>
+      </c>
+      <c r="E112" t="n">
         <v>619</v>
       </c>
-      <c r="E112" t="n">
-        <v>613</v>
-      </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>5.52</v>
       </c>
       <c r="G112" t="n">
-        <v>-12091.32421574</v>
+        <v>902.766206509998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4672,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>592</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +5096,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C113" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D113" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E113" t="n">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>1358.1474</v>
       </c>
       <c r="G113" t="n">
-        <v>-12089.32421574</v>
+        <v>2260.913606509998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4708,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>592</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +5138,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="C114" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D114" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E114" t="n">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>596.0265000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-12089.32421574</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4744,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>592</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +5180,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C115" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D115" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="E115" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F115" t="n">
-        <v>16.3499</v>
+        <v>14.5477</v>
       </c>
       <c r="G115" t="n">
-        <v>-12089.32421574</v>
+        <v>2856.940106509998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4780,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>592</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4792,36 +5222,2630 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>627</v>
+      </c>
+      <c r="C116" t="n">
+        <v>627</v>
+      </c>
+      <c r="D116" t="n">
+        <v>627</v>
+      </c>
+      <c r="E116" t="n">
+        <v>627</v>
+      </c>
+      <c r="F116" t="n">
+        <v>241.5464</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2856.940106509998</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>592</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>619</v>
+      </c>
+      <c r="C117" t="n">
+        <v>621</v>
+      </c>
+      <c r="D117" t="n">
+        <v>621</v>
+      </c>
+      <c r="E117" t="n">
+        <v>619</v>
+      </c>
+      <c r="F117" t="n">
+        <v>638</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2218.940106509998</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>592</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>619</v>
+      </c>
+      <c r="C118" t="n">
+        <v>618</v>
+      </c>
+      <c r="D118" t="n">
+        <v>619</v>
+      </c>
+      <c r="E118" t="n">
+        <v>618</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1643.0964</v>
+      </c>
+      <c r="G118" t="n">
+        <v>575.8437065099984</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>592</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>619</v>
+      </c>
+      <c r="C119" t="n">
+        <v>624</v>
+      </c>
+      <c r="D119" t="n">
+        <v>624</v>
+      </c>
+      <c r="E119" t="n">
+        <v>619</v>
+      </c>
+      <c r="F119" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="G119" t="n">
+        <v>849.4437065099984</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>592</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>624</v>
+      </c>
+      <c r="C120" t="n">
+        <v>629</v>
+      </c>
+      <c r="D120" t="n">
+        <v>629</v>
+      </c>
+      <c r="E120" t="n">
+        <v>619</v>
+      </c>
+      <c r="F120" t="n">
+        <v>4924.7592</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5774.202906509999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>592</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>629</v>
+      </c>
+      <c r="C121" t="n">
+        <v>630</v>
+      </c>
+      <c r="D121" t="n">
+        <v>630</v>
+      </c>
+      <c r="E121" t="n">
+        <v>629</v>
+      </c>
+      <c r="F121" t="n">
+        <v>980.28730158</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6754.490208089998</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>592</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1.059189189189189</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.006802721088435</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>630</v>
+      </c>
+      <c r="C122" t="n">
+        <v>630</v>
+      </c>
+      <c r="D122" t="n">
+        <v>630</v>
+      </c>
+      <c r="E122" t="n">
+        <v>630</v>
+      </c>
+      <c r="F122" t="n">
+        <v>589.1269984199999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6754.490208089998</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>631</v>
+      </c>
+      <c r="C123" t="n">
+        <v>631</v>
+      </c>
+      <c r="D123" t="n">
+        <v>631</v>
+      </c>
+      <c r="E123" t="n">
+        <v>631</v>
+      </c>
+      <c r="F123" t="n">
+        <v>240.9999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6995.490108089998</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>630</v>
+      </c>
+      <c r="C124" t="n">
+        <v>630</v>
+      </c>
+      <c r="D124" t="n">
+        <v>630</v>
+      </c>
+      <c r="E124" t="n">
+        <v>624</v>
+      </c>
+      <c r="F124" t="n">
+        <v>684</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6311.490108089998</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>631</v>
+      </c>
+      <c r="C125" t="n">
+        <v>631</v>
+      </c>
+      <c r="D125" t="n">
+        <v>631</v>
+      </c>
+      <c r="E125" t="n">
+        <v>631</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1709.8108</v>
+      </c>
+      <c r="G125" t="n">
+        <v>8021.300908089998</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>632</v>
+      </c>
+      <c r="C126" t="n">
+        <v>632</v>
+      </c>
+      <c r="D126" t="n">
+        <v>632</v>
+      </c>
+      <c r="E126" t="n">
+        <v>632</v>
+      </c>
+      <c r="F126" t="n">
+        <v>804.8511999999999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>8826.152108089998</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>632</v>
+      </c>
+      <c r="C127" t="n">
+        <v>632</v>
+      </c>
+      <c r="D127" t="n">
+        <v>632</v>
+      </c>
+      <c r="E127" t="n">
+        <v>632</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1090.3212</v>
+      </c>
+      <c r="G127" t="n">
+        <v>8826.152108089998</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>632</v>
+      </c>
+      <c r="C128" t="n">
+        <v>632</v>
+      </c>
+      <c r="D128" t="n">
+        <v>632</v>
+      </c>
+      <c r="E128" t="n">
+        <v>632</v>
+      </c>
+      <c r="F128" t="n">
+        <v>605.5561</v>
+      </c>
+      <c r="G128" t="n">
+        <v>8826.152108089998</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>632</v>
+      </c>
+      <c r="C129" t="n">
+        <v>635</v>
+      </c>
+      <c r="D129" t="n">
+        <v>635</v>
+      </c>
+      <c r="E129" t="n">
+        <v>632</v>
+      </c>
+      <c r="F129" t="n">
+        <v>157.90780484</v>
+      </c>
+      <c r="G129" t="n">
+        <v>8984.059912929999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>635</v>
+      </c>
+      <c r="C130" t="n">
+        <v>635</v>
+      </c>
+      <c r="D130" t="n">
+        <v>635</v>
+      </c>
+      <c r="E130" t="n">
+        <v>635</v>
+      </c>
+      <c r="F130" t="n">
+        <v>301.348</v>
+      </c>
+      <c r="G130" t="n">
+        <v>8984.059912929999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>635</v>
+      </c>
+      <c r="C131" t="n">
+        <v>637</v>
+      </c>
+      <c r="D131" t="n">
+        <v>637</v>
+      </c>
+      <c r="E131" t="n">
+        <v>635</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5159.0485</v>
+      </c>
+      <c r="G131" t="n">
+        <v>14143.10841293</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>628</v>
+      </c>
+      <c r="C132" t="n">
+        <v>628</v>
+      </c>
+      <c r="D132" t="n">
+        <v>628</v>
+      </c>
+      <c r="E132" t="n">
+        <v>628</v>
+      </c>
+      <c r="F132" t="n">
+        <v>208.18</v>
+      </c>
+      <c r="G132" t="n">
+        <v>13934.92841293</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>628</v>
+      </c>
+      <c r="C133" t="n">
+        <v>627</v>
+      </c>
+      <c r="D133" t="n">
+        <v>628</v>
+      </c>
+      <c r="E133" t="n">
+        <v>627</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1097.14</v>
+      </c>
+      <c r="G133" t="n">
+        <v>12837.78841293</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>627</v>
+      </c>
+      <c r="C134" t="n">
+        <v>628</v>
+      </c>
+      <c r="D134" t="n">
+        <v>628</v>
+      </c>
+      <c r="E134" t="n">
+        <v>627</v>
+      </c>
+      <c r="F134" t="n">
+        <v>159.25347133</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12997.04188426</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>628</v>
+      </c>
+      <c r="C135" t="n">
+        <v>628</v>
+      </c>
+      <c r="D135" t="n">
+        <v>628</v>
+      </c>
+      <c r="E135" t="n">
+        <v>628</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1382.799</v>
+      </c>
+      <c r="G135" t="n">
+        <v>12997.04188426</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>627</v>
+      </c>
+      <c r="C136" t="n">
+        <v>627</v>
+      </c>
+      <c r="D136" t="n">
+        <v>627</v>
+      </c>
+      <c r="E136" t="n">
+        <v>627</v>
+      </c>
+      <c r="F136" t="n">
+        <v>977.8366</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12019.20528426</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>627</v>
+      </c>
+      <c r="C137" t="n">
+        <v>627</v>
+      </c>
+      <c r="D137" t="n">
+        <v>627</v>
+      </c>
+      <c r="E137" t="n">
+        <v>627</v>
+      </c>
+      <c r="F137" t="n">
+        <v>159.2535</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12019.20528426</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>628</v>
+      </c>
+      <c r="C138" t="n">
+        <v>634</v>
+      </c>
+      <c r="D138" t="n">
+        <v>634</v>
+      </c>
+      <c r="E138" t="n">
+        <v>628</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>12020.20528426</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>626</v>
+      </c>
+      <c r="C139" t="n">
+        <v>625</v>
+      </c>
+      <c r="D139" t="n">
+        <v>626</v>
+      </c>
+      <c r="E139" t="n">
+        <v>625</v>
+      </c>
+      <c r="F139" t="n">
+        <v>809.6213</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11210.58398426</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>624</v>
+      </c>
+      <c r="C140" t="n">
+        <v>630</v>
+      </c>
+      <c r="D140" t="n">
+        <v>630</v>
+      </c>
+      <c r="E140" t="n">
+        <v>624</v>
+      </c>
+      <c r="F140" t="n">
+        <v>253.5353</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11464.11928426</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>630</v>
+      </c>
+      <c r="C141" t="n">
+        <v>630</v>
+      </c>
+      <c r="D141" t="n">
+        <v>630</v>
+      </c>
+      <c r="E141" t="n">
+        <v>630</v>
+      </c>
+      <c r="F141" t="n">
+        <v>69.9576</v>
+      </c>
+      <c r="G141" t="n">
+        <v>11464.11928426</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>630</v>
+      </c>
+      <c r="C142" t="n">
+        <v>630</v>
+      </c>
+      <c r="D142" t="n">
+        <v>630</v>
+      </c>
+      <c r="E142" t="n">
+        <v>630</v>
+      </c>
+      <c r="F142" t="n">
+        <v>385</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11464.11928426</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>629</v>
+      </c>
+      <c r="C143" t="n">
+        <v>629</v>
+      </c>
+      <c r="D143" t="n">
+        <v>629</v>
+      </c>
+      <c r="E143" t="n">
+        <v>629</v>
+      </c>
+      <c r="F143" t="n">
+        <v>67.9999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11396.11938426</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>622</v>
+      </c>
+      <c r="C144" t="n">
+        <v>622</v>
+      </c>
+      <c r="D144" t="n">
+        <v>622</v>
+      </c>
+      <c r="E144" t="n">
+        <v>622</v>
+      </c>
+      <c r="F144" t="n">
+        <v>85.6563</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11310.46308426</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>622</v>
+      </c>
+      <c r="C145" t="n">
+        <v>622</v>
+      </c>
+      <c r="D145" t="n">
+        <v>622</v>
+      </c>
+      <c r="E145" t="n">
+        <v>622</v>
+      </c>
+      <c r="F145" t="n">
+        <v>146.8301</v>
+      </c>
+      <c r="G145" t="n">
+        <v>11310.46308426</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
         <v>623</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C146" t="n">
         <v>623</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D146" t="n">
         <v>623</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E146" t="n">
         <v>623</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F146" t="n">
+        <v>993.1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>12303.56308426</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>621</v>
+      </c>
+      <c r="C147" t="n">
+        <v>621</v>
+      </c>
+      <c r="D147" t="n">
+        <v>621</v>
+      </c>
+      <c r="E147" t="n">
+        <v>621</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1775.8153</v>
+      </c>
+      <c r="G147" t="n">
+        <v>10527.74778426</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>621</v>
+      </c>
+      <c r="C148" t="n">
+        <v>621</v>
+      </c>
+      <c r="D148" t="n">
+        <v>621</v>
+      </c>
+      <c r="E148" t="n">
+        <v>621</v>
+      </c>
+      <c r="F148" t="n">
+        <v>193.1383</v>
+      </c>
+      <c r="G148" t="n">
+        <v>10527.74778426</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>621</v>
+      </c>
+      <c r="C149" t="n">
+        <v>621</v>
+      </c>
+      <c r="D149" t="n">
+        <v>621</v>
+      </c>
+      <c r="E149" t="n">
+        <v>621</v>
+      </c>
+      <c r="F149" t="n">
+        <v>352.633</v>
+      </c>
+      <c r="G149" t="n">
+        <v>10527.74778426</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>621</v>
+      </c>
+      <c r="C150" t="n">
+        <v>621</v>
+      </c>
+      <c r="D150" t="n">
+        <v>621</v>
+      </c>
+      <c r="E150" t="n">
+        <v>621</v>
+      </c>
+      <c r="F150" t="n">
+        <v>208.7739</v>
+      </c>
+      <c r="G150" t="n">
+        <v>10527.74778426</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>621</v>
+      </c>
+      <c r="C151" t="n">
+        <v>621</v>
+      </c>
+      <c r="D151" t="n">
+        <v>621</v>
+      </c>
+      <c r="E151" t="n">
+        <v>621</v>
+      </c>
+      <c r="F151" t="n">
+        <v>280.7771</v>
+      </c>
+      <c r="G151" t="n">
+        <v>10527.74778426</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>621</v>
+      </c>
+      <c r="C152" t="n">
+        <v>620</v>
+      </c>
+      <c r="D152" t="n">
+        <v>621</v>
+      </c>
+      <c r="E152" t="n">
+        <v>620</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2753.7253</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7774.022484259996</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>627</v>
+      </c>
+      <c r="C153" t="n">
+        <v>627</v>
+      </c>
+      <c r="D153" t="n">
+        <v>627</v>
+      </c>
+      <c r="E153" t="n">
+        <v>627</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7804.022484259996</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>620</v>
+      </c>
+      <c r="C154" t="n">
+        <v>618</v>
+      </c>
+      <c r="D154" t="n">
+        <v>620</v>
+      </c>
+      <c r="E154" t="n">
+        <v>618</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5146.1509</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2657.871584259997</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>618</v>
+      </c>
+      <c r="C155" t="n">
+        <v>618</v>
+      </c>
+      <c r="D155" t="n">
+        <v>618</v>
+      </c>
+      <c r="E155" t="n">
+        <v>618</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1112.8108</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2657.871584259997</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>616</v>
+      </c>
+      <c r="C156" t="n">
+        <v>613</v>
+      </c>
+      <c r="D156" t="n">
+        <v>616</v>
+      </c>
+      <c r="E156" t="n">
+        <v>613</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6643.4698</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3985.598215740003</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>618</v>
+      </c>
+      <c r="C157" t="n">
+        <v>618</v>
+      </c>
+      <c r="D157" t="n">
+        <v>618</v>
+      </c>
+      <c r="E157" t="n">
+        <v>618</v>
+      </c>
+      <c r="F157" t="n">
+        <v>54.7713</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3930.826915740003</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>618</v>
+      </c>
+      <c r="C158" t="n">
+        <v>614</v>
+      </c>
+      <c r="D158" t="n">
+        <v>618</v>
+      </c>
+      <c r="E158" t="n">
+        <v>614</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1338.0268</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5268.853715740003</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>618</v>
+      </c>
+      <c r="C159" t="n">
+        <v>618</v>
+      </c>
+      <c r="D159" t="n">
+        <v>618</v>
+      </c>
+      <c r="E159" t="n">
+        <v>618</v>
+      </c>
+      <c r="F159" t="n">
+        <v>550</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4718.853715740003</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>618</v>
+      </c>
+      <c r="C160" t="n">
+        <v>618</v>
+      </c>
+      <c r="D160" t="n">
+        <v>618</v>
+      </c>
+      <c r="E160" t="n">
+        <v>618</v>
+      </c>
+      <c r="F160" t="n">
+        <v>397.4228</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4718.853715740003</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>616</v>
+      </c>
+      <c r="C161" t="n">
+        <v>616</v>
+      </c>
+      <c r="D161" t="n">
+        <v>616</v>
+      </c>
+      <c r="E161" t="n">
+        <v>616</v>
+      </c>
+      <c r="F161" t="n">
+        <v>311.9202</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-5030.773915740003</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>618</v>
+      </c>
+      <c r="C162" t="n">
+        <v>625</v>
+      </c>
+      <c r="D162" t="n">
+        <v>625</v>
+      </c>
+      <c r="E162" t="n">
+        <v>618</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6.3674</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5024.406515740003</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>619</v>
+      </c>
+      <c r="C163" t="n">
+        <v>619</v>
+      </c>
+      <c r="D163" t="n">
+        <v>619</v>
+      </c>
+      <c r="E163" t="n">
+        <v>619</v>
+      </c>
+      <c r="F163" t="n">
+        <v>270.6801</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-5295.086615740002</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>625</v>
+      </c>
+      <c r="C164" t="n">
+        <v>625</v>
+      </c>
+      <c r="D164" t="n">
+        <v>625</v>
+      </c>
+      <c r="E164" t="n">
+        <v>625</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-5294.086615740002</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>626</v>
+      </c>
+      <c r="C165" t="n">
+        <v>626</v>
+      </c>
+      <c r="D165" t="n">
+        <v>626</v>
+      </c>
+      <c r="E165" t="n">
+        <v>626</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-5293.086615740002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>625</v>
+      </c>
+      <c r="C166" t="n">
+        <v>625</v>
+      </c>
+      <c r="D166" t="n">
+        <v>625</v>
+      </c>
+      <c r="E166" t="n">
+        <v>625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>234.5504</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-5527.637015740002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>618</v>
+      </c>
+      <c r="C167" t="n">
+        <v>616</v>
+      </c>
+      <c r="D167" t="n">
+        <v>618</v>
+      </c>
+      <c r="E167" t="n">
+        <v>616</v>
+      </c>
+      <c r="F167" t="n">
+        <v>802.8390000000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-6330.476015740002</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>615</v>
+      </c>
+      <c r="C168" t="n">
+        <v>613</v>
+      </c>
+      <c r="D168" t="n">
+        <v>615</v>
+      </c>
+      <c r="E168" t="n">
+        <v>613</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4201.0801</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-10531.55611574</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>621</v>
+      </c>
+      <c r="C169" t="n">
+        <v>621</v>
+      </c>
+      <c r="D169" t="n">
+        <v>621</v>
+      </c>
+      <c r="E169" t="n">
+        <v>621</v>
+      </c>
+      <c r="F169" t="n">
+        <v>80</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-10451.55611574</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>622</v>
+      </c>
+      <c r="C170" t="n">
+        <v>622</v>
+      </c>
+      <c r="D170" t="n">
+        <v>622</v>
+      </c>
+      <c r="E170" t="n">
+        <v>622</v>
+      </c>
+      <c r="F170" t="n">
+        <v>80</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-10371.55611574</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>621</v>
+      </c>
+      <c r="C171" t="n">
+        <v>621</v>
+      </c>
+      <c r="D171" t="n">
+        <v>621</v>
+      </c>
+      <c r="E171" t="n">
+        <v>621</v>
+      </c>
+      <c r="F171" t="n">
+        <v>779</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-11150.55611574</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>616</v>
+      </c>
+      <c r="C172" t="n">
+        <v>621</v>
+      </c>
+      <c r="D172" t="n">
+        <v>621</v>
+      </c>
+      <c r="E172" t="n">
+        <v>616</v>
+      </c>
+      <c r="F172" t="n">
+        <v>204.3468</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-11150.55611574</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>618</v>
+      </c>
+      <c r="C173" t="n">
+        <v>618</v>
+      </c>
+      <c r="D173" t="n">
+        <v>618</v>
+      </c>
+      <c r="E173" t="n">
+        <v>618</v>
+      </c>
+      <c r="F173" t="n">
+        <v>103.9753</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-11254.53141574</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>620</v>
+      </c>
+      <c r="C174" t="n">
+        <v>620</v>
+      </c>
+      <c r="D174" t="n">
+        <v>620</v>
+      </c>
+      <c r="E174" t="n">
+        <v>620</v>
+      </c>
+      <c r="F174" t="n">
+        <v>657.3538</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-10597.17761574</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>621</v>
+      </c>
+      <c r="C175" t="n">
+        <v>622</v>
+      </c>
+      <c r="D175" t="n">
+        <v>622</v>
+      </c>
+      <c r="E175" t="n">
+        <v>621</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2490.4474</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-8106.730215740002</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>624</v>
+      </c>
+      <c r="C176" t="n">
+        <v>624</v>
+      </c>
+      <c r="D176" t="n">
+        <v>624</v>
+      </c>
+      <c r="E176" t="n">
+        <v>624</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>624</v>
+      </c>
+      <c r="C177" t="n">
+        <v>624</v>
+      </c>
+      <c r="D177" t="n">
+        <v>624</v>
+      </c>
+      <c r="E177" t="n">
+        <v>624</v>
+      </c>
+      <c r="F177" t="n">
+        <v>79</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>624</v>
+      </c>
+      <c r="C178" t="n">
+        <v>624</v>
+      </c>
+      <c r="D178" t="n">
+        <v>624</v>
+      </c>
+      <c r="E178" t="n">
+        <v>624</v>
+      </c>
+      <c r="F178" t="n">
+        <v>264.1907</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-8105.730215740002</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>621</v>
+      </c>
+      <c r="C179" t="n">
+        <v>621</v>
+      </c>
+      <c r="D179" t="n">
+        <v>621</v>
+      </c>
+      <c r="E179" t="n">
+        <v>621</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1741.0161</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-9846.746315740002</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>624</v>
+      </c>
+      <c r="C180" t="n">
+        <v>624</v>
+      </c>
+      <c r="D180" t="n">
+        <v>624</v>
+      </c>
+      <c r="E180" t="n">
+        <v>624</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-9845.746315740002</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>626</v>
+      </c>
+      <c r="C181" t="n">
+        <v>626</v>
+      </c>
+      <c r="D181" t="n">
+        <v>626</v>
+      </c>
+      <c r="E181" t="n">
+        <v>626</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-9844.746315740002</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>620</v>
+      </c>
+      <c r="C182" t="n">
+        <v>620</v>
+      </c>
+      <c r="D182" t="n">
+        <v>620</v>
+      </c>
+      <c r="E182" t="n">
+        <v>620</v>
+      </c>
+      <c r="F182" t="n">
+        <v>246.5779</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-10091.32421574</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>619</v>
+      </c>
+      <c r="C183" t="n">
+        <v>613</v>
+      </c>
+      <c r="D183" t="n">
+        <v>619</v>
+      </c>
+      <c r="E183" t="n">
+        <v>613</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-12091.32421574</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>617</v>
+      </c>
+      <c r="C184" t="n">
+        <v>623</v>
+      </c>
+      <c r="D184" t="n">
+        <v>623</v>
+      </c>
+      <c r="E184" t="n">
+        <v>617</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>613</v>
+      </c>
+      <c r="C185" t="n">
+        <v>623</v>
+      </c>
+      <c r="D185" t="n">
+        <v>623</v>
+      </c>
+      <c r="E185" t="n">
+        <v>613</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>623</v>
+      </c>
+      <c r="C186" t="n">
+        <v>623</v>
+      </c>
+      <c r="D186" t="n">
+        <v>623</v>
+      </c>
+      <c r="E186" t="n">
+        <v>623</v>
+      </c>
+      <c r="F186" t="n">
+        <v>16.3499</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-12089.32421574</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>623</v>
+      </c>
+      <c r="C187" t="n">
+        <v>623</v>
+      </c>
+      <c r="D187" t="n">
+        <v>623</v>
+      </c>
+      <c r="E187" t="n">
+        <v>623</v>
+      </c>
+      <c r="F187" t="n">
         <v>307.228</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G187" t="n">
         <v>-12089.32421574</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J3" t="n">
         <v>591</v>
       </c>
-      <c r="K3" t="n">
-        <v>591</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="J4" t="n">
         <v>591</v>
       </c>
-      <c r="K4" t="n">
-        <v>591</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-17945.2468</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="J5" t="n">
-        <v>588</v>
-      </c>
-      <c r="K5" t="n">
         <v>591</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>-18606.6925</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>592</v>
       </c>
       <c r="J6" t="n">
         <v>592</v>
       </c>
-      <c r="K6" t="n">
-        <v>592</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>-18600.3725</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="J7" t="n">
-        <v>589</v>
-      </c>
-      <c r="K7" t="n">
-        <v>592</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>592</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +681,23 @@
         <v>-18600.3725</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>592</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J8" t="n">
+        <v>592</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +724,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>592</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>592</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +763,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>592</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>592</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +802,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>592</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>592</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,22 +841,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>592</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>592</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +880,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>592</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>592</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +919,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>592</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>592</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,24 +956,23 @@
         <v>-14471.93536635</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>592</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>593</v>
+      </c>
+      <c r="J15" t="n">
+        <v>592</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>592</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>592</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>592</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>592</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>592</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>592</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>592</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>592</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1208,24 +1153,23 @@
         <v>-17841.95446635</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>592</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>603</v>
+      </c>
+      <c r="J20" t="n">
+        <v>592</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1250,24 +1194,23 @@
         <v>-18058.23556635</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>592</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>603</v>
+      </c>
+      <c r="J21" t="n">
+        <v>592</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,24 +1235,23 @@
         <v>-18535.95916635</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>592</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>598</v>
+      </c>
+      <c r="J22" t="n">
+        <v>592</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1278,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>592</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>592</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1317,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>592</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>592</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1418,24 +1354,23 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>592</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>595</v>
+      </c>
+      <c r="J25" t="n">
+        <v>592</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1460,24 +1395,23 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>592</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>602</v>
+      </c>
+      <c r="J26" t="n">
+        <v>592</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1438,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>592</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>592</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1477,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>592</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>592</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1516,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>592</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>592</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1555,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>592</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>592</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1594,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>592</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>592</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1633,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>592</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>592</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1672,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>592</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>592</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1711,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>592</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>592</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1750,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>592</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>592</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1789,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>592</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>592</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1828,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>592</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>592</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1867,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>592</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>592</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1906,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>592</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>592</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1945,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>592</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>592</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1984,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>592</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>592</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +2023,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>592</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>592</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +2062,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>592</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>592</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2101,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>592</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>592</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2140,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>592</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>592</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2179,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>592</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>592</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2218,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>592</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>592</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2257,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>592</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>592</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,22 +2296,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>592</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>592</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2335,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>592</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>592</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2374,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>592</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>592</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2413,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>592</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>592</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2452,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>592</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>592</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2491,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>592</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>592</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2530,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>592</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>592</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2569,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>592</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>592</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2608,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>592</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>592</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2647,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>592</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>592</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2686,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>592</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>592</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2725,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>592</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>592</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2764,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>592</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>592</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2803,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>592</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>592</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2842,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>592</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>592</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2881,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>592</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>592</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2920,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>592</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>592</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2959,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>592</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>592</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2998,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>592</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>592</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +3037,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>592</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>592</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +3076,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>592</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>592</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +3115,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>592</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>592</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +3154,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>592</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>592</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +3193,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>592</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>592</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,22 +3232,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>592</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>592</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3478,22 +3271,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>592</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>592</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3520,22 +3310,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>592</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>592</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3562,22 +3349,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>592</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>592</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,22 +3388,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>592</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>592</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,22 +3427,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>592</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>592</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3688,22 +3466,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>592</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>592</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3730,22 +3505,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>592</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>592</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3772,22 +3544,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>592</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>592</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,22 +3583,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>592</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>592</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3856,22 +3622,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>592</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>592</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3898,22 +3661,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>592</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>592</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3940,22 +3700,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>592</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>592</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3982,22 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>592</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>592</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4024,22 +3778,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>592</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>592</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4066,22 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>592</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>592</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4108,22 +3856,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>592</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>592</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4150,22 +3895,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>592</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>592</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4192,22 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>592</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>592</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4234,22 +3973,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>592</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>592</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4276,22 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>592</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>592</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4318,22 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>592</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>592</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4360,22 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>592</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>592</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4402,22 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>592</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>592</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4444,22 +4168,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>592</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>592</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4486,22 +4207,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>592</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>592</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4528,22 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>592</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>592</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4570,22 +4285,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>592</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>592</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4612,22 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>592</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>592</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4654,22 +4363,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>592</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>592</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4696,22 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>592</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>592</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4738,22 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>592</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>592</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4780,22 +4480,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>592</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>592</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4822,22 +4519,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>592</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>592</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4864,22 +4558,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>592</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>592</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,22 +4597,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>592</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>592</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4948,22 +4636,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>592</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>592</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4990,22 +4675,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>592</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>592</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5032,22 +4714,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>592</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>592</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5074,22 +4753,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>592</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>592</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5116,22 +4792,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>592</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>592</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,22 +4831,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>592</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>592</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5200,22 +4870,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>592</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>592</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5242,22 +4909,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>592</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>592</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5284,22 +4948,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>592</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>592</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5324,24 +4985,21 @@
         <v>575.8437065099984</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>592</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>592</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.038918918918919</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5368,22 +5026,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>592</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5410,22 +5059,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>592</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5452,24 +5092,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>592</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1.059189189189189</v>
-      </c>
-      <c r="N121" t="n">
-        <v>1.006802721088435</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5496,16 +5125,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5532,16 +5158,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5568,16 +5191,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5604,16 +5224,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5640,16 +5257,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5676,16 +5290,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5710,18 +5321,15 @@
         <v>8826.152108089998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5746,18 +5354,15 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5782,18 +5387,15 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5818,18 +5420,15 @@
         <v>14143.10841293</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5854,18 +5453,15 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5890,18 +5486,15 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5926,18 +5519,15 @@
         <v>12997.04188426</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5964,16 +5554,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5998,18 +5585,15 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6034,18 +5618,15 @@
         <v>12019.20528426</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6072,16 +5653,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6108,16 +5686,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6142,18 +5717,15 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6178,18 +5750,15 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6214,18 +5783,15 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6252,16 +5818,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6286,18 +5849,15 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6322,18 +5882,15 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6360,16 +5917,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6396,16 +5950,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6432,16 +5983,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6468,16 +6016,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6502,18 +6047,15 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6538,18 +6080,15 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6576,16 +6115,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6612,16 +6148,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6646,18 +6179,15 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6682,18 +6212,15 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6720,16 +6247,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6756,16 +6280,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6790,18 +6311,15 @@
         <v>-5268.853715740003</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6826,18 +6344,15 @@
         <v>-4718.853715740003</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6864,16 +6379,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6900,16 +6412,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6934,18 +6443,15 @@
         <v>-5024.406515740003</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6970,18 +6476,15 @@
         <v>-5295.086615740002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7008,16 +6511,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7044,16 +6544,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7078,18 +6575,15 @@
         <v>-5527.637015740002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7116,16 +6610,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7152,16 +6643,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7188,16 +6676,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7224,16 +6709,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7260,16 +6742,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7296,16 +6775,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7332,16 +6808,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7368,16 +6841,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7404,16 +6874,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7440,16 +6907,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7476,16 +6940,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7512,16 +6973,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7548,16 +7006,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7584,16 +7039,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7620,16 +7072,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7656,16 +7105,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7692,16 +7138,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7728,16 +7171,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7764,16 +7204,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7800,16 +7237,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7836,18 +7270,15 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>591</v>
@@ -521,7 +521,7 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>591</v>
@@ -562,7 +562,7 @@
         <v>-17945.2468</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>588</v>
@@ -603,7 +603,7 @@
         <v>-18606.6925</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>592</v>
@@ -640,7 +640,7 @@
         <v>-18600.3725</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>589</v>
@@ -681,7 +681,7 @@
         <v>-18600.3725</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>592</v>
@@ -722,9 +722,11 @@
         <v>-17757.9944</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>592</v>
+      </c>
       <c r="J9" t="n">
         <v>592</v>
       </c>
@@ -761,9 +763,11 @@
         <v>-17757.9944</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>597</v>
+      </c>
       <c r="J10" t="n">
         <v>592</v>
       </c>
@@ -800,9 +804,11 @@
         <v>-17759.1835</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>597</v>
+      </c>
       <c r="J11" t="n">
         <v>592</v>
       </c>
@@ -839,9 +845,11 @@
         <v>-17757.8768</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>593</v>
+      </c>
       <c r="J12" t="n">
         <v>592</v>
       </c>
@@ -878,9 +886,11 @@
         <v>-14206.84513334</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>596</v>
+      </c>
       <c r="J13" t="n">
         <v>592</v>
       </c>
@@ -917,9 +927,11 @@
         <v>-20021.91756635</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>600</v>
+      </c>
       <c r="J14" t="n">
         <v>592</v>
       </c>
@@ -956,11 +968,9 @@
         <v>-14471.93536635</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>593</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>592</v>
       </c>
@@ -1153,11 +1163,9 @@
         <v>-17841.95446635</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>592</v>
       </c>
@@ -1194,11 +1202,9 @@
         <v>-18058.23556635</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>592</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>-18535.95916635</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>598</v>
@@ -1276,9 +1282,11 @@
         <v>-19326.97436635</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>597</v>
+      </c>
       <c r="J23" t="n">
         <v>592</v>
       </c>
@@ -1315,9 +1323,11 @@
         <v>-19493.64106635</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>596</v>
+      </c>
       <c r="J24" t="n">
         <v>592</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>595</v>
@@ -1395,7 +1405,7 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>602</v>
@@ -1436,9 +1446,11 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>602</v>
+      </c>
       <c r="J27" t="n">
         <v>592</v>
       </c>
@@ -1514,9 +1526,11 @@
         <v>-18869.73846635001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>603</v>
+      </c>
       <c r="J29" t="n">
         <v>592</v>
       </c>
@@ -4985,7 +4999,7 @@
         <v>575.8437065099984</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
@@ -4993,11 +5007,11 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.038918918918919</v>
+        <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
@@ -5027,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>592</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5060,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>592</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5093,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>592</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5126,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>592</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5159,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>592</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5192,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>592</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5225,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>592</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5258,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>592</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5291,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>592</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5321,11 +5389,17 @@
         <v>8826.152108089998</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>592</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5428,17 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>592</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5467,17 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>592</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5506,17 @@
         <v>14143.10841293</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>592</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5453,15 +5545,23 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>592</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>1.055810810810811</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.006802721088435</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5486,7 +5586,7 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5519,7 +5619,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5585,7 +5685,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5618,7 +5718,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5651,7 +5751,7 @@
         <v>12020.20528426</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5684,7 +5784,7 @@
         <v>11210.58398426</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5717,7 +5817,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5750,7 +5850,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5783,7 +5883,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5816,7 +5916,7 @@
         <v>11396.11938426</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5849,7 +5949,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5882,7 +5982,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5915,7 +6015,7 @@
         <v>12303.56308426</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5948,7 +6048,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5981,7 +6081,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6014,7 +6114,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6047,7 +6147,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6080,7 +6180,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6113,7 +6213,7 @@
         <v>7774.022484259996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6146,7 +6246,7 @@
         <v>7804.022484259996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6179,7 +6279,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6212,7 +6312,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6245,7 +6345,7 @@
         <v>-3985.598215740003</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6278,7 +6378,7 @@
         <v>-3930.826915740003</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6311,7 +6411,7 @@
         <v>-5268.853715740003</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6344,7 +6444,7 @@
         <v>-4718.853715740003</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6377,7 +6477,7 @@
         <v>-4718.853715740003</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6410,7 +6510,7 @@
         <v>-5030.773915740003</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6443,7 +6543,7 @@
         <v>-5024.406515740003</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6476,7 +6576,7 @@
         <v>-5295.086615740002</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6509,7 +6609,7 @@
         <v>-5294.086615740002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6542,7 +6642,7 @@
         <v>-5293.086615740002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6575,7 +6675,7 @@
         <v>-5527.637015740002</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6608,7 +6708,7 @@
         <v>-6330.476015740002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6641,7 +6741,7 @@
         <v>-10531.55611574</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6674,7 +6774,7 @@
         <v>-10451.55611574</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6707,7 +6807,7 @@
         <v>-10371.55611574</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6740,7 +6840,7 @@
         <v>-11150.55611574</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6773,7 +6873,7 @@
         <v>-11150.55611574</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6806,7 +6906,7 @@
         <v>-11254.53141574</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6839,7 +6939,7 @@
         <v>-10597.17761574</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6872,7 +6972,7 @@
         <v>-8106.730215740002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6905,7 +7005,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6938,7 +7038,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6971,7 +7071,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7004,7 +7104,7 @@
         <v>-9846.746315740002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7037,7 +7137,7 @@
         <v>-9845.746315740002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7070,7 +7170,7 @@
         <v>-9844.746315740002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7279,6 +7379,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>591</v>
-      </c>
-      <c r="J3" t="n">
-        <v>591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,384 +517,366 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>591</v>
-      </c>
-      <c r="J4" t="n">
-        <v>591</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>592</v>
+      </c>
+      <c r="C5" t="n">
+        <v>592</v>
+      </c>
+      <c r="D5" t="n">
+        <v>592</v>
+      </c>
+      <c r="E5" t="n">
+        <v>592</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-17945.2468</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>588</v>
+      </c>
+      <c r="J5" t="n">
+        <v>588</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>589</v>
+      </c>
+      <c r="C6" t="n">
+        <v>589</v>
+      </c>
+      <c r="D6" t="n">
+        <v>589</v>
+      </c>
+      <c r="E6" t="n">
+        <v>589</v>
+      </c>
+      <c r="F6" t="n">
+        <v>661.4457</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-18606.6925</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>592</v>
+      </c>
+      <c r="J6" t="n">
+        <v>588</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>589</v>
+      </c>
+      <c r="C7" t="n">
         <v>592</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D7" t="n">
         <v>592</v>
       </c>
-      <c r="D5" t="n">
-        <v>592</v>
-      </c>
-      <c r="E5" t="n">
-        <v>592</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-17945.2468</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="E7" t="n">
+        <v>589</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-18600.3725</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>589</v>
+      </c>
+      <c r="J7" t="n">
         <v>588</v>
       </c>
-      <c r="J5" t="n">
-        <v>591</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>589</v>
-      </c>
-      <c r="C6" t="n">
-        <v>589</v>
-      </c>
-      <c r="D6" t="n">
-        <v>589</v>
-      </c>
-      <c r="E6" t="n">
-        <v>589</v>
-      </c>
-      <c r="F6" t="n">
-        <v>661.4457</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-18606.6925</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>592</v>
       </c>
-      <c r="J6" t="n">
+      <c r="C8" t="n">
         <v>592</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>589</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="D8" t="n">
         <v>592</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E8" t="n">
         <v>592</v>
       </c>
-      <c r="E7" t="n">
-        <v>589</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F8" t="n">
+        <v>986.8326</v>
+      </c>
+      <c r="G8" t="n">
         <v>-18600.3725</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>589</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>592</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J8" t="n">
+        <v>592</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>594</v>
+      </c>
+      <c r="C9" t="n">
+        <v>597</v>
+      </c>
+      <c r="D9" t="n">
+        <v>597</v>
+      </c>
+      <c r="E9" t="n">
+        <v>594</v>
+      </c>
+      <c r="F9" t="n">
+        <v>842.3781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17757.9944</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>592</v>
+      </c>
+      <c r="J9" t="n">
+        <v>592</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>597</v>
+      </c>
+      <c r="D10" t="n">
+        <v>597</v>
+      </c>
+      <c r="E10" t="n">
+        <v>593</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.4359</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-17757.9944</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>592</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>593</v>
+      </c>
+      <c r="D11" t="n">
+        <v>593</v>
+      </c>
+      <c r="E11" t="n">
+        <v>593</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.1891</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-17759.1835</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>597</v>
+      </c>
+      <c r="J11" t="n">
+        <v>597</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>596</v>
+      </c>
+      <c r="D12" t="n">
+        <v>596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>596</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.3067</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17757.8768</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>593</v>
+      </c>
+      <c r="J12" t="n">
+        <v>597</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>597</v>
+      </c>
+      <c r="C13" t="n">
+        <v>600</v>
+      </c>
+      <c r="D13" t="n">
+        <v>600</v>
+      </c>
+      <c r="E13" t="n">
+        <v>597</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3551.03166666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-14206.84513334</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>596</v>
+      </c>
+      <c r="J13" t="n">
+        <v>597</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>592</v>
-      </c>
-      <c r="C8" t="n">
-        <v>592</v>
-      </c>
-      <c r="D8" t="n">
-        <v>592</v>
-      </c>
-      <c r="E8" t="n">
-        <v>592</v>
-      </c>
-      <c r="F8" t="n">
-        <v>986.8326</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-18600.3725</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>592</v>
-      </c>
-      <c r="J8" t="n">
-        <v>592</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>594</v>
-      </c>
-      <c r="C9" t="n">
-        <v>597</v>
-      </c>
-      <c r="D9" t="n">
-        <v>597</v>
-      </c>
-      <c r="E9" t="n">
-        <v>594</v>
-      </c>
-      <c r="F9" t="n">
-        <v>842.3781</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-17757.9944</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>592</v>
-      </c>
-      <c r="J9" t="n">
-        <v>592</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>593</v>
-      </c>
-      <c r="C10" t="n">
-        <v>597</v>
-      </c>
-      <c r="D10" t="n">
-        <v>597</v>
-      </c>
-      <c r="E10" t="n">
-        <v>593</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.4359</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-17757.9944</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>597</v>
-      </c>
-      <c r="J10" t="n">
-        <v>592</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>593</v>
-      </c>
-      <c r="C11" t="n">
-        <v>593</v>
-      </c>
-      <c r="D11" t="n">
-        <v>593</v>
-      </c>
-      <c r="E11" t="n">
-        <v>593</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.1891</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-17759.1835</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>597</v>
-      </c>
-      <c r="J11" t="n">
-        <v>592</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>596</v>
-      </c>
-      <c r="C12" t="n">
-        <v>596</v>
-      </c>
-      <c r="D12" t="n">
-        <v>596</v>
-      </c>
-      <c r="E12" t="n">
-        <v>596</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.3067</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-17757.8768</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>593</v>
-      </c>
-      <c r="J12" t="n">
-        <v>592</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>597</v>
-      </c>
-      <c r="C13" t="n">
-        <v>600</v>
-      </c>
-      <c r="D13" t="n">
-        <v>600</v>
-      </c>
-      <c r="E13" t="n">
-        <v>597</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3551.03166666</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-14206.84513334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>596</v>
-      </c>
-      <c r="J13" t="n">
-        <v>592</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,13 +905,11 @@
         <v>-20021.91756635</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -972,7 +948,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1011,7 +987,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1050,7 +1026,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1089,7 +1065,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1128,7 +1104,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1167,7 +1143,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1206,7 +1182,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1241,13 +1217,11 @@
         <v>-18535.95916635</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>598</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1282,13 +1256,11 @@
         <v>-19326.97436635</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>597</v>
-      </c>
-      <c r="J23" t="n">
-        <v>592</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1323,13 +1295,11 @@
         <v>-19493.64106635</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>596</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1370,7 +1340,7 @@
         <v>595</v>
       </c>
       <c r="J25" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1411,7 +1381,7 @@
         <v>602</v>
       </c>
       <c r="J26" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1446,13 +1416,11 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1491,7 +1459,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1526,13 +1494,11 @@
         <v>-18869.73846635001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>603</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1571,7 +1537,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1610,7 +1576,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1649,7 +1615,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1688,7 +1654,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1727,7 +1693,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1766,7 +1732,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1801,19 +1767,19 @@
         <v>1585.163202449998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>1.028500837520938</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1840,17 +1806,11 @@
         <v>-7682.387797550002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>592</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1879,17 +1839,11 @@
         <v>-7313.798297550002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>592</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1918,17 +1872,11 @@
         <v>-10254.62899755</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>592</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1957,17 +1905,11 @@
         <v>-10048.76959755</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>592</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1996,17 +1938,11 @@
         <v>-5653.591897550003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>592</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2035,17 +1971,11 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>592</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2074,17 +2004,11 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>592</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2113,17 +2037,11 @@
         <v>-7107.825097550003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>592</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2152,17 +2070,11 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>592</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2191,17 +2103,11 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>592</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2230,17 +2136,11 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>592</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2269,17 +2169,11 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>592</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2308,17 +2202,11 @@
         <v>-4056.434697550003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>592</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2347,17 +2235,11 @@
         <v>-3056.434697550003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>592</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2386,17 +2268,11 @@
         <v>-2046.222597550003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>592</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2425,17 +2301,11 @@
         <v>-2272.257497550003</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>592</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2464,17 +2334,11 @@
         <v>-2599.845297550003</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>592</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2503,17 +2367,11 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>592</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2542,17 +2400,11 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>592</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2581,17 +2433,11 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>592</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2620,17 +2466,11 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>592</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2659,17 +2499,11 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>592</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2698,17 +2532,11 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>592</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2737,17 +2565,11 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>592</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2776,17 +2598,11 @@
         <v>-18531.12639755</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>592</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2634,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>592</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2667,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>592</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2700,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>592</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2733,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>592</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>592</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3013,14 +2799,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>592</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2832,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>592</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3088,17 +2862,11 @@
         <v>-18233.62459755</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>592</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2898,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>592</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +2931,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>592</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +2964,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>592</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3244,17 +2994,11 @@
         <v>-17142.09909755</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>592</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3283,17 +3027,11 @@
         <v>-18392.07229755</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>592</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3322,17 +3060,11 @@
         <v>-18380.64079755</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>592</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3361,17 +3093,11 @@
         <v>-18549.82079755</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>592</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3400,17 +3126,11 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>592</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3439,17 +3159,11 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>592</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3195,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>592</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3228,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>592</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3261,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>592</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3294,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>592</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>592</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3360,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>592</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3393,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>592</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3426,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>592</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3459,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>592</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3492,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>592</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3525,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>592</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>592</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3591,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>592</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3624,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>592</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3657,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>592</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3690,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>592</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3723,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>592</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3756,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>592</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3789,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>592</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3822,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>592</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3855,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>592</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>592</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +3921,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>592</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>592</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +3987,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>592</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4020,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>592</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4053,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>592</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4086,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>592</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4119,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>592</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>592</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>592</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>592</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4251,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>592</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4284,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>592</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4317,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>592</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>592</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4383,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>592</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4416,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>592</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4449,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>592</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5002,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>592</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4515,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>592</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>592</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5119,14 +4581,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>592</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +4614,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>592</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>592</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>592</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>592</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>592</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>592</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>592</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>592</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5470,14 +4878,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>592</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5509,14 +4911,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>592</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5545,23 +4941,15 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>592</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>1.055810810810811</v>
-      </c>
-      <c r="M132" t="n">
-        <v>1.006802721088435</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5586,7 +4974,7 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5685,7 +5073,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5718,7 +5106,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5751,7 +5139,7 @@
         <v>12020.20528426</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5784,7 +5172,7 @@
         <v>11210.58398426</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5817,7 +5205,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5850,7 +5238,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5883,7 +5271,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5916,7 +5304,7 @@
         <v>11396.11938426</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5949,7 +5337,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5982,7 +5370,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6015,7 +5403,7 @@
         <v>12303.56308426</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6048,7 +5436,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6081,7 +5469,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6114,7 +5502,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6147,7 +5535,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6180,7 +5568,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6213,7 +5601,7 @@
         <v>7774.022484259996</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6246,7 +5634,7 @@
         <v>7804.022484259996</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6279,7 +5667,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6312,7 +5700,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6345,7 +5733,7 @@
         <v>-3985.598215740003</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6378,7 +5766,7 @@
         <v>-3930.826915740003</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6411,7 +5799,7 @@
         <v>-5268.853715740003</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6444,7 +5832,7 @@
         <v>-4718.853715740003</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6477,7 +5865,7 @@
         <v>-4718.853715740003</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6510,7 +5898,7 @@
         <v>-5030.773915740003</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6543,7 +5931,7 @@
         <v>-5024.406515740003</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6576,7 +5964,7 @@
         <v>-5295.086615740002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6609,7 +5997,7 @@
         <v>-5294.086615740002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6642,7 +6030,7 @@
         <v>-5293.086615740002</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6675,7 +6063,7 @@
         <v>-5527.637015740002</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6708,7 +6096,7 @@
         <v>-6330.476015740002</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6741,7 +6129,7 @@
         <v>-10531.55611574</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6774,7 +6162,7 @@
         <v>-10451.55611574</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6807,7 +6195,7 @@
         <v>-10371.55611574</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6840,7 +6228,7 @@
         <v>-11150.55611574</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6873,7 +6261,7 @@
         <v>-11150.55611574</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6906,7 +6294,7 @@
         <v>-11254.53141574</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6939,7 +6327,7 @@
         <v>-10597.17761574</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6972,7 +6360,7 @@
         <v>-8106.730215740002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7005,7 +6393,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7038,7 +6426,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7071,7 +6459,7 @@
         <v>-8105.730215740002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7104,7 +6492,7 @@
         <v>-9846.746315740002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7137,7 +6525,7 @@
         <v>-9845.746315740002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7170,7 +6558,7 @@
         <v>-9844.746315740002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7379,6 +6767,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -451,7 +451,7 @@
         <v>-17881.9958</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-17881.9958</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>591</v>
+      </c>
+      <c r="J3" t="n">
+        <v>591</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-17946.5468</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>591</v>
+      </c>
+      <c r="J4" t="n">
+        <v>591</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,9 +568,13 @@
         <v>588</v>
       </c>
       <c r="J5" t="n">
-        <v>588</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>591</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,13 +609,9 @@
         <v>592</v>
       </c>
       <c r="J6" t="n">
-        <v>588</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,11 +646,11 @@
         <v>589</v>
       </c>
       <c r="J7" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -669,15 +681,17 @@
         <v>-18600.3725</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>592</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -706,17 +720,15 @@
         <v>-17757.9944</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>592</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>592</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -755,7 +767,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -786,15 +798,17 @@
         <v>-17759.1835</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>597</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,11 +843,11 @@
         <v>593</v>
       </c>
       <c r="J12" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -870,11 +884,11 @@
         <v>596</v>
       </c>
       <c r="J13" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -909,7 +923,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -948,7 +962,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -987,7 +1001,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1026,7 +1040,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1065,7 +1079,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1104,7 +1118,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1143,7 +1157,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1182,7 +1196,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1221,7 +1235,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1260,7 +1274,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1299,7 +1313,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1334,13 +1348,11 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1375,13 +1387,11 @@
         <v>-19111.33326635</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1420,7 +1430,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1459,7 +1469,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1498,7 +1508,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1537,7 +1547,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1576,7 +1586,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1615,7 +1625,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1654,7 +1664,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1693,7 +1703,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1732,7 +1742,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1767,19 +1777,19 @@
         <v>1585.163202449998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.028500837520938</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1806,11 +1816,17 @@
         <v>-7682.387797550002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>592</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1839,11 +1855,17 @@
         <v>-7313.798297550002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>592</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1872,11 +1894,17 @@
         <v>-10254.62899755</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>592</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1905,11 +1933,17 @@
         <v>-10048.76959755</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>592</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1938,11 +1972,17 @@
         <v>-5653.591897550003</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>592</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1971,11 +2011,17 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>592</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2004,11 +2050,17 @@
         <v>-6196.386997550003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>592</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2037,11 +2089,17 @@
         <v>-7107.825097550003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>592</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2070,11 +2128,17 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>592</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2103,11 +2167,17 @@
         <v>-1647.561297550003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>592</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2136,11 +2206,17 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>592</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +2245,17 @@
         <v>-3292.351497550003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>592</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2202,11 +2284,17 @@
         <v>-4056.434697550003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>592</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2235,11 +2323,17 @@
         <v>-3056.434697550003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>592</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2268,11 +2362,17 @@
         <v>-2046.222597550003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>592</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2301,11 +2401,17 @@
         <v>-2272.257497550003</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>592</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2334,11 +2440,17 @@
         <v>-2599.845297550003</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>592</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2367,11 +2479,17 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>592</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2518,17 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>592</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2433,11 +2557,17 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>592</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2466,11 +2596,17 @@
         <v>-7878.740197550003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>592</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2499,11 +2635,17 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>592</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2532,11 +2674,17 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>592</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2565,11 +2713,17 @@
         <v>-11812.76539755</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>592</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2598,11 +2752,17 @@
         <v>-18531.12639755</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>592</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2634,8 +2794,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>592</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2667,8 +2833,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>592</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2700,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>592</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2733,8 +2911,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>592</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2766,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>592</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2799,8 +2989,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>592</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2832,8 +3028,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>592</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +3064,17 @@
         <v>-18233.62459755</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>592</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2898,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>592</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2931,8 +3145,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>592</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2964,8 +3184,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>592</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +3220,17 @@
         <v>-17142.09909755</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>592</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +3259,17 @@
         <v>-18392.07229755</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>592</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +3298,17 @@
         <v>-18380.64079755</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>592</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +3337,17 @@
         <v>-18549.82079755</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>592</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +3376,17 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>592</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3159,11 +3415,17 @@
         <v>-16857.55659755</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>592</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3195,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>592</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3228,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>592</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3261,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>592</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3294,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>592</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>592</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3360,8 +3652,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>592</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3393,8 +3691,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>592</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3426,8 +3730,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>592</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3459,8 +3769,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>592</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3492,8 +3808,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>592</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3525,8 +3847,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>592</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3558,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>592</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3591,8 +3925,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>592</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3624,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>592</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3657,8 +4003,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>592</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3690,8 +4042,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>592</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3723,8 +4081,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>592</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3756,8 +4120,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>592</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3789,8 +4159,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>592</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3822,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>592</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3855,8 +4237,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>592</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3888,8 +4276,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>592</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3921,8 +4315,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>592</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3954,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>592</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3987,8 +4393,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>592</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4020,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>592</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4053,8 +4471,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>592</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4086,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>592</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4119,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>592</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4152,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>592</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4185,8 +4627,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>592</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4218,8 +4666,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>592</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4251,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>592</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4284,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>592</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4317,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>592</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4350,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>592</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4383,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>592</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4416,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>592</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>592</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>592</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4515,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>592</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4548,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>592</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4581,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>592</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4614,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>592</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4647,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>592</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>592</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4713,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>592</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>592</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>592</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4812,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>592</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4845,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>592</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4875,15 +5443,23 @@
         <v>8984.059912929999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>592</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>1.067635135135135</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.006802721088435</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4908,7 +5484,7 @@
         <v>14143.10841293</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4941,7 +5517,7 @@
         <v>13934.92841293</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4974,7 +5550,7 @@
         <v>12837.78841293</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5007,7 +5583,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5040,7 +5616,7 @@
         <v>12997.04188426</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5073,7 +5649,7 @@
         <v>12019.20528426</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5172,7 +5748,7 @@
         <v>11210.58398426</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5205,7 +5781,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5238,7 +5814,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5271,7 +5847,7 @@
         <v>11464.11928426</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5304,7 +5880,7 @@
         <v>11396.11938426</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5337,7 +5913,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5370,7 +5946,7 @@
         <v>11310.46308426</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5403,7 +5979,7 @@
         <v>12303.56308426</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5436,7 +6012,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5469,7 +6045,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5535,7 +6111,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5568,7 +6144,7 @@
         <v>10527.74778426</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5601,7 +6177,7 @@
         <v>7774.022484259996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5634,7 +6210,7 @@
         <v>7804.022484259996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5667,7 +6243,7 @@
         <v>2657.871584259997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest PPT.xlsx
+++ b/BackTest/2019-11-02 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>888.2221</v>
       </c>
       <c r="G2" t="n">
-        <v>-17881.9958</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>104.8608</v>
       </c>
       <c r="G3" t="n">
-        <v>-17881.9958</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="I3" t="n">
         <v>591</v>
       </c>
-      <c r="J3" t="n">
-        <v>591</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>64.551</v>
       </c>
       <c r="G4" t="n">
-        <v>-17946.5468</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="I4" t="n">
         <v>591</v>
       </c>
-      <c r="J4" t="n">
-        <v>591</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>1.3</v>
       </c>
       <c r="G5" t="n">
-        <v>-17945.2468</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>588</v>
       </c>
       <c r="I5" t="n">
-        <v>588</v>
-      </c>
-      <c r="J5" t="n">
         <v>591</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>661.4457</v>
       </c>
       <c r="G6" t="n">
-        <v>-18606.6925</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>592</v>
       </c>
       <c r="I6" t="n">
         <v>592</v>
       </c>
-      <c r="J6" t="n">
-        <v>592</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>6.32</v>
       </c>
       <c r="G7" t="n">
-        <v>-18600.3725</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>589</v>
       </c>
       <c r="I7" t="n">
-        <v>589</v>
-      </c>
-      <c r="J7" t="n">
-        <v>592</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>592</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +655,23 @@
         <v>986.8326</v>
       </c>
       <c r="G8" t="n">
-        <v>-18600.3725</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>592</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="I8" t="n">
+        <v>592</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,24 +693,23 @@
         <v>842.3781</v>
       </c>
       <c r="G9" t="n">
-        <v>-17757.9944</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>592</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="I9" t="n">
+        <v>592</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,24 +731,23 @@
         <v>2.4359</v>
       </c>
       <c r="G10" t="n">
-        <v>-17757.9944</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>592</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>597</v>
+      </c>
+      <c r="I10" t="n">
+        <v>592</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,24 +769,23 @@
         <v>1.1891</v>
       </c>
       <c r="G11" t="n">
-        <v>-17759.1835</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>592</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>597</v>
+      </c>
+      <c r="I11" t="n">
+        <v>592</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,26 +807,23 @@
         <v>1.3067</v>
       </c>
       <c r="G12" t="n">
-        <v>-17757.8768</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>593</v>
       </c>
       <c r="I12" t="n">
-        <v>593</v>
-      </c>
-      <c r="J12" t="n">
-        <v>592</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,26 +845,23 @@
         <v>3551.03166666</v>
       </c>
       <c r="G13" t="n">
-        <v>-14206.84513334</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>596</v>
       </c>
       <c r="I13" t="n">
-        <v>596</v>
-      </c>
-      <c r="J13" t="n">
-        <v>592</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>592</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,24 +883,21 @@
         <v>5815.07243301</v>
       </c>
       <c r="G14" t="n">
-        <v>-20021.91756635</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>592</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>592</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,24 +919,21 @@
         <v>5549.9822</v>
       </c>
       <c r="G15" t="n">
-        <v>-14471.93536635</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>592</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>592</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -994,24 +955,21 @@
         <v>987.5</v>
       </c>
       <c r="G16" t="n">
-        <v>-15459.43536635</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>592</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>592</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1033,24 +991,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-15458.43536635</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>592</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>592</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,24 +1027,21 @@
         <v>400</v>
       </c>
       <c r="G18" t="n">
-        <v>-15058.43536635</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>592</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>592</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1111,24 +1063,21 @@
         <v>2783.5191</v>
       </c>
       <c r="G19" t="n">
-        <v>-17841.95446635</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>592</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>592</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1150,24 +1099,21 @@
         <v>8.2918</v>
       </c>
       <c r="G20" t="n">
-        <v>-17841.95446635</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>592</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>592</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1189,24 +1135,21 @@
         <v>216.2811</v>
       </c>
       <c r="G21" t="n">
-        <v>-18058.23556635</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>592</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>592</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1228,24 +1171,21 @@
         <v>477.7236</v>
       </c>
       <c r="G22" t="n">
-        <v>-18535.95916635</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>592</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>592</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1267,24 +1207,21 @@
         <v>791.0152</v>
       </c>
       <c r="G23" t="n">
-        <v>-19326.97436635</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>592</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>592</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1306,24 +1243,21 @@
         <v>166.6667</v>
       </c>
       <c r="G24" t="n">
-        <v>-19493.64106635</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>592</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>592</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1345,24 +1279,21 @@
         <v>382.3078</v>
       </c>
       <c r="G25" t="n">
-        <v>-19111.33326635</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>592</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>592</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1384,24 +1315,21 @@
         <v>5106.2491</v>
       </c>
       <c r="G26" t="n">
-        <v>-19111.33326635</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>592</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>592</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1423,24 +1351,21 @@
         <v>957.5103</v>
       </c>
       <c r="G27" t="n">
-        <v>-19111.33326635</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>592</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>592</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1462,24 +1387,21 @@
         <v>241.5948</v>
       </c>
       <c r="G28" t="n">
-        <v>-18869.73846635001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>592</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>592</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1501,24 +1423,21 @@
         <v>8000</v>
       </c>
       <c r="G29" t="n">
-        <v>-18869.73846635001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>592</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>592</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1540,24 +1459,21 @@
         <v>636.7092</v>
       </c>
       <c r="G30" t="n">
-        <v>-18233.02926635</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>592</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>592</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,24 +1495,21 @@
         <v>879.2232</v>
       </c>
       <c r="G31" t="n">
-        <v>-17353.80606635</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>592</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>592</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1618,24 +1531,21 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>-16353.80606635</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>592</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>592</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1657,24 +1567,21 @@
         <v>4863.8371</v>
       </c>
       <c r="G33" t="n">
-        <v>-11489.96896635</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>592</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>592</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1696,24 +1603,21 @@
         <v>4871.8635</v>
       </c>
       <c r="G34" t="n">
-        <v>-6618.105466350003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>592</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>592</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,24 +1639,21 @@
         <v>7723.2686688</v>
       </c>
       <c r="G35" t="n">
-        <v>1105.163202449998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>592</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>592</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1774,24 +1675,21 @@
         <v>480</v>
       </c>
       <c r="G36" t="n">
-        <v>1585.163202449998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>592</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>592</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1813,24 +1711,21 @@
         <v>9267.550999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-7682.387797550002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>592</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>592</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1852,24 +1747,21 @@
         <v>368.5895</v>
       </c>
       <c r="G38" t="n">
-        <v>-7313.798297550002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>592</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>592</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1891,24 +1783,21 @@
         <v>2940.8307</v>
       </c>
       <c r="G39" t="n">
-        <v>-10254.62899755</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>592</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>592</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1930,24 +1819,21 @@
         <v>205.8594</v>
       </c>
       <c r="G40" t="n">
-        <v>-10048.76959755</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>592</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>592</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1969,24 +1855,21 @@
         <v>4395.1777</v>
       </c>
       <c r="G41" t="n">
-        <v>-5653.591897550003</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>592</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>592</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2008,24 +1891,21 @@
         <v>542.7951</v>
       </c>
       <c r="G42" t="n">
-        <v>-6196.386997550003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>592</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>592</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,24 +1927,21 @@
         <v>1410.524</v>
       </c>
       <c r="G43" t="n">
-        <v>-6196.386997550003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>592</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>592</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2086,24 +1963,21 @@
         <v>911.4381</v>
       </c>
       <c r="G44" t="n">
-        <v>-7107.825097550003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>592</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>592</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2125,24 +1999,21 @@
         <v>5460.2638</v>
       </c>
       <c r="G45" t="n">
-        <v>-1647.561297550003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>592</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>592</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2164,24 +2035,21 @@
         <v>1308.7305</v>
       </c>
       <c r="G46" t="n">
-        <v>-1647.561297550003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>592</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>592</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2203,24 +2071,21 @@
         <v>1644.7902</v>
       </c>
       <c r="G47" t="n">
-        <v>-3292.351497550003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>592</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>592</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2242,24 +2107,21 @@
         <v>4958.4019</v>
       </c>
       <c r="G48" t="n">
-        <v>-3292.351497550003</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>592</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>592</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2281,24 +2143,21 @@
         <v>764.0832</v>
       </c>
       <c r="G49" t="n">
-        <v>-4056.434697550003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>592</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>592</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2320,24 +2179,21 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>-3056.434697550003</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>592</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>592</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2359,24 +2215,21 @@
         <v>1010.2121</v>
       </c>
       <c r="G51" t="n">
-        <v>-2046.222597550003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>592</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>592</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2398,24 +2251,21 @@
         <v>226.0349</v>
       </c>
       <c r="G52" t="n">
-        <v>-2272.257497550003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>592</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>592</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2437,24 +2287,21 @@
         <v>327.5878</v>
       </c>
       <c r="G53" t="n">
-        <v>-2599.845297550003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>592</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>592</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,24 +2323,21 @@
         <v>5278.8949</v>
       </c>
       <c r="G54" t="n">
-        <v>-7878.740197550003</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>592</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>592</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2515,24 +2359,21 @@
         <v>1087.8032</v>
       </c>
       <c r="G55" t="n">
-        <v>-7878.740197550003</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>592</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>592</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2554,24 +2395,21 @@
         <v>3850.0767</v>
       </c>
       <c r="G56" t="n">
-        <v>-7878.740197550003</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>592</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>592</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2593,24 +2431,21 @@
         <v>1927.9356</v>
       </c>
       <c r="G57" t="n">
-        <v>-7878.740197550003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>592</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>592</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,24 +2467,21 @@
         <v>3934.0252</v>
       </c>
       <c r="G58" t="n">
-        <v>-11812.76539755</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>592</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>592</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2671,24 +2503,21 @@
         <v>1400</v>
       </c>
       <c r="G59" t="n">
-        <v>-11812.76539755</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>592</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>592</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2710,24 +2539,21 @@
         <v>2309.7329</v>
       </c>
       <c r="G60" t="n">
-        <v>-11812.76539755</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>592</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>592</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2749,24 +2575,21 @@
         <v>6718.361</v>
       </c>
       <c r="G61" t="n">
-        <v>-18531.12639755</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>592</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>592</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2788,24 +2611,21 @@
         <v>493.421</v>
       </c>
       <c r="G62" t="n">
-        <v>-18037.70539755001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>592</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>592</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2827,24 +2647,21 @@
         <v>4138.9757</v>
       </c>
       <c r="G63" t="n">
-        <v>-22176.68109755</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>592</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>592</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,24 +2683,21 @@
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>-22175.68109755</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>592</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>592</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2905,24 +2719,21 @@
         <v>4881.4582</v>
       </c>
       <c r="G65" t="n">
-        <v>-17294.22289755</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>592</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>592</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2944,24 +2755,21 @@
         <v>70.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>-17365.22279755</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>592</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>592</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2983,24 +2791,21 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-17364.22279755</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>592</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>592</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3022,24 +2827,21 @@
         <v>869.4018</v>
       </c>
       <c r="G68" t="n">
-        <v>-18233.62459755</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>592</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>592</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3061,24 +2863,21 @@
         <v>1676.2802</v>
       </c>
       <c r="G69" t="n">
-        <v>-18233.62459755</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>592</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>592</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3100,24 +2899,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>-18223.62459755</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>592</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>592</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3139,24 +2935,21 @@
         <v>946.3615</v>
       </c>
       <c r="G71" t="n">
-        <v>-19169.98609755</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>592</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>592</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3178,24 +2971,21 @@
         <v>2026.887</v>
       </c>
       <c r="G72" t="n">
-        <v>-17143.09909755</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>592</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>592</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3217,24 +3007,21 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>-17142.09909755</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>592</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>592</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3256,24 +3043,21 @@
         <v>1249.9732</v>
       </c>
       <c r="G74" t="n">
-        <v>-18392.07229755</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>592</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>592</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3295,24 +3079,21 @@
         <v>11.4315</v>
       </c>
       <c r="G75" t="n">
-        <v>-18380.64079755</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>592</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>592</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3334,24 +3115,21 @@
         <v>169.18</v>
       </c>
       <c r="G76" t="n">
-        <v>-18549.82079755</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>592</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>592</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3373,24 +3151,21 @@
         <v>1692.2642</v>
       </c>
       <c r="G77" t="n">
-        <v>-16857.55659755</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>592</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>592</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,24 +3187,21 @@
         <v>1007.0032</v>
       </c>
       <c r="G78" t="n">
-        <v>-16857.55659755</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>592</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>592</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3451,24 +3223,21 @@
         <v>1.6091</v>
       </c>
       <c r="G79" t="n">
-        <v>-16855.94749755</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>592</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>592</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3490,24 +3259,21 @@
         <v>2164.5773</v>
       </c>
       <c r="G80" t="n">
-        <v>-19020.52479755</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>592</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>592</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3529,24 +3295,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-19019.52479755</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>592</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>592</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,24 +3331,21 @@
         <v>162.33766233</v>
       </c>
       <c r="G82" t="n">
-        <v>-19181.86245988</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>592</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>592</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3607,24 +3367,21 @@
         <v>162.44836207</v>
       </c>
       <c r="G83" t="n">
-        <v>-19019.41409781</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>592</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>592</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3646,24 +3403,21 @@
         <v>1088.71813793</v>
       </c>
       <c r="G84" t="n">
-        <v>-19019.41409781</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>592</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>592</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3685,24 +3439,21 @@
         <v>13361.6126</v>
       </c>
       <c r="G85" t="n">
-        <v>-5657.80149781</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>592</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>592</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3724,24 +3475,21 @@
         <v>9374.352999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>3716.551502189999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>592</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>592</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3763,24 +3511,21 @@
         <v>710.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>4427.551402189999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>592</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>592</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3802,24 +3547,21 @@
         <v>3456.27970432</v>
       </c>
       <c r="G88" t="n">
-        <v>7883.831106509999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>592</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>592</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,24 +3583,21 @@
         <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>4883.831106509999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>592</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>592</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,24 +3619,21 @@
         <v>12.4777</v>
       </c>
       <c r="G90" t="n">
-        <v>4896.308806509999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>592</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>592</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3919,24 +3655,21 @@
         <v>1309.76279568</v>
       </c>
       <c r="G91" t="n">
-        <v>6206.071602189999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>592</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>592</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3958,24 +3691,21 @@
         <v>3565.08960432</v>
       </c>
       <c r="G92" t="n">
-        <v>9771.161206509998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>592</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>592</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3997,24 +3727,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>9770.161206509998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>592</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>592</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4036,24 +3763,21 @@
         <v>6833.0464</v>
       </c>
       <c r="G94" t="n">
-        <v>2937.114806509998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>592</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>592</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4075,24 +3799,21 @@
         <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>2937.114806509998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>592</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>592</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4114,24 +3835,21 @@
         <v>982.7028</v>
       </c>
       <c r="G96" t="n">
-        <v>3919.817606509998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>592</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>592</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4153,24 +3871,21 @@
         <v>418.0065</v>
       </c>
       <c r="G97" t="n">
-        <v>3501.811106509998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>592</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>592</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4192,24 +3907,21 @@
         <v>745.4299999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>4247.241106509998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>592</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>592</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4231,24 +3943,21 @@
         <v>1690.8313</v>
       </c>
       <c r="G99" t="n">
-        <v>2556.409806509998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>592</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>592</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4270,24 +3979,21 @@
         <v>213</v>
       </c>
       <c r="G100" t="n">
-        <v>2556.409806509998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>592</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>592</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4309,24 +4015,21 @@
         <v>2642.0168</v>
       </c>
       <c r="G101" t="n">
-        <v>-85.60699349000197</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>592</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>592</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4348,24 +4051,21 @@
         <v>266.5727</v>
       </c>
       <c r="G102" t="n">
-        <v>-85.60699349000197</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>592</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>592</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4387,24 +4087,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>-84.60699349000197</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>592</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>592</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4426,24 +4123,21 @@
         <v>25.9734</v>
       </c>
       <c r="G104" t="n">
-        <v>-84.60699349000197</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>592</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>592</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4465,24 +4159,21 @@
         <v>604.0232999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-84.60699349000197</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>592</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>592</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4504,24 +4195,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-85.60699349000197</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>592</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>592</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4543,24 +4231,21 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-84.60699349000197</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>592</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>592</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4582,24 +4267,21 @@
         <v>93</v>
       </c>
       <c r="G108" t="n">
-        <v>-177.606993490002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>592</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>592</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4621,24 +4303,21 @@
         <v>1074.8532</v>
       </c>
       <c r="G109" t="n">
-        <v>897.246206509998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>592</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>592</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4660,24 +4339,21 @@
         <v>1964.1375</v>
       </c>
       <c r="G110" t="n">
-        <v>897.246206509998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>592</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>592</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4699,24 +4375,21 @@
         <v>165.4695</v>
       </c>
       <c r="G111" t="n">
-        <v>897.246206509998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>592</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>592</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4738,24 +4411,21 @@
         <v>5.52</v>
       </c>
       <c r="G112" t="n">
-        <v>902.766206509998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>592</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>592</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4777,24 +4447,21 @@
         <v>1358.1474</v>
       </c>
       <c r="G113" t="n">
-        <v>2260.913606509998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>592</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>592</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4816,24 +4483,21 @@
         <v>596.0265000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>2856.940106509998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>592</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>592</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4855,24 +4519,21 @@
         <v>14.5477</v>
       </c>
       <c r="G115" t="n">
-        <v>2856.940106509998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>592</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>592</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4894,24 +4555,21 @@
         <v>241.5464</v>
       </c>
       <c r="G116" t="n">
-        <v>2856.940106509998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>592</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>592</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4933,24 +4591,21 @@
         <v>638</v>
       </c>
       <c r="G117" t="n">
-        <v>2218.940106509998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>592</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>592</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4972,24 +4627,21 @@
         <v>1643.0964</v>
       </c>
       <c r="G118" t="n">
-        <v>575.8437065099984</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>592</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>592</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5011,24 +4663,21 @@
         <v>273.6</v>
       </c>
       <c r="G119" t="n">
-        <v>849.4437065099984</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>592</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>592</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5050,24 +4699,21 @@
         <v>4924.7592</v>
       </c>
       <c r="G120" t="n">
-        <v>5774.202906509999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>592</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>592</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5089,24 +4735,21 @@
         <v>980.28730158</v>
       </c>
       <c r="G121" t="n">
-        <v>6754.490208089998</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>592</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>592</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5128,24 +4771,21 @@
         <v>589.1269984199999</v>
       </c>
       <c r="G122" t="n">
-        <v>6754.490208089998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>592</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>592</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5167,24 +4807,21 @@
         <v>240.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>6995.490108089998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>592</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>592</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5206,24 +4843,21 @@
         <v>684</v>
       </c>
       <c r="G124" t="n">
-        <v>6311.490108089998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>592</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>592</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5245,24 +4879,21 @@
         <v>1709.8108</v>
       </c>
       <c r="G125" t="n">
-        <v>8021.300908089998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>592</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>592</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5284,24 +4915,21 @@
         <v>804.8511999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>8826.152108089998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>592</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>592</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5323,24 +4951,21 @@
         <v>1090.3212</v>
       </c>
       <c r="G127" t="n">
-        <v>8826.152108089998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>592</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>592</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5362,24 +4987,23 @@
         <v>605.5561</v>
       </c>
       <c r="G128" t="n">
-        <v>8826.152108089998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>592</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>592</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1.062567567567568</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>1.006802721088435</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5401,24 +5025,15 @@
         <v>157.90780484</v>
       </c>
       <c r="G129" t="n">
-        <v>8984.059912929999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>592</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5440,26 +5055,15 @@
         <v>301.348</v>
       </c>
       <c r="G130" t="n">
-        <v>8984.059912929999</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>592</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1.067635135135135</v>
-      </c>
-      <c r="M130" t="n">
-        <v>1.006802721088435</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5481,18 +5085,15 @@
         <v>5159.0485</v>
       </c>
       <c r="G131" t="n">
-        <v>14143.10841293</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5514,18 +5115,15 @@
         <v>208.18</v>
       </c>
       <c r="G132" t="n">
-        <v>13934.92841293</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5547,18 +5145,15 @@
         <v>1097.14</v>
       </c>
       <c r="G133" t="n">
-        <v>12837.78841293</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5580,18 +5175,15 @@
         <v>159.25347133</v>
       </c>
       <c r="G134" t="n">
-        <v>12997.04188426</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5613,18 +5205,15 @@
         <v>1382.799</v>
       </c>
       <c r="G135" t="n">
-        <v>12997.04188426</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5646,18 +5235,15 @@
         <v>977.8366</v>
       </c>
       <c r="G136" t="n">
-        <v>12019.20528426</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5679,18 +5265,15 @@
         <v>159.2535</v>
       </c>
       <c r="G137" t="n">
-        <v>12019.20528426</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5712,18 +5295,15 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>12020.20528426</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5745,18 +5325,15 @@
         <v>809.6213</v>
       </c>
       <c r="G139" t="n">
-        <v>11210.58398426</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5778,18 +5355,15 @@
         <v>253.5353</v>
       </c>
       <c r="G140" t="n">
-        <v>11464.11928426</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5811,18 +5385,15 @@
         <v>69.9576</v>
       </c>
       <c r="G141" t="n">
-        <v>11464.11928426</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5844,18 +5415,15 @@
         <v>385</v>
       </c>
       <c r="G142" t="n">
-        <v>11464.11928426</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5877,18 +5445,15 @@
         <v>67.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>11396.11938426</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5910,18 +5475,15 @@
         <v>85.6563</v>
       </c>
       <c r="G144" t="n">
-        <v>11310.46308426</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5943,18 +5505,15 @@
         <v>146.8301</v>
       </c>
       <c r="G145" t="n">
-        <v>11310.46308426</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5976,18 +5535,15 @@
         <v>993.1</v>
       </c>
       <c r="G146" t="n">
-        <v>12303.56308426</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6009,18 +5565,15 @@
         <v>1775.8153</v>
       </c>
       <c r="G147" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6042,18 +5595,15 @@
         <v>193.1383</v>
       </c>
       <c r="G148" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6075,18 +5625,15 @@
         <v>352.633</v>
       </c>
       <c r="G149" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6108,18 +5655,15 @@
         <v>208.7739</v>
       </c>
       <c r="G150" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6141,18 +5685,15 @@
         <v>280.7771</v>
       </c>
       <c r="G151" t="n">
-        <v>10527.74778426</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6174,18 +5715,15 @@
         <v>2753.7253</v>
       </c>
       <c r="G152" t="n">
-        <v>7774.022484259996</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6207,18 +5745,15 @@
         <v>30</v>
       </c>
       <c r="G153" t="n">
-        <v>7804.022484259996</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6240,18 +5775,15 @@
         <v>5146.1509</v>
       </c>
       <c r="G154" t="n">
-        <v>2657.871584259997</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6273,18 +5805,15 @@
         <v>1112.8108</v>
       </c>
       <c r="G155" t="n">
-        <v>2657.871584259997</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6306,18 +5835,15 @@
         <v>6643.4698</v>
       </c>
       <c r="G156" t="n">
-        <v>-3985.598215740003</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6339,18 +5865,15 @@
         <v>54.7713</v>
       </c>
       <c r="G157" t="n">
-        <v>-3930.826915740003</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6372,18 +5895,15 @@
         <v>1338.0268</v>
       </c>
       <c r="G158" t="n">
-        <v>-5268.853715740003</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6405,18 +5925,15 @@
         <v>550</v>
       </c>
       <c r="G159" t="n">
-        <v>-4718.853715740003</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6438,18 +5955,15 @@
         <v>397.4228</v>
       </c>
       <c r="G160" t="n">
-        <v>-4718.853715740003</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6471,18 +5985,15 @@
         <v>311.9202</v>
       </c>
       <c r="G161" t="n">
-        <v>-5030.773915740003</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6504,18 +6015,15 @@
         <v>6.3674</v>
       </c>
       <c r="G162" t="n">
-        <v>-5024.406515740003</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6537,18 +6045,15 @@
         <v>270.6801</v>
       </c>
       <c r="G163" t="n">
-        <v>-5295.086615740002</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6570,18 +6075,15 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>-5294.086615740002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6603,18 +6105,15 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>-5293.086615740002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6636,18 +6135,15 @@
         <v>234.5504</v>
       </c>
       <c r="G166" t="n">
-        <v>-5527.637015740002</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6669,18 +6165,15 @@
         <v>802.8390000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>-6330.476015740002</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6702,18 +6195,15 @@
         <v>4201.0801</v>
       </c>
       <c r="G168" t="n">
-        <v>-10531.55611574</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6735,18 +6225,15 @@
         <v>80</v>
       </c>
       <c r="G169" t="n">
-        <v>-10451.55611574</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6768,18 +6255,15 @@
         <v>80</v>
       </c>
       <c r="G170" t="n">
-        <v>-10371.55611574</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6801,18 +6285,15 @@
         <v>779</v>
       </c>
       <c r="G171" t="n">
-        <v>-11150.55611574</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6834,18 +6315,15 @@
         <v>204.3468</v>
       </c>
       <c r="G172" t="n">
-        <v>-11150.55611574</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6867,18 +6345,15 @@
         <v>103.9753</v>
       </c>
       <c r="G173" t="n">
-        <v>-11254.53141574</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6900,18 +6375,15 @@
         <v>657.3538</v>
       </c>
       <c r="G174" t="n">
-        <v>-10597.17761574</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6933,18 +6405,15 @@
         <v>2490.4474</v>
       </c>
       <c r="G175" t="n">
-        <v>-8106.730215740002</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6966,18 +6435,15 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6999,18 +6465,15 @@
         <v>79</v>
       </c>
       <c r="G177" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7032,18 +6495,15 @@
         <v>264.1907</v>
       </c>
       <c r="G178" t="n">
-        <v>-8105.730215740002</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7065,18 +6525,15 @@
         <v>1741.0161</v>
       </c>
       <c r="G179" t="n">
-        <v>-9846.746315740002</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7098,18 +6555,15 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>-9845.746315740002</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7131,18 +6585,15 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>-9844.746315740002</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7164,18 +6615,15 @@
         <v>246.5779</v>
       </c>
       <c r="G182" t="n">
-        <v>-10091.32421574</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7197,18 +6645,15 @@
         <v>2000</v>
       </c>
       <c r="G183" t="n">
-        <v>-12091.32421574</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7230,18 +6675,15 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7263,18 +6705,15 @@
         <v>3</v>
       </c>
       <c r="G185" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7296,18 +6735,15 @@
         <v>16.3499</v>
       </c>
       <c r="G186" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7329,18 +6765,15 @@
         <v>307.228</v>
       </c>
       <c r="G187" t="n">
-        <v>-12089.32421574</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
